--- a/BackTest/2020-01-24 BackTest MXC.xlsx
+++ b/BackTest/2020-01-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.832</v>
+        <v>1.825</v>
       </c>
       <c r="C2" t="n">
-        <v>1.832</v>
+        <v>1.83</v>
       </c>
       <c r="D2" t="n">
-        <v>1.832</v>
+        <v>1.83</v>
       </c>
       <c r="E2" t="n">
-        <v>1.832</v>
+        <v>1.825</v>
       </c>
       <c r="F2" t="n">
-        <v>4519.3136</v>
+        <v>3000</v>
       </c>
       <c r="G2" t="n">
-        <v>1.807583333333334</v>
+        <v>1.806850000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>1.832</v>
       </c>
       <c r="C3" t="n">
-        <v>1.833</v>
+        <v>1.832</v>
       </c>
       <c r="D3" t="n">
-        <v>1.833</v>
+        <v>1.832</v>
       </c>
       <c r="E3" t="n">
-        <v>1.83</v>
+        <v>1.832</v>
       </c>
       <c r="F3" t="n">
-        <v>7637.3627</v>
+        <v>4519.3136</v>
       </c>
       <c r="G3" t="n">
-        <v>1.808316666666667</v>
+        <v>1.807583333333334</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,32 +503,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>1.832</v>
+      </c>
+      <c r="C4" t="n">
         <v>1.833</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.838</v>
-      </c>
       <c r="D4" t="n">
-        <v>1.838</v>
+        <v>1.833</v>
       </c>
       <c r="E4" t="n">
-        <v>1.833</v>
+        <v>1.83</v>
       </c>
       <c r="F4" t="n">
-        <v>22704.8452</v>
+        <v>7637.3627</v>
       </c>
       <c r="G4" t="n">
-        <v>1.809133333333334</v>
+        <v>1.808316666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1.832</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,22 +544,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>1.833</v>
+      </c>
+      <c r="C5" t="n">
         <v>1.838</v>
       </c>
-      <c r="C5" t="n">
-        <v>1.85</v>
-      </c>
       <c r="D5" t="n">
-        <v>1.85</v>
+        <v>1.838</v>
       </c>
       <c r="E5" t="n">
-        <v>1.838</v>
+        <v>1.833</v>
       </c>
       <c r="F5" t="n">
-        <v>12972204.4782</v>
+        <v>22704.8452</v>
       </c>
       <c r="G5" t="n">
-        <v>1.810466666666667</v>
+        <v>1.809133333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -563,7 +569,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.84</v>
+        <v>1.838</v>
       </c>
       <c r="C6" t="n">
         <v>1.85</v>
@@ -582,13 +592,13 @@
         <v>1.85</v>
       </c>
       <c r="E6" t="n">
-        <v>1.84</v>
+        <v>1.838</v>
       </c>
       <c r="F6" t="n">
-        <v>180006.3743</v>
+        <v>12972204.4782</v>
       </c>
       <c r="G6" t="n">
-        <v>1.811800000000001</v>
+        <v>1.810466666666667</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -598,7 +608,11 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,7 +622,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="C7" t="n">
         <v>1.85</v>
@@ -617,13 +631,13 @@
         <v>1.85</v>
       </c>
       <c r="E7" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="F7" t="n">
-        <v>554892.7286</v>
+        <v>180006.3743</v>
       </c>
       <c r="G7" t="n">
-        <v>1.813166666666667</v>
+        <v>1.811800000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,7 +647,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -646,19 +664,19 @@
         <v>1.85</v>
       </c>
       <c r="C8" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="D8" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="E8" t="n">
         <v>1.85</v>
       </c>
       <c r="F8" t="n">
-        <v>271332.8049</v>
+        <v>554892.7286</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8148</v>
+        <v>1.813166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,7 +686,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,22 +700,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C9" t="n">
         <v>1.86</v>
       </c>
-      <c r="C9" t="n">
-        <v>1.863</v>
-      </c>
       <c r="D9" t="n">
-        <v>1.863</v>
+        <v>1.86</v>
       </c>
       <c r="E9" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="F9" t="n">
-        <v>39154.9528</v>
+        <v>271332.8049</v>
       </c>
       <c r="G9" t="n">
-        <v>1.816366666666667</v>
+        <v>1.8148</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,7 +725,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +739,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.865</v>
+        <v>1.86</v>
       </c>
       <c r="C10" t="n">
-        <v>1.87</v>
+        <v>1.863</v>
       </c>
       <c r="D10" t="n">
-        <v>1.87</v>
+        <v>1.863</v>
       </c>
       <c r="E10" t="n">
-        <v>1.865</v>
+        <v>1.86</v>
       </c>
       <c r="F10" t="n">
-        <v>208034.5758</v>
+        <v>39154.9528</v>
       </c>
       <c r="G10" t="n">
-        <v>1.81805</v>
+        <v>1.816366666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,7 +764,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,7 +778,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.87</v>
+        <v>1.865</v>
       </c>
       <c r="C11" t="n">
         <v>1.87</v>
@@ -757,13 +787,13 @@
         <v>1.87</v>
       </c>
       <c r="E11" t="n">
-        <v>1.87</v>
+        <v>1.865</v>
       </c>
       <c r="F11" t="n">
-        <v>99538.864</v>
+        <v>208034.5758</v>
       </c>
       <c r="G11" t="n">
-        <v>1.819733333333333</v>
+        <v>1.81805</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +803,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +817,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.869</v>
+        <v>1.87</v>
       </c>
       <c r="C12" t="n">
-        <v>1.869</v>
+        <v>1.87</v>
       </c>
       <c r="D12" t="n">
-        <v>1.869</v>
+        <v>1.87</v>
       </c>
       <c r="E12" t="n">
-        <v>1.869</v>
+        <v>1.87</v>
       </c>
       <c r="F12" t="n">
-        <v>50118.287</v>
+        <v>99538.864</v>
       </c>
       <c r="G12" t="n">
-        <v>1.821066666666667</v>
+        <v>1.819733333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +842,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,32 +856,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.838</v>
+        <v>1.869</v>
       </c>
       <c r="C13" t="n">
-        <v>1.838</v>
+        <v>1.869</v>
       </c>
       <c r="D13" t="n">
-        <v>1.838</v>
+        <v>1.869</v>
       </c>
       <c r="E13" t="n">
-        <v>1.838</v>
+        <v>1.869</v>
       </c>
       <c r="F13" t="n">
-        <v>35615.6789</v>
+        <v>50118.287</v>
       </c>
       <c r="G13" t="n">
-        <v>1.8222</v>
+        <v>1.821066666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,32 +895,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.87</v>
+        <v>1.838</v>
       </c>
       <c r="C14" t="n">
         <v>1.838</v>
       </c>
       <c r="D14" t="n">
-        <v>1.87</v>
+        <v>1.838</v>
       </c>
       <c r="E14" t="n">
         <v>1.838</v>
       </c>
       <c r="F14" t="n">
-        <v>7299.2536</v>
+        <v>35615.6789</v>
       </c>
       <c r="G14" t="n">
-        <v>1.823383333333333</v>
+        <v>1.8222</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,22 +934,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="C15" t="n">
-        <v>1.841</v>
+        <v>1.838</v>
       </c>
       <c r="D15" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="E15" t="n">
-        <v>1.841</v>
+        <v>1.838</v>
       </c>
       <c r="F15" t="n">
-        <v>376795.7096</v>
+        <v>7299.2536</v>
       </c>
       <c r="G15" t="n">
-        <v>1.824616666666667</v>
+        <v>1.823383333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,7 +959,11 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +973,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.859</v>
+        <v>1.85</v>
       </c>
       <c r="C16" t="n">
-        <v>1.859</v>
+        <v>1.841</v>
       </c>
       <c r="D16" t="n">
-        <v>1.859</v>
+        <v>1.85</v>
       </c>
       <c r="E16" t="n">
-        <v>1.859</v>
+        <v>1.841</v>
       </c>
       <c r="F16" t="n">
-        <v>310.7669</v>
+        <v>376795.7096</v>
       </c>
       <c r="G16" t="n">
-        <v>1.825783333333333</v>
+        <v>1.824616666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +998,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,32 +1012,36 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.837</v>
+        <v>1.859</v>
       </c>
       <c r="C17" t="n">
-        <v>1.826</v>
+        <v>1.859</v>
       </c>
       <c r="D17" t="n">
-        <v>1.837</v>
+        <v>1.859</v>
       </c>
       <c r="E17" t="n">
-        <v>1.826</v>
+        <v>1.859</v>
       </c>
       <c r="F17" t="n">
-        <v>4832.6622</v>
+        <v>310.7669</v>
       </c>
       <c r="G17" t="n">
-        <v>1.826383333333333</v>
+        <v>1.825783333333333</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,22 +1051,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.825</v>
+        <v>1.837</v>
       </c>
       <c r="C18" t="n">
-        <v>1.808</v>
+        <v>1.826</v>
       </c>
       <c r="D18" t="n">
-        <v>1.825</v>
+        <v>1.837</v>
       </c>
       <c r="E18" t="n">
-        <v>1.808</v>
+        <v>1.826</v>
       </c>
       <c r="F18" t="n">
-        <v>367466.1625</v>
+        <v>4832.6622</v>
       </c>
       <c r="G18" t="n">
-        <v>1.82635</v>
+        <v>1.826383333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1076,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1028,22 +1090,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.81</v>
+        <v>1.825</v>
       </c>
       <c r="C19" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="D19" t="n">
-        <v>1.81</v>
+        <v>1.825</v>
       </c>
       <c r="E19" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="F19" t="n">
-        <v>176318.1129</v>
+        <v>367466.1625</v>
       </c>
       <c r="G19" t="n">
-        <v>1.826683333333333</v>
+        <v>1.82635</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1115,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1075,10 +1141,10 @@
         <v>1.81</v>
       </c>
       <c r="F20" t="n">
-        <v>802320.0082</v>
+        <v>176318.1129</v>
       </c>
       <c r="G20" t="n">
-        <v>1.82685</v>
+        <v>1.826683333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1154,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1098,22 +1168,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.807</v>
+        <v>1.81</v>
       </c>
       <c r="C21" t="n">
-        <v>1.803</v>
+        <v>1.81</v>
       </c>
       <c r="D21" t="n">
-        <v>1.807</v>
+        <v>1.81</v>
       </c>
       <c r="E21" t="n">
-        <v>1.803</v>
+        <v>1.81</v>
       </c>
       <c r="F21" t="n">
-        <v>77788.0015</v>
+        <v>802320.0082</v>
       </c>
       <c r="G21" t="n">
-        <v>1.8268</v>
+        <v>1.82685</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1193,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1207,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.803</v>
+        <v>1.807</v>
       </c>
       <c r="C22" t="n">
         <v>1.803</v>
       </c>
       <c r="D22" t="n">
-        <v>1.803</v>
+        <v>1.807</v>
       </c>
       <c r="E22" t="n">
         <v>1.803</v>
       </c>
       <c r="F22" t="n">
-        <v>280314.4677</v>
+        <v>77788.0015</v>
       </c>
       <c r="G22" t="n">
-        <v>1.827016666666666</v>
+        <v>1.8268</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1232,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,22 +1246,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.809</v>
+        <v>1.803</v>
       </c>
       <c r="C23" t="n">
-        <v>1.809</v>
+        <v>1.803</v>
       </c>
       <c r="D23" t="n">
-        <v>1.809</v>
+        <v>1.803</v>
       </c>
       <c r="E23" t="n">
-        <v>1.809</v>
+        <v>1.803</v>
       </c>
       <c r="F23" t="n">
-        <v>4395.1238</v>
+        <v>280314.4677</v>
       </c>
       <c r="G23" t="n">
-        <v>1.82735</v>
+        <v>1.827016666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1271,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1285,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="C24" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="D24" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="E24" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="F24" t="n">
-        <v>482.9996</v>
+        <v>4395.1238</v>
       </c>
       <c r="G24" t="n">
-        <v>1.827516666666666</v>
+        <v>1.82735</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1310,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1250,10 +1336,10 @@
         <v>1.81</v>
       </c>
       <c r="F25" t="n">
-        <v>43423.1546</v>
+        <v>482.9996</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82785</v>
+        <v>1.827516666666666</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1349,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1363,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.849</v>
+        <v>1.81</v>
       </c>
       <c r="C26" t="n">
-        <v>1.849</v>
+        <v>1.81</v>
       </c>
       <c r="D26" t="n">
-        <v>1.849</v>
+        <v>1.81</v>
       </c>
       <c r="E26" t="n">
-        <v>1.849</v>
+        <v>1.81</v>
       </c>
       <c r="F26" t="n">
-        <v>474.5302</v>
+        <v>43423.1546</v>
       </c>
       <c r="G26" t="n">
-        <v>1.8285</v>
+        <v>1.82785</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1388,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1308,22 +1402,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.81</v>
+        <v>1.849</v>
       </c>
       <c r="C27" t="n">
-        <v>1.81</v>
+        <v>1.849</v>
       </c>
       <c r="D27" t="n">
-        <v>1.81</v>
+        <v>1.849</v>
       </c>
       <c r="E27" t="n">
-        <v>1.81</v>
+        <v>1.849</v>
       </c>
       <c r="F27" t="n">
-        <v>4395.1238</v>
+        <v>474.5302</v>
       </c>
       <c r="G27" t="n">
-        <v>1.8279</v>
+        <v>1.8285</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1427,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1441,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="C28" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="D28" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="E28" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="F28" t="n">
-        <v>82417.58241758242</v>
+        <v>4395.1238</v>
       </c>
       <c r="G28" t="n">
-        <v>1.827733333333333</v>
+        <v>1.8279</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1466,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1378,22 +1480,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="C29" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="D29" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="E29" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="F29" t="n">
-        <v>15284.6145</v>
+        <v>82417.58241758242</v>
       </c>
       <c r="G29" t="n">
-        <v>1.828016666666666</v>
+        <v>1.827733333333333</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1505,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1413,22 +1519,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.804</v>
+        <v>1.81</v>
       </c>
       <c r="C30" t="n">
-        <v>1.804</v>
+        <v>1.81</v>
       </c>
       <c r="D30" t="n">
-        <v>1.804</v>
+        <v>1.81</v>
       </c>
       <c r="E30" t="n">
-        <v>1.804</v>
+        <v>1.81</v>
       </c>
       <c r="F30" t="n">
-        <v>67132.9679</v>
+        <v>15284.6145</v>
       </c>
       <c r="G30" t="n">
-        <v>1.827916666666666</v>
+        <v>1.828016666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1544,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1448,22 +1558,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="C31" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="D31" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="E31" t="n">
-        <v>1.819</v>
+        <v>1.804</v>
       </c>
       <c r="F31" t="n">
-        <v>1406</v>
+        <v>67132.9679</v>
       </c>
       <c r="G31" t="n">
-        <v>1.828349999999999</v>
+        <v>1.827916666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1583,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1495,10 +1609,10 @@
         <v>1.819</v>
       </c>
       <c r="F32" t="n">
-        <v>65726.9679</v>
+        <v>1406</v>
       </c>
       <c r="G32" t="n">
-        <v>1.827583333333333</v>
+        <v>1.828349999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1622,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1648,10 @@
         <v>1.819</v>
       </c>
       <c r="F33" t="n">
-        <v>603237.1747</v>
+        <v>65726.9679</v>
       </c>
       <c r="G33" t="n">
-        <v>1.8279</v>
+        <v>1.827583333333333</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1661,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1675,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.805</v>
+        <v>1.819</v>
       </c>
       <c r="C34" t="n">
-        <v>1.801</v>
+        <v>1.819</v>
       </c>
       <c r="D34" t="n">
-        <v>1.805</v>
+        <v>1.819</v>
       </c>
       <c r="E34" t="n">
-        <v>1.801</v>
+        <v>1.819</v>
       </c>
       <c r="F34" t="n">
-        <v>104786.5503</v>
+        <v>603237.1747</v>
       </c>
       <c r="G34" t="n">
-        <v>1.827583333333333</v>
+        <v>1.8279</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1700,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1714,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.818</v>
+        <v>1.805</v>
       </c>
       <c r="C35" t="n">
-        <v>1.817</v>
+        <v>1.801</v>
       </c>
       <c r="D35" t="n">
-        <v>1.818</v>
+        <v>1.805</v>
       </c>
       <c r="E35" t="n">
-        <v>1.817</v>
+        <v>1.801</v>
       </c>
       <c r="F35" t="n">
-        <v>300000</v>
+        <v>104786.5503</v>
       </c>
       <c r="G35" t="n">
-        <v>1.827933333333333</v>
+        <v>1.827583333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1739,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1753,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.817</v>
+        <v>1.818</v>
       </c>
       <c r="C36" t="n">
         <v>1.817</v>
       </c>
       <c r="D36" t="n">
-        <v>1.817</v>
+        <v>1.818</v>
       </c>
       <c r="E36" t="n">
         <v>1.817</v>
       </c>
       <c r="F36" t="n">
-        <v>40000</v>
+        <v>300000</v>
       </c>
       <c r="G36" t="n">
-        <v>1.827699999999999</v>
+        <v>1.827933333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1778,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1792,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.801</v>
+        <v>1.817</v>
       </c>
       <c r="C37" t="n">
-        <v>1.801</v>
+        <v>1.817</v>
       </c>
       <c r="D37" t="n">
-        <v>1.801</v>
+        <v>1.817</v>
       </c>
       <c r="E37" t="n">
-        <v>1.801</v>
+        <v>1.817</v>
       </c>
       <c r="F37" t="n">
-        <v>52146.6</v>
+        <v>40000</v>
       </c>
       <c r="G37" t="n">
-        <v>1.826783333333333</v>
+        <v>1.827699999999999</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1817,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,22 +1831,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.81</v>
+        <v>1.801</v>
       </c>
       <c r="C38" t="n">
-        <v>1.81</v>
+        <v>1.801</v>
       </c>
       <c r="D38" t="n">
-        <v>1.81</v>
+        <v>1.801</v>
       </c>
       <c r="E38" t="n">
-        <v>1.81</v>
+        <v>1.801</v>
       </c>
       <c r="F38" t="n">
-        <v>2134.18</v>
+        <v>52146.6</v>
       </c>
       <c r="G38" t="n">
-        <v>1.826766666666666</v>
+        <v>1.826783333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1856,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1870,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.827</v>
+        <v>1.81</v>
       </c>
       <c r="C39" t="n">
-        <v>1.828</v>
+        <v>1.81</v>
       </c>
       <c r="D39" t="n">
-        <v>1.828</v>
+        <v>1.81</v>
       </c>
       <c r="E39" t="n">
-        <v>1.827</v>
+        <v>1.81</v>
       </c>
       <c r="F39" t="n">
-        <v>950210.8295</v>
+        <v>2134.18</v>
       </c>
       <c r="G39" t="n">
-        <v>1.826383333333333</v>
+        <v>1.826766666666666</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1895,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1909,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>1.827</v>
+      </c>
+      <c r="C40" t="n">
         <v>1.828</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.807</v>
       </c>
       <c r="D40" t="n">
         <v>1.828</v>
       </c>
       <c r="E40" t="n">
-        <v>1.807</v>
+        <v>1.827</v>
       </c>
       <c r="F40" t="n">
-        <v>550356.3503</v>
+        <v>950210.8295</v>
       </c>
       <c r="G40" t="n">
-        <v>1.824916666666666</v>
+        <v>1.826383333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1934,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,22 +1948,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.83</v>
+        <v>1.828</v>
       </c>
       <c r="C41" t="n">
-        <v>1.83</v>
+        <v>1.807</v>
       </c>
       <c r="D41" t="n">
-        <v>1.83</v>
+        <v>1.828</v>
       </c>
       <c r="E41" t="n">
-        <v>1.83</v>
+        <v>1.807</v>
       </c>
       <c r="F41" t="n">
-        <v>53510.6654</v>
+        <v>550356.3503</v>
       </c>
       <c r="G41" t="n">
-        <v>1.82515</v>
+        <v>1.824916666666666</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1973,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1987,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.845</v>
+        <v>1.83</v>
       </c>
       <c r="C42" t="n">
-        <v>1.845</v>
+        <v>1.83</v>
       </c>
       <c r="D42" t="n">
-        <v>1.845</v>
+        <v>1.83</v>
       </c>
       <c r="E42" t="n">
-        <v>1.845</v>
+        <v>1.83</v>
       </c>
       <c r="F42" t="n">
-        <v>277</v>
+        <v>53510.6654</v>
       </c>
       <c r="G42" t="n">
-        <v>1.82565</v>
+        <v>1.82515</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +2012,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1883,7 +2041,7 @@
         <v>277</v>
       </c>
       <c r="G43" t="n">
-        <v>1.824816666666666</v>
+        <v>1.82565</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +2051,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1918,7 +2080,7 @@
         <v>277</v>
       </c>
       <c r="G44" t="n">
-        <v>1.8249</v>
+        <v>1.824816666666666</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2090,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,32 +2104,36 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.85</v>
+        <v>1.845</v>
       </c>
       <c r="C45" t="n">
-        <v>1.85</v>
+        <v>1.845</v>
       </c>
       <c r="D45" t="n">
-        <v>1.85</v>
+        <v>1.845</v>
       </c>
       <c r="E45" t="n">
-        <v>1.85</v>
+        <v>1.845</v>
       </c>
       <c r="F45" t="n">
-        <v>554</v>
+        <v>277</v>
       </c>
       <c r="G45" t="n">
-        <v>1.825233333333333</v>
+        <v>1.8249</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1985,10 +2155,10 @@
         <v>1.85</v>
       </c>
       <c r="F46" t="n">
-        <v>8833.5923</v>
+        <v>554</v>
       </c>
       <c r="G46" t="n">
-        <v>1.825566666666666</v>
+        <v>1.825233333333333</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2168,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2020,20 +2194,24 @@
         <v>1.85</v>
       </c>
       <c r="F47" t="n">
-        <v>321067.8</v>
+        <v>8833.5923</v>
       </c>
       <c r="G47" t="n">
-        <v>1.825883333333333</v>
+        <v>1.825566666666666</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2233,10 @@
         <v>1.85</v>
       </c>
       <c r="F48" t="n">
-        <v>23906.82</v>
+        <v>321067.8</v>
       </c>
       <c r="G48" t="n">
-        <v>1.826049999999999</v>
+        <v>1.825883333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2246,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2081,29 +2263,33 @@
         <v>1.85</v>
       </c>
       <c r="C49" t="n">
-        <v>1.823</v>
+        <v>1.85</v>
       </c>
       <c r="D49" t="n">
-        <v>1.853</v>
+        <v>1.85</v>
       </c>
       <c r="E49" t="n">
-        <v>1.823</v>
+        <v>1.85</v>
       </c>
       <c r="F49" t="n">
-        <v>1312.8585</v>
+        <v>23906.82</v>
       </c>
       <c r="G49" t="n">
-        <v>1.826166666666666</v>
+        <v>1.826049999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2299,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.831</v>
+        <v>1.85</v>
       </c>
       <c r="C50" t="n">
-        <v>1.83</v>
+        <v>1.823</v>
       </c>
       <c r="D50" t="n">
-        <v>1.831</v>
+        <v>1.853</v>
       </c>
       <c r="E50" t="n">
-        <v>1.83</v>
+        <v>1.823</v>
       </c>
       <c r="F50" t="n">
-        <v>507884.6116</v>
+        <v>1312.8585</v>
       </c>
       <c r="G50" t="n">
-        <v>1.826433333333332</v>
+        <v>1.826166666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2324,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2338,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.83</v>
+        <v>1.831</v>
       </c>
       <c r="C51" t="n">
         <v>1.83</v>
       </c>
       <c r="D51" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="E51" t="n">
         <v>1.83</v>
       </c>
-      <c r="E51" t="n">
-        <v>1.822</v>
-      </c>
       <c r="F51" t="n">
-        <v>242537.0522</v>
+        <v>507884.6116</v>
       </c>
       <c r="G51" t="n">
-        <v>1.826766666666665</v>
+        <v>1.826433333333332</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2363,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2186,7 +2380,7 @@
         <v>1.83</v>
       </c>
       <c r="C52" t="n">
-        <v>1.822</v>
+        <v>1.83</v>
       </c>
       <c r="D52" t="n">
         <v>1.83</v>
@@ -2195,10 +2389,10 @@
         <v>1.822</v>
       </c>
       <c r="F52" t="n">
-        <v>50000</v>
+        <v>242537.0522</v>
       </c>
       <c r="G52" t="n">
-        <v>1.827199999999999</v>
+        <v>1.826766666666665</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,7 +2402,11 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2416,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.849</v>
+        <v>1.83</v>
       </c>
       <c r="C53" t="n">
-        <v>1.849</v>
+        <v>1.822</v>
       </c>
       <c r="D53" t="n">
-        <v>1.849</v>
+        <v>1.83</v>
       </c>
       <c r="E53" t="n">
-        <v>1.849</v>
+        <v>1.822</v>
       </c>
       <c r="F53" t="n">
-        <v>300</v>
+        <v>50000</v>
       </c>
       <c r="G53" t="n">
-        <v>1.827983333333332</v>
+        <v>1.827199999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2441,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2455,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.82</v>
+        <v>1.849</v>
       </c>
       <c r="C54" t="n">
-        <v>1.82</v>
+        <v>1.849</v>
       </c>
       <c r="D54" t="n">
-        <v>1.82</v>
+        <v>1.849</v>
       </c>
       <c r="E54" t="n">
-        <v>1.82</v>
+        <v>1.849</v>
       </c>
       <c r="F54" t="n">
-        <v>28457.31</v>
+        <v>300</v>
       </c>
       <c r="G54" t="n">
-        <v>1.828383333333332</v>
+        <v>1.827983333333332</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,7 +2480,11 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2300,10 +2506,10 @@
         <v>1.82</v>
       </c>
       <c r="F55" t="n">
-        <v>10976.5358</v>
+        <v>28457.31</v>
       </c>
       <c r="G55" t="n">
-        <v>1.828733333333332</v>
+        <v>1.828383333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,7 +2519,11 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +2533,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="C56" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="D56" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="E56" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="F56" t="n">
-        <v>377799.348</v>
+        <v>10976.5358</v>
       </c>
       <c r="G56" t="n">
-        <v>1.828899999999998</v>
+        <v>1.828733333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,7 +2558,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2358,22 +2572,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="C57" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="D57" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="E57" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="F57" t="n">
-        <v>131137.8229</v>
+        <v>377799.348</v>
       </c>
       <c r="G57" t="n">
-        <v>1.828883333333331</v>
+        <v>1.828899999999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,7 +2597,11 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2405,10 +2623,10 @@
         <v>1.818</v>
       </c>
       <c r="F58" t="n">
-        <v>5994.4268</v>
+        <v>131137.8229</v>
       </c>
       <c r="G58" t="n">
-        <v>1.828849999999998</v>
+        <v>1.828883333333331</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,7 +2636,11 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2440,10 +2662,10 @@
         <v>1.818</v>
       </c>
       <c r="F59" t="n">
-        <v>1550.6</v>
+        <v>5994.4268</v>
       </c>
       <c r="G59" t="n">
-        <v>1.829283333333332</v>
+        <v>1.828849999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,7 +2675,11 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2463,22 +2689,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.83</v>
+        <v>1.818</v>
       </c>
       <c r="C60" t="n">
-        <v>1.83</v>
+        <v>1.818</v>
       </c>
       <c r="D60" t="n">
-        <v>1.83</v>
+        <v>1.818</v>
       </c>
       <c r="E60" t="n">
-        <v>1.83</v>
+        <v>1.818</v>
       </c>
       <c r="F60" t="n">
-        <v>16596.6309</v>
+        <v>1550.6</v>
       </c>
       <c r="G60" t="n">
-        <v>1.829399999999998</v>
+        <v>1.829283333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,7 +2714,11 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2504,13 +2734,13 @@
         <v>1.83</v>
       </c>
       <c r="D61" t="n">
-        <v>1.839</v>
+        <v>1.83</v>
       </c>
       <c r="E61" t="n">
         <v>1.83</v>
       </c>
       <c r="F61" t="n">
-        <v>57497.731</v>
+        <v>16596.6309</v>
       </c>
       <c r="G61" t="n">
         <v>1.829399999999998</v>
@@ -2523,7 +2753,11 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2539,16 +2773,16 @@
         <v>1.83</v>
       </c>
       <c r="D62" t="n">
-        <v>1.83</v>
+        <v>1.839</v>
       </c>
       <c r="E62" t="n">
         <v>1.83</v>
       </c>
       <c r="F62" t="n">
-        <v>605.5096</v>
+        <v>57497.731</v>
       </c>
       <c r="G62" t="n">
-        <v>1.829366666666665</v>
+        <v>1.829399999999998</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,7 +2792,11 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2568,22 +2806,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.839</v>
+        <v>1.83</v>
       </c>
       <c r="C63" t="n">
-        <v>1.839</v>
+        <v>1.83</v>
       </c>
       <c r="D63" t="n">
-        <v>1.839</v>
+        <v>1.83</v>
       </c>
       <c r="E63" t="n">
-        <v>1.839</v>
+        <v>1.83</v>
       </c>
       <c r="F63" t="n">
-        <v>15466.8776</v>
+        <v>605.5096</v>
       </c>
       <c r="G63" t="n">
-        <v>1.829466666666665</v>
+        <v>1.829366666666665</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,7 +2831,11 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2615,10 +2857,10 @@
         <v>1.839</v>
       </c>
       <c r="F64" t="n">
-        <v>15477.4811</v>
+        <v>15466.8776</v>
       </c>
       <c r="G64" t="n">
-        <v>1.829483333333332</v>
+        <v>1.829466666666665</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,7 +2870,11 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2638,22 +2884,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.837</v>
+        <v>1.839</v>
       </c>
       <c r="C65" t="n">
-        <v>1.837</v>
+        <v>1.839</v>
       </c>
       <c r="D65" t="n">
-        <v>1.837</v>
+        <v>1.839</v>
       </c>
       <c r="E65" t="n">
-        <v>1.837</v>
+        <v>1.839</v>
       </c>
       <c r="F65" t="n">
-        <v>45865.7059</v>
+        <v>15477.4811</v>
       </c>
       <c r="G65" t="n">
-        <v>1.829266666666665</v>
+        <v>1.829483333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,7 +2909,11 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2676,19 +2926,19 @@
         <v>1.837</v>
       </c>
       <c r="C66" t="n">
-        <v>1.809</v>
+        <v>1.837</v>
       </c>
       <c r="D66" t="n">
         <v>1.837</v>
       </c>
       <c r="E66" t="n">
-        <v>1.809</v>
+        <v>1.837</v>
       </c>
       <c r="F66" t="n">
-        <v>26766.0651</v>
+        <v>45865.7059</v>
       </c>
       <c r="G66" t="n">
-        <v>1.828583333333332</v>
+        <v>1.829266666666665</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,7 +2948,11 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2708,22 +2962,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.809</v>
+        <v>1.837</v>
       </c>
       <c r="C67" t="n">
         <v>1.809</v>
       </c>
       <c r="D67" t="n">
-        <v>1.809</v>
+        <v>1.837</v>
       </c>
       <c r="E67" t="n">
         <v>1.809</v>
       </c>
       <c r="F67" t="n">
-        <v>18376.432</v>
+        <v>26766.0651</v>
       </c>
       <c r="G67" t="n">
-        <v>1.827899999999999</v>
+        <v>1.828583333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,7 +2987,11 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +3001,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.808</v>
+        <v>1.809</v>
       </c>
       <c r="C68" t="n">
-        <v>1.808</v>
+        <v>1.809</v>
       </c>
       <c r="D68" t="n">
-        <v>1.808</v>
+        <v>1.809</v>
       </c>
       <c r="E68" t="n">
-        <v>1.808</v>
+        <v>1.809</v>
       </c>
       <c r="F68" t="n">
-        <v>674.4331</v>
+        <v>18376.432</v>
       </c>
       <c r="G68" t="n">
-        <v>1.827033333333332</v>
+        <v>1.827899999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,7 +3026,11 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2778,22 +3040,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="C69" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="D69" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="E69" t="n">
-        <v>1.81</v>
+        <v>1.808</v>
       </c>
       <c r="F69" t="n">
-        <v>20000</v>
+        <v>674.4331</v>
       </c>
       <c r="G69" t="n">
-        <v>1.826149999999999</v>
+        <v>1.827033333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,7 +3065,11 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2813,22 +3079,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="C70" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="D70" t="n">
-        <v>1.808</v>
+        <v>1.81</v>
       </c>
       <c r="E70" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="F70" t="n">
-        <v>208688.9713</v>
+        <v>20000</v>
       </c>
       <c r="G70" t="n">
-        <v>1.824966666666666</v>
+        <v>1.826149999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,7 +3104,11 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2848,22 +3118,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.799</v>
+        <v>1.808</v>
       </c>
       <c r="C71" t="n">
         <v>1.799</v>
       </c>
       <c r="D71" t="n">
-        <v>1.799</v>
+        <v>1.808</v>
       </c>
       <c r="E71" t="n">
         <v>1.799</v>
       </c>
       <c r="F71" t="n">
-        <v>1157</v>
+        <v>208688.9713</v>
       </c>
       <c r="G71" t="n">
-        <v>1.823783333333332</v>
+        <v>1.824966666666666</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,7 +3143,11 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2883,22 +3157,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.798</v>
+        <v>1.799</v>
       </c>
       <c r="C72" t="n">
-        <v>1.791</v>
+        <v>1.799</v>
       </c>
       <c r="D72" t="n">
-        <v>1.798</v>
+        <v>1.799</v>
       </c>
       <c r="E72" t="n">
-        <v>1.791</v>
+        <v>1.799</v>
       </c>
       <c r="F72" t="n">
-        <v>45413.4348</v>
+        <v>1157</v>
       </c>
       <c r="G72" t="n">
-        <v>1.822483333333332</v>
+        <v>1.823783333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,7 +3182,11 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2918,22 +3196,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.789</v>
+        <v>1.798</v>
       </c>
       <c r="C73" t="n">
-        <v>1.78</v>
+        <v>1.791</v>
       </c>
       <c r="D73" t="n">
-        <v>1.789</v>
+        <v>1.798</v>
       </c>
       <c r="E73" t="n">
-        <v>1.78</v>
+        <v>1.791</v>
       </c>
       <c r="F73" t="n">
-        <v>46024</v>
+        <v>45413.4348</v>
       </c>
       <c r="G73" t="n">
-        <v>1.821516666666666</v>
+        <v>1.822483333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,7 +3221,11 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -2953,22 +3235,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.78</v>
+        <v>1.789</v>
       </c>
       <c r="C74" t="n">
         <v>1.78</v>
       </c>
       <c r="D74" t="n">
-        <v>1.78</v>
+        <v>1.789</v>
       </c>
       <c r="E74" t="n">
         <v>1.78</v>
       </c>
       <c r="F74" t="n">
-        <v>83269</v>
+        <v>46024</v>
       </c>
       <c r="G74" t="n">
-        <v>1.820549999999999</v>
+        <v>1.821516666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,7 +3260,11 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -2988,22 +3274,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.774</v>
+        <v>1.78</v>
       </c>
       <c r="C75" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="D75" t="n">
-        <v>1.774</v>
+        <v>1.78</v>
       </c>
       <c r="E75" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="F75" t="n">
-        <v>751539.2663</v>
+        <v>83269</v>
       </c>
       <c r="G75" t="n">
-        <v>1.819199999999999</v>
+        <v>1.820549999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,7 +3299,11 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3023,22 +3313,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="C76" t="n">
         <v>1.76</v>
       </c>
-      <c r="C76" t="n">
-        <v>1.77</v>
-      </c>
       <c r="D76" t="n">
-        <v>1.77</v>
+        <v>1.774</v>
       </c>
       <c r="E76" t="n">
         <v>1.76</v>
       </c>
       <c r="F76" t="n">
-        <v>289072</v>
+        <v>751539.2663</v>
       </c>
       <c r="G76" t="n">
-        <v>1.817716666666666</v>
+        <v>1.819199999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,7 +3338,11 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3058,22 +3352,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.754</v>
+        <v>1.76</v>
       </c>
       <c r="C77" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="D77" t="n">
-        <v>1.769</v>
+        <v>1.77</v>
       </c>
       <c r="E77" t="n">
-        <v>1.751</v>
+        <v>1.76</v>
       </c>
       <c r="F77" t="n">
-        <v>7000.4854</v>
+        <v>289072</v>
       </c>
       <c r="G77" t="n">
-        <v>1.816766666666666</v>
+        <v>1.817716666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,7 +3377,11 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3093,22 +3391,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="C78" t="n">
         <v>1.769</v>
       </c>
-      <c r="C78" t="n">
-        <v>1.79</v>
-      </c>
       <c r="D78" t="n">
-        <v>1.79</v>
+        <v>1.769</v>
       </c>
       <c r="E78" t="n">
-        <v>1.769</v>
+        <v>1.751</v>
       </c>
       <c r="F78" t="n">
-        <v>31078.2833</v>
+        <v>7000.4854</v>
       </c>
       <c r="G78" t="n">
-        <v>1.816466666666666</v>
+        <v>1.816766666666666</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,7 +3416,11 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3128,22 +3430,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C79" t="n">
         <v>1.79</v>
       </c>
-      <c r="C79" t="n">
-        <v>1.819</v>
-      </c>
       <c r="D79" t="n">
-        <v>1.819</v>
+        <v>1.79</v>
       </c>
       <c r="E79" t="n">
-        <v>1.79</v>
+        <v>1.769</v>
       </c>
       <c r="F79" t="n">
-        <v>130340.4444</v>
+        <v>31078.2833</v>
       </c>
       <c r="G79" t="n">
-        <v>1.816616666666666</v>
+        <v>1.816466666666666</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,7 +3455,11 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3163,36 +3469,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C80" t="n">
         <v>1.819</v>
       </c>
-      <c r="C80" t="n">
-        <v>1.82</v>
-      </c>
       <c r="D80" t="n">
-        <v>1.82</v>
+        <v>1.819</v>
       </c>
       <c r="E80" t="n">
-        <v>1.819</v>
+        <v>1.79</v>
       </c>
       <c r="F80" t="n">
-        <v>16826.5429</v>
+        <v>130340.4444</v>
       </c>
       <c r="G80" t="n">
-        <v>1.816783333333333</v>
+        <v>1.816616666666666</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1.819</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -3207,29 +3511,27 @@
         <v>1.819</v>
       </c>
       <c r="C81" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="D81" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E81" t="n">
         <v>1.819</v>
       </c>
-      <c r="E81" t="n">
-        <v>1.75</v>
-      </c>
       <c r="F81" t="n">
-        <v>81698.96859999999</v>
+        <v>16826.5429</v>
       </c>
       <c r="G81" t="n">
-        <v>1.815899999999999</v>
+        <v>1.816783333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1.82</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
@@ -3245,22 +3547,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.81</v>
+        <v>1.819</v>
       </c>
       <c r="C82" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="D82" t="n">
-        <v>1.81</v>
+        <v>1.819</v>
       </c>
       <c r="E82" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="F82" t="n">
-        <v>15228.3699</v>
+        <v>81698.96859999999</v>
       </c>
       <c r="G82" t="n">
-        <v>1.816016666666666</v>
+        <v>1.815899999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3284,22 +3586,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="C83" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="D83" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="E83" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="F83" t="n">
-        <v>53618.4965</v>
+        <v>15228.3699</v>
       </c>
       <c r="G83" t="n">
-        <v>1.815383333333333</v>
+        <v>1.816016666666666</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3323,22 +3625,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.799</v>
+        <v>1.771</v>
       </c>
       <c r="C84" t="n">
-        <v>1.799</v>
+        <v>1.771</v>
       </c>
       <c r="D84" t="n">
-        <v>1.799</v>
+        <v>1.771</v>
       </c>
       <c r="E84" t="n">
-        <v>1.799</v>
+        <v>1.771</v>
       </c>
       <c r="F84" t="n">
-        <v>5795.0504</v>
+        <v>53618.4965</v>
       </c>
       <c r="G84" t="n">
-        <v>1.8152</v>
+        <v>1.815383333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3374,10 +3676,10 @@
         <v>1.799</v>
       </c>
       <c r="F85" t="n">
-        <v>1000</v>
+        <v>5795.0504</v>
       </c>
       <c r="G85" t="n">
-        <v>1.815016666666666</v>
+        <v>1.8152</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3401,22 +3703,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="C86" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="D86" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="E86" t="n">
-        <v>1.8</v>
+        <v>1.799</v>
       </c>
       <c r="F86" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="G86" t="n">
-        <v>1.8142</v>
+        <v>1.815016666666666</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3440,22 +3742,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.809</v>
+        <v>1.8</v>
       </c>
       <c r="C87" t="n">
-        <v>1.809</v>
+        <v>1.8</v>
       </c>
       <c r="D87" t="n">
-        <v>1.809</v>
+        <v>1.8</v>
       </c>
       <c r="E87" t="n">
-        <v>1.809</v>
+        <v>1.8</v>
       </c>
       <c r="F87" t="n">
-        <v>1054.5294</v>
+        <v>280</v>
       </c>
       <c r="G87" t="n">
-        <v>1.814183333333333</v>
+        <v>1.8142</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3479,22 +3781,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.8</v>
+        <v>1.809</v>
       </c>
       <c r="C88" t="n">
-        <v>1.8</v>
+        <v>1.809</v>
       </c>
       <c r="D88" t="n">
-        <v>1.8</v>
+        <v>1.809</v>
       </c>
       <c r="E88" t="n">
-        <v>1.8</v>
+        <v>1.809</v>
       </c>
       <c r="F88" t="n">
-        <v>10393.1146</v>
+        <v>1054.5294</v>
       </c>
       <c r="G88" t="n">
-        <v>1.81385</v>
+        <v>1.814183333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3518,22 +3820,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.799</v>
+        <v>1.8</v>
       </c>
       <c r="C89" t="n">
-        <v>1.799</v>
+        <v>1.8</v>
       </c>
       <c r="D89" t="n">
-        <v>1.799</v>
+        <v>1.8</v>
       </c>
       <c r="E89" t="n">
-        <v>1.799</v>
+        <v>1.8</v>
       </c>
       <c r="F89" t="n">
-        <v>99.34</v>
+        <v>10393.1146</v>
       </c>
       <c r="G89" t="n">
-        <v>1.813666666666666</v>
+        <v>1.81385</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3557,22 +3859,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.781</v>
+        <v>1.799</v>
       </c>
       <c r="C90" t="n">
-        <v>1.767</v>
+        <v>1.799</v>
       </c>
       <c r="D90" t="n">
         <v>1.799</v>
       </c>
       <c r="E90" t="n">
-        <v>1.767</v>
+        <v>1.799</v>
       </c>
       <c r="F90" t="n">
-        <v>596193.857</v>
+        <v>99.34</v>
       </c>
       <c r="G90" t="n">
-        <v>1.81305</v>
+        <v>1.813666666666666</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3596,22 +3898,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.799</v>
+        <v>1.781</v>
       </c>
       <c r="C91" t="n">
-        <v>1.799</v>
+        <v>1.767</v>
       </c>
       <c r="D91" t="n">
         <v>1.799</v>
       </c>
       <c r="E91" t="n">
-        <v>1.799</v>
+        <v>1.767</v>
       </c>
       <c r="F91" t="n">
-        <v>6549.6708</v>
+        <v>596193.857</v>
       </c>
       <c r="G91" t="n">
-        <v>1.812716666666666</v>
+        <v>1.81305</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3635,22 +3937,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.78</v>
+        <v>1.799</v>
       </c>
       <c r="C92" t="n">
-        <v>1.779</v>
+        <v>1.799</v>
       </c>
       <c r="D92" t="n">
-        <v>1.78</v>
+        <v>1.799</v>
       </c>
       <c r="E92" t="n">
-        <v>1.779</v>
+        <v>1.799</v>
       </c>
       <c r="F92" t="n">
-        <v>49659</v>
+        <v>6549.6708</v>
       </c>
       <c r="G92" t="n">
-        <v>1.812049999999999</v>
+        <v>1.812716666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3674,22 +3976,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="C93" t="n">
-        <v>1.77</v>
+        <v>1.779</v>
       </c>
       <c r="D93" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="E93" t="n">
-        <v>1.77</v>
+        <v>1.779</v>
       </c>
       <c r="F93" t="n">
-        <v>44644.3139</v>
+        <v>49659</v>
       </c>
       <c r="G93" t="n">
-        <v>1.811233333333333</v>
+        <v>1.812049999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3725,10 +4027,10 @@
         <v>1.77</v>
       </c>
       <c r="F94" t="n">
-        <v>281965.6581</v>
+        <v>44644.3139</v>
       </c>
       <c r="G94" t="n">
-        <v>1.810716666666666</v>
+        <v>1.811233333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3752,22 +4054,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.772</v>
+        <v>1.77</v>
       </c>
       <c r="C95" t="n">
-        <v>1.772</v>
+        <v>1.77</v>
       </c>
       <c r="D95" t="n">
-        <v>1.772</v>
+        <v>1.77</v>
       </c>
       <c r="E95" t="n">
-        <v>1.772</v>
+        <v>1.77</v>
       </c>
       <c r="F95" t="n">
-        <v>44644.3139</v>
+        <v>281965.6581</v>
       </c>
       <c r="G95" t="n">
-        <v>1.809966666666666</v>
+        <v>1.810716666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3791,32 +4093,30 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.785</v>
+        <v>1.772</v>
       </c>
       <c r="C96" t="n">
-        <v>1.785</v>
+        <v>1.772</v>
       </c>
       <c r="D96" t="n">
-        <v>1.785</v>
+        <v>1.772</v>
       </c>
       <c r="E96" t="n">
-        <v>1.785</v>
+        <v>1.772</v>
       </c>
       <c r="F96" t="n">
-        <v>6270.9886</v>
+        <v>44644.3139</v>
       </c>
       <c r="G96" t="n">
-        <v>1.809433333333333</v>
+        <v>1.809966666666666</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1.772</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
@@ -3832,32 +4132,30 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.772</v>
+        <v>1.785</v>
       </c>
       <c r="C97" t="n">
-        <v>1.771</v>
+        <v>1.785</v>
       </c>
       <c r="D97" t="n">
-        <v>1.772</v>
+        <v>1.785</v>
       </c>
       <c r="E97" t="n">
-        <v>1.771</v>
+        <v>1.785</v>
       </c>
       <c r="F97" t="n">
-        <v>24311.0148</v>
+        <v>6270.9886</v>
       </c>
       <c r="G97" t="n">
-        <v>1.808933333333333</v>
+        <v>1.809433333333333</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1.785</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
@@ -3873,32 +4171,30 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C98" t="n">
         <v>1.771</v>
       </c>
-      <c r="C98" t="n">
-        <v>1.784</v>
-      </c>
       <c r="D98" t="n">
-        <v>1.784</v>
+        <v>1.772</v>
       </c>
       <c r="E98" t="n">
         <v>1.771</v>
       </c>
       <c r="F98" t="n">
-        <v>255300</v>
+        <v>24311.0148</v>
       </c>
       <c r="G98" t="n">
-        <v>1.8085</v>
+        <v>1.808933333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1.771</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
@@ -3914,22 +4210,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.767</v>
+        <v>1.771</v>
       </c>
       <c r="C99" t="n">
-        <v>1.767</v>
+        <v>1.784</v>
       </c>
       <c r="D99" t="n">
-        <v>1.767</v>
+        <v>1.784</v>
       </c>
       <c r="E99" t="n">
-        <v>1.767</v>
+        <v>1.771</v>
       </c>
       <c r="F99" t="n">
-        <v>30000</v>
+        <v>255300</v>
       </c>
       <c r="G99" t="n">
-        <v>1.807483333333333</v>
+        <v>1.8085</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3953,22 +4249,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.768</v>
+        <v>1.767</v>
       </c>
       <c r="C100" t="n">
-        <v>1.768</v>
+        <v>1.767</v>
       </c>
       <c r="D100" t="n">
-        <v>1.768</v>
+        <v>1.767</v>
       </c>
       <c r="E100" t="n">
-        <v>1.768</v>
+        <v>1.767</v>
       </c>
       <c r="F100" t="n">
-        <v>1000</v>
+        <v>30000</v>
       </c>
       <c r="G100" t="n">
-        <v>1.806833333333333</v>
+        <v>1.807483333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3992,22 +4288,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.784</v>
+        <v>1.768</v>
       </c>
       <c r="C101" t="n">
-        <v>1.784</v>
+        <v>1.768</v>
       </c>
       <c r="D101" t="n">
-        <v>1.784</v>
+        <v>1.768</v>
       </c>
       <c r="E101" t="n">
-        <v>1.784</v>
+        <v>1.768</v>
       </c>
       <c r="F101" t="n">
-        <v>281</v>
+        <v>1000</v>
       </c>
       <c r="G101" t="n">
-        <v>1.806066666666666</v>
+        <v>1.806833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4034,19 +4330,19 @@
         <v>1.784</v>
       </c>
       <c r="C102" t="n">
-        <v>1.82</v>
+        <v>1.784</v>
       </c>
       <c r="D102" t="n">
-        <v>1.82</v>
+        <v>1.784</v>
       </c>
       <c r="E102" t="n">
         <v>1.784</v>
       </c>
       <c r="F102" t="n">
-        <v>543137.9267667582</v>
+        <v>281</v>
       </c>
       <c r="G102" t="n">
-        <v>1.80565</v>
+        <v>1.806066666666666</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4070,22 +4366,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.8</v>
+        <v>1.784</v>
       </c>
       <c r="C103" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="D103" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="E103" t="n">
-        <v>1.8</v>
+        <v>1.784</v>
       </c>
       <c r="F103" t="n">
-        <v>184665.1059</v>
+        <v>543137.9267667582</v>
       </c>
       <c r="G103" t="n">
-        <v>1.8049</v>
+        <v>1.80565</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4109,22 +4405,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.781</v>
+        <v>1.8</v>
       </c>
       <c r="C104" t="n">
-        <v>1.781</v>
+        <v>1.8</v>
       </c>
       <c r="D104" t="n">
-        <v>1.781</v>
+        <v>1.8</v>
       </c>
       <c r="E104" t="n">
-        <v>1.781</v>
+        <v>1.8</v>
       </c>
       <c r="F104" t="n">
-        <v>122120.721</v>
+        <v>184665.1059</v>
       </c>
       <c r="G104" t="n">
-        <v>1.803833333333333</v>
+        <v>1.8049</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4148,22 +4444,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.79</v>
+        <v>1.781</v>
       </c>
       <c r="C105" t="n">
-        <v>1.79</v>
+        <v>1.781</v>
       </c>
       <c r="D105" t="n">
-        <v>1.79</v>
+        <v>1.781</v>
       </c>
       <c r="E105" t="n">
-        <v>1.79</v>
+        <v>1.781</v>
       </c>
       <c r="F105" t="n">
-        <v>196729.3296</v>
+        <v>122120.721</v>
       </c>
       <c r="G105" t="n">
-        <v>1.802833333333333</v>
+        <v>1.803833333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4187,22 +4483,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="C106" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="D106" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="E106" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="F106" t="n">
-        <v>2149.3361</v>
+        <v>196729.3296</v>
       </c>
       <c r="G106" t="n">
-        <v>1.801666666666667</v>
+        <v>1.802833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4226,22 +4522,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="C107" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="D107" t="n">
-        <v>1.791</v>
+        <v>1.78</v>
       </c>
       <c r="E107" t="n">
-        <v>1.779</v>
+        <v>1.78</v>
       </c>
       <c r="F107" t="n">
-        <v>919360.7581</v>
+        <v>2149.3361</v>
       </c>
       <c r="G107" t="n">
-        <v>1.800666666666667</v>
+        <v>1.801666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4265,22 +4561,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C108" t="n">
         <v>1.79</v>
       </c>
-      <c r="C108" t="n">
-        <v>1.8</v>
-      </c>
       <c r="D108" t="n">
-        <v>1.8</v>
+        <v>1.791</v>
       </c>
       <c r="E108" t="n">
-        <v>1.76</v>
+        <v>1.779</v>
       </c>
       <c r="F108" t="n">
-        <v>576992.9377</v>
+        <v>919360.7581</v>
       </c>
       <c r="G108" t="n">
-        <v>1.799833333333333</v>
+        <v>1.800666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4296,6 +4592,45 @@
         </is>
       </c>
       <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F109" t="n">
+        <v>576992.9377</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.799833333333333</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest MXC.xlsx
+++ b/BackTest/2020-01-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:N119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3000</v>
       </c>
       <c r="G2" t="n">
+        <v>1.812533333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>1.806850000000001</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>4519.3136</v>
       </c>
       <c r="G3" t="n">
+        <v>1.8126</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.807583333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,24 +529,21 @@
         <v>7637.3627</v>
       </c>
       <c r="G4" t="n">
+        <v>1.812133333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>1.808316666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.832</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -559,22 +567,21 @@
         <v>22704.8452</v>
       </c>
       <c r="G5" t="n">
+        <v>1.8136</v>
+      </c>
+      <c r="H5" t="n">
         <v>1.809133333333334</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -598,22 +605,21 @@
         <v>12972204.4782</v>
       </c>
       <c r="G6" t="n">
+        <v>1.816</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.810466666666667</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -637,22 +643,21 @@
         <v>180006.3743</v>
       </c>
       <c r="G7" t="n">
+        <v>1.818666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.811800000000001</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -676,22 +681,21 @@
         <v>554892.7286</v>
       </c>
       <c r="G8" t="n">
+        <v>1.822266666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.813166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -715,22 +719,21 @@
         <v>271332.8049</v>
       </c>
       <c r="G9" t="n">
+        <v>1.826133333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.8148</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -754,22 +757,21 @@
         <v>39154.9528</v>
       </c>
       <c r="G10" t="n">
+        <v>1.830600000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>1.816366666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -793,22 +795,21 @@
         <v>208034.5758</v>
       </c>
       <c r="G11" t="n">
+        <v>1.835333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>1.81805</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -832,22 +833,21 @@
         <v>99538.864</v>
       </c>
       <c r="G12" t="n">
+        <v>1.840000000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>1.819733333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -871,22 +871,21 @@
         <v>50118.287</v>
       </c>
       <c r="G13" t="n">
+        <v>1.843333333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>1.821066666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,22 +909,21 @@
         <v>35615.6789</v>
       </c>
       <c r="G14" t="n">
+        <v>1.844533333333334</v>
+      </c>
+      <c r="H14" t="n">
         <v>1.8222</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -949,22 +947,21 @@
         <v>7299.2536</v>
       </c>
       <c r="G15" t="n">
+        <v>1.847600000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>1.823383333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,22 +985,21 @@
         <v>376795.7096</v>
       </c>
       <c r="G16" t="n">
+        <v>1.848800000000001</v>
+      </c>
+      <c r="H16" t="n">
         <v>1.824616666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1027,22 +1023,21 @@
         <v>310.7669</v>
       </c>
       <c r="G17" t="n">
+        <v>1.850733333333334</v>
+      </c>
+      <c r="H17" t="n">
         <v>1.825783333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1066,22 +1061,21 @@
         <v>4832.6622</v>
       </c>
       <c r="G18" t="n">
+        <v>1.850333333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>1.826383333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1105,22 +1099,21 @@
         <v>367466.1625</v>
       </c>
       <c r="G19" t="n">
+        <v>1.848666666666668</v>
+      </c>
+      <c r="H19" t="n">
         <v>1.82635</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,22 +1137,21 @@
         <v>176318.1129</v>
       </c>
       <c r="G20" t="n">
+        <v>1.846800000000001</v>
+      </c>
+      <c r="H20" t="n">
         <v>1.826683333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,22 +1175,21 @@
         <v>802320.0082</v>
       </c>
       <c r="G21" t="n">
+        <v>1.844133333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>1.82685</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1222,22 +1213,21 @@
         <v>77788.0015</v>
       </c>
       <c r="G22" t="n">
+        <v>1.841000000000001</v>
+      </c>
+      <c r="H22" t="n">
         <v>1.8268</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1261,22 +1251,21 @@
         <v>280314.4677</v>
       </c>
       <c r="G23" t="n">
+        <v>1.837866666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.827016666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1300,22 +1289,21 @@
         <v>4395.1238</v>
       </c>
       <c r="G24" t="n">
+        <v>1.834466666666668</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.82735</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,22 +1327,21 @@
         <v>482.9996</v>
       </c>
       <c r="G25" t="n">
+        <v>1.830933333333334</v>
+      </c>
+      <c r="H25" t="n">
         <v>1.827516666666666</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,22 +1365,21 @@
         <v>43423.1546</v>
       </c>
       <c r="G26" t="n">
+        <v>1.826933333333334</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.82785</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1417,22 +1403,21 @@
         <v>474.5302</v>
       </c>
       <c r="G27" t="n">
+        <v>1.825533333333334</v>
+      </c>
+      <c r="H27" t="n">
         <v>1.8285</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1456,22 +1441,21 @@
         <v>4395.1238</v>
       </c>
       <c r="G28" t="n">
+        <v>1.821600000000001</v>
+      </c>
+      <c r="H28" t="n">
         <v>1.8279</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1495,22 +1479,21 @@
         <v>82417.58241758242</v>
       </c>
       <c r="G29" t="n">
+        <v>1.8204</v>
+      </c>
+      <c r="H29" t="n">
         <v>1.827733333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1534,22 +1517,21 @@
         <v>15284.6145</v>
       </c>
       <c r="G30" t="n">
+        <v>1.818533333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.828016666666666</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1573,22 +1555,21 @@
         <v>67132.9679</v>
       </c>
       <c r="G31" t="n">
+        <v>1.816066666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>1.827916666666666</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1612,22 +1593,21 @@
         <v>1406</v>
       </c>
       <c r="G32" t="n">
+        <v>1.8134</v>
+      </c>
+      <c r="H32" t="n">
         <v>1.828349999999999</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1651,22 +1631,21 @@
         <v>65726.9679</v>
       </c>
       <c r="G33" t="n">
+        <v>1.812933333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>1.827583333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,22 +1669,21 @@
         <v>603237.1747</v>
       </c>
       <c r="G34" t="n">
+        <v>1.813666666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.8279</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1729,22 +1707,21 @@
         <v>104786.5503</v>
       </c>
       <c r="G35" t="n">
+        <v>1.813066666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>1.827583333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,22 +1745,21 @@
         <v>300000</v>
       </c>
       <c r="G36" t="n">
+        <v>1.813533333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>1.827933333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1807,22 +1783,21 @@
         <v>40000</v>
       </c>
       <c r="G37" t="n">
+        <v>1.814466666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>1.827699999999999</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1846,22 +1821,21 @@
         <v>52146.6</v>
       </c>
       <c r="G38" t="n">
+        <v>1.814333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>1.826783333333333</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1885,22 +1859,21 @@
         <v>2134.18</v>
       </c>
       <c r="G39" t="n">
+        <v>1.8144</v>
+      </c>
+      <c r="H39" t="n">
         <v>1.826766666666666</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,22 +1897,21 @@
         <v>950210.8295</v>
       </c>
       <c r="G40" t="n">
+        <v>1.8156</v>
+      </c>
+      <c r="H40" t="n">
         <v>1.826383333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1963,22 +1935,21 @@
         <v>550356.3503</v>
       </c>
       <c r="G41" t="n">
+        <v>1.8154</v>
+      </c>
+      <c r="H41" t="n">
         <v>1.824916666666666</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2002,22 +1973,21 @@
         <v>53510.6654</v>
       </c>
       <c r="G42" t="n">
+        <v>1.814133333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>1.82515</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,22 +2011,21 @@
         <v>277</v>
       </c>
       <c r="G43" t="n">
+        <v>1.816466666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>1.82565</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,22 +2049,21 @@
         <v>277</v>
       </c>
       <c r="G44" t="n">
+        <v>1.818133333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>1.824816666666666</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2119,22 +2087,21 @@
         <v>277</v>
       </c>
       <c r="G45" t="n">
+        <v>1.820466666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>1.8249</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2158,22 +2125,21 @@
         <v>554</v>
       </c>
       <c r="G46" t="n">
+        <v>1.823533333333333</v>
+      </c>
+      <c r="H46" t="n">
         <v>1.825233333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2197,22 +2163,21 @@
         <v>8833.5923</v>
       </c>
       <c r="G47" t="n">
+        <v>1.8256</v>
+      </c>
+      <c r="H47" t="n">
         <v>1.825566666666666</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,22 +2201,21 @@
         <v>321067.8</v>
       </c>
       <c r="G48" t="n">
+        <v>1.827666666666667</v>
+      </c>
+      <c r="H48" t="n">
         <v>1.825883333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2275,22 +2239,21 @@
         <v>23906.82</v>
       </c>
       <c r="G49" t="n">
+        <v>1.829733333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>1.826049999999999</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,22 +2277,21 @@
         <v>1312.8585</v>
       </c>
       <c r="G50" t="n">
+        <v>1.8312</v>
+      </c>
+      <c r="H50" t="n">
         <v>1.826166666666666</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2353,22 +2315,21 @@
         <v>507884.6116</v>
       </c>
       <c r="G51" t="n">
+        <v>1.832066666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>1.826433333333332</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,22 +2353,21 @@
         <v>242537.0522</v>
       </c>
       <c r="G52" t="n">
+        <v>1.832933333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>1.826766666666665</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2431,22 +2391,21 @@
         <v>50000</v>
       </c>
       <c r="G53" t="n">
+        <v>1.834333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>1.827199999999999</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2470,22 +2429,21 @@
         <v>300</v>
       </c>
       <c r="G54" t="n">
+        <v>1.836933333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>1.827983333333332</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2509,22 +2467,21 @@
         <v>28457.31</v>
       </c>
       <c r="G55" t="n">
+        <v>1.8364</v>
+      </c>
+      <c r="H55" t="n">
         <v>1.828383333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,22 +2505,21 @@
         <v>10976.5358</v>
       </c>
       <c r="G56" t="n">
+        <v>1.837266666666667</v>
+      </c>
+      <c r="H56" t="n">
         <v>1.828733333333332</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,22 +2543,21 @@
         <v>377799.348</v>
       </c>
       <c r="G57" t="n">
+        <v>1.835933333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>1.828899999999998</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2626,22 +2581,21 @@
         <v>131137.8229</v>
       </c>
       <c r="G58" t="n">
+        <v>1.834133333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>1.828883333333331</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2665,22 +2619,21 @@
         <v>5994.4268</v>
       </c>
       <c r="G59" t="n">
+        <v>1.832333333333334</v>
+      </c>
+      <c r="H59" t="n">
         <v>1.828849999999998</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,22 +2657,21 @@
         <v>1550.6</v>
       </c>
       <c r="G60" t="n">
+        <v>1.830533333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>1.829283333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,22 +2695,21 @@
         <v>16596.6309</v>
       </c>
       <c r="G61" t="n">
+        <v>1.829200000000001</v>
+      </c>
+      <c r="H61" t="n">
         <v>1.829399999999998</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2782,22 +2733,21 @@
         <v>57497.731</v>
       </c>
       <c r="G62" t="n">
+        <v>1.827866666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>1.829399999999998</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2821,22 +2771,21 @@
         <v>605.5096</v>
       </c>
       <c r="G63" t="n">
+        <v>1.826533333333334</v>
+      </c>
+      <c r="H63" t="n">
         <v>1.829366666666665</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2860,22 +2809,21 @@
         <v>15466.8776</v>
       </c>
       <c r="G64" t="n">
+        <v>1.8258</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.829466666666665</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2899,22 +2847,21 @@
         <v>15477.4811</v>
       </c>
       <c r="G65" t="n">
+        <v>1.826866666666667</v>
+      </c>
+      <c r="H65" t="n">
         <v>1.829483333333332</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2938,22 +2885,21 @@
         <v>45865.7059</v>
       </c>
       <c r="G66" t="n">
+        <v>1.827333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>1.829266666666665</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,22 +2923,21 @@
         <v>26766.0651</v>
       </c>
       <c r="G67" t="n">
+        <v>1.825933333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>1.828583333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3016,22 +2961,21 @@
         <v>18376.432</v>
       </c>
       <c r="G68" t="n">
+        <v>1.825066666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>1.827899999999999</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3055,22 +2999,21 @@
         <v>674.4331</v>
       </c>
       <c r="G69" t="n">
+        <v>1.822333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>1.827033333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3094,22 +3037,21 @@
         <v>20000</v>
       </c>
       <c r="G70" t="n">
+        <v>1.821666666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>1.826149999999999</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3133,22 +3075,21 @@
         <v>208688.9713</v>
       </c>
       <c r="G71" t="n">
+        <v>1.820266666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>1.824966666666666</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3172,22 +3113,21 @@
         <v>1157</v>
       </c>
       <c r="G72" t="n">
+        <v>1.819533333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>1.823783333333332</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3211,22 +3151,21 @@
         <v>45413.4348</v>
       </c>
       <c r="G73" t="n">
+        <v>1.817733333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>1.822483333333332</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,22 +3189,21 @@
         <v>46024</v>
       </c>
       <c r="G74" t="n">
+        <v>1.8152</v>
+      </c>
+      <c r="H74" t="n">
         <v>1.821516666666666</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3289,22 +3227,21 @@
         <v>83269</v>
       </c>
       <c r="G75" t="n">
+        <v>1.812666666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>1.820549999999999</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3328,22 +3265,21 @@
         <v>751539.2663</v>
       </c>
       <c r="G76" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="H76" t="n">
         <v>1.819199999999999</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3367,22 +3303,21 @@
         <v>289072</v>
       </c>
       <c r="G77" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="H77" t="n">
         <v>1.817716666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,22 +3341,27 @@
         <v>7000.4854</v>
       </c>
       <c r="G78" t="n">
+        <v>1.799933333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>1.816766666666666</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3445,22 +3385,27 @@
         <v>31078.2833</v>
       </c>
       <c r="G79" t="n">
+        <v>1.796666666666666</v>
+      </c>
+      <c r="H79" t="n">
         <v>1.816466666666666</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3484,22 +3429,27 @@
         <v>130340.4444</v>
       </c>
       <c r="G80" t="n">
+        <v>1.795333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>1.816616666666666</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3523,22 +3473,27 @@
         <v>16826.5429</v>
       </c>
       <c r="G81" t="n">
+        <v>1.7942</v>
+      </c>
+      <c r="H81" t="n">
         <v>1.816783333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,22 +3517,25 @@
         <v>81698.96859999999</v>
       </c>
       <c r="G82" t="n">
+        <v>1.790266666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>1.815899999999999</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3601,22 +3559,25 @@
         <v>15228.3699</v>
       </c>
       <c r="G83" t="n">
+        <v>1.790333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>1.816016666666666</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,22 +3601,25 @@
         <v>53618.4965</v>
       </c>
       <c r="G84" t="n">
+        <v>1.787866666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>1.815383333333333</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3679,22 +3643,25 @@
         <v>5795.0504</v>
       </c>
       <c r="G85" t="n">
+        <v>1.787133333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>1.8152</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,22 +3685,25 @@
         <v>1000</v>
       </c>
       <c r="G86" t="n">
+        <v>1.787133333333333</v>
+      </c>
+      <c r="H86" t="n">
         <v>1.815016666666666</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M86" t="n">
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3757,22 +3727,25 @@
         <v>280</v>
       </c>
       <c r="G87" t="n">
+        <v>1.7872</v>
+      </c>
+      <c r="H87" t="n">
         <v>1.8142</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M87" t="n">
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3796,22 +3769,25 @@
         <v>1054.5294</v>
       </c>
       <c r="G88" t="n">
+        <v>1.7884</v>
+      </c>
+      <c r="H88" t="n">
         <v>1.814183333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M88" t="n">
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3835,22 +3811,25 @@
         <v>10393.1146</v>
       </c>
       <c r="G89" t="n">
+        <v>1.789733333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>1.81385</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M89" t="n">
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,22 +3853,25 @@
         <v>99.34</v>
       </c>
       <c r="G90" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="H90" t="n">
         <v>1.813666666666666</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M90" t="n">
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,22 +3895,25 @@
         <v>596193.857</v>
       </c>
       <c r="G91" t="n">
+        <v>1.791466666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>1.81305</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M91" t="n">
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3952,22 +3937,25 @@
         <v>6549.6708</v>
       </c>
       <c r="G92" t="n">
+        <v>1.793399999999999</v>
+      </c>
+      <c r="H92" t="n">
         <v>1.812716666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M92" t="n">
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3991,22 +3979,25 @@
         <v>49659</v>
       </c>
       <c r="G93" t="n">
+        <v>1.794066666666666</v>
+      </c>
+      <c r="H93" t="n">
         <v>1.812049999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4030,22 +4021,25 @@
         <v>44644.3139</v>
       </c>
       <c r="G94" t="n">
+        <v>1.792733333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>1.811233333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,22 +4063,27 @@
         <v>281965.6581</v>
       </c>
       <c r="G95" t="n">
+        <v>1.789466666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>1.810716666666666</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,22 +4107,27 @@
         <v>44644.3139</v>
       </c>
       <c r="G96" t="n">
+        <v>1.786266666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>1.809966666666666</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4147,22 +4151,27 @@
         <v>6270.9886</v>
       </c>
       <c r="G97" t="n">
+        <v>1.7886</v>
+      </c>
+      <c r="H97" t="n">
         <v>1.809433333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4186,22 +4195,27 @@
         <v>24311.0148</v>
       </c>
       <c r="G98" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="H98" t="n">
         <v>1.808933333333333</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4225,22 +4239,27 @@
         <v>255300</v>
       </c>
       <c r="G99" t="n">
+        <v>1.786866666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>1.8085</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4264,22 +4283,27 @@
         <v>30000</v>
       </c>
       <c r="G100" t="n">
+        <v>1.784733333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>1.807483333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,22 +4327,27 @@
         <v>1000</v>
       </c>
       <c r="G101" t="n">
+        <v>1.782666666666666</v>
+      </c>
+      <c r="H101" t="n">
         <v>1.806833333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,22 +4371,27 @@
         <v>281</v>
       </c>
       <c r="G102" t="n">
+        <v>1.7816</v>
+      </c>
+      <c r="H102" t="n">
         <v>1.806066666666666</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4381,22 +4415,27 @@
         <v>543137.9267667582</v>
       </c>
       <c r="G103" t="n">
+        <v>1.782333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>1.80565</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4420,22 +4459,27 @@
         <v>184665.1059</v>
       </c>
       <c r="G104" t="n">
+        <v>1.782333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>1.8049</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4459,22 +4503,25 @@
         <v>122120.721</v>
       </c>
       <c r="G105" t="n">
+        <v>1.781133333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>1.803833333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4498,22 +4545,27 @@
         <v>196729.3296</v>
       </c>
       <c r="G106" t="n">
+        <v>1.782666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>1.802833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4537,22 +4589,27 @@
         <v>2149.3361</v>
       </c>
       <c r="G107" t="n">
+        <v>1.781399999999999</v>
+      </c>
+      <c r="H107" t="n">
         <v>1.801666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M107" t="n">
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,22 +4633,27 @@
         <v>919360.7581</v>
       </c>
       <c r="G108" t="n">
+        <v>1.782133333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>1.800666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M108" t="n">
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4615,22 +4677,467 @@
         <v>576992.9377</v>
       </c>
       <c r="G109" t="n">
+        <v>1.784133333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>1.799833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M109" t="n">
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F110" t="n">
+        <v>237978.8019</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.7842</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.798966666666667</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="F111" t="n">
+        <v>208826.4329</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.784133333333333</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.797983333333334</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F112" t="n">
+        <v>262256.3604</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.7838</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.79715</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F113" t="n">
+        <v>200141.4824</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.783733333333333</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1.796283333333334</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F114" t="n">
+        <v>23561.1873</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.7828</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.794966666666667</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F115" t="n">
+        <v>34858.7207</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.783</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1.794133333333334</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F116" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.782466666666667</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.793133333333334</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F117" t="n">
+        <v>227776.8193</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.780866666666667</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.7923</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="F118" t="n">
+        <v>300</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.778733333333333</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.791800000000001</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F119" t="n">
+        <v>701080.2433</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.7754</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.790666666666667</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest MXC.xlsx
+++ b/BackTest/2020-01-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.825</v>
+        <v>1.793</v>
       </c>
       <c r="C2" t="n">
-        <v>1.83</v>
+        <v>1.865</v>
       </c>
       <c r="D2" t="n">
-        <v>1.83</v>
+        <v>1.865</v>
       </c>
       <c r="E2" t="n">
-        <v>1.825</v>
+        <v>1.793</v>
       </c>
       <c r="F2" t="n">
-        <v>3000</v>
+        <v>2619472.8683</v>
       </c>
       <c r="G2" t="n">
-        <v>1.812533333333334</v>
+        <v>13794236.25411596</v>
       </c>
       <c r="H2" t="n">
-        <v>1.806850000000001</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.832</v>
+        <v>1.801</v>
       </c>
       <c r="C3" t="n">
-        <v>1.832</v>
+        <v>1.8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.832</v>
+        <v>1.801</v>
       </c>
       <c r="E3" t="n">
-        <v>1.832</v>
+        <v>1.8</v>
       </c>
       <c r="F3" t="n">
-        <v>4519.3136</v>
+        <v>500000</v>
       </c>
       <c r="G3" t="n">
-        <v>1.8126</v>
+        <v>13294236.25411596</v>
       </c>
       <c r="H3" t="n">
-        <v>1.807583333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.832</v>
+        <v>1.82</v>
       </c>
       <c r="C4" t="n">
-        <v>1.833</v>
+        <v>1.82</v>
       </c>
       <c r="D4" t="n">
-        <v>1.833</v>
+        <v>1.82</v>
       </c>
       <c r="E4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="F4" t="n">
-        <v>7637.3627</v>
+        <v>1033.68</v>
       </c>
       <c r="G4" t="n">
-        <v>1.812133333333333</v>
+        <v>13295269.93411596</v>
       </c>
       <c r="H4" t="n">
-        <v>1.808316666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.833</v>
+        <v>1.82</v>
       </c>
       <c r="C5" t="n">
-        <v>1.838</v>
+        <v>1.796</v>
       </c>
       <c r="D5" t="n">
-        <v>1.838</v>
+        <v>1.831</v>
       </c>
       <c r="E5" t="n">
-        <v>1.833</v>
+        <v>1.796</v>
       </c>
       <c r="F5" t="n">
-        <v>22704.8452</v>
+        <v>6672533.4913</v>
       </c>
       <c r="G5" t="n">
-        <v>1.8136</v>
+        <v>6622736.442815961</v>
       </c>
       <c r="H5" t="n">
-        <v>1.809133333333334</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +579,37 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.838</v>
+        <v>1.831</v>
       </c>
       <c r="C6" t="n">
-        <v>1.85</v>
+        <v>1.831</v>
       </c>
       <c r="D6" t="n">
-        <v>1.85</v>
+        <v>1.831</v>
       </c>
       <c r="E6" t="n">
-        <v>1.838</v>
+        <v>1.831</v>
       </c>
       <c r="F6" t="n">
-        <v>12972204.4782</v>
+        <v>6670506.707</v>
       </c>
       <c r="G6" t="n">
-        <v>1.816</v>
+        <v>13293243.14981596</v>
       </c>
       <c r="H6" t="n">
-        <v>1.810466666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +618,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.84</v>
+        <v>1.818</v>
       </c>
       <c r="C7" t="n">
-        <v>1.85</v>
+        <v>1.856</v>
       </c>
       <c r="D7" t="n">
-        <v>1.85</v>
+        <v>1.856</v>
       </c>
       <c r="E7" t="n">
-        <v>1.84</v>
+        <v>1.818</v>
       </c>
       <c r="F7" t="n">
-        <v>180006.3743</v>
+        <v>7883573.3893</v>
       </c>
       <c r="G7" t="n">
-        <v>1.818666666666667</v>
+        <v>21176816.53911596</v>
       </c>
       <c r="H7" t="n">
-        <v>1.811800000000001</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.831</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +659,37 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.85</v>
+        <v>1.811</v>
       </c>
       <c r="C8" t="n">
-        <v>1.85</v>
+        <v>1.811</v>
       </c>
       <c r="D8" t="n">
-        <v>1.85</v>
+        <v>1.811</v>
       </c>
       <c r="E8" t="n">
-        <v>1.85</v>
+        <v>1.811</v>
       </c>
       <c r="F8" t="n">
-        <v>554892.7286</v>
+        <v>2513.93</v>
       </c>
       <c r="G8" t="n">
-        <v>1.822266666666667</v>
+        <v>21174302.60911596</v>
       </c>
       <c r="H8" t="n">
-        <v>1.813166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +698,37 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.85</v>
+        <v>1.851</v>
       </c>
       <c r="C9" t="n">
-        <v>1.86</v>
+        <v>1.851</v>
       </c>
       <c r="D9" t="n">
-        <v>1.86</v>
+        <v>1.851</v>
       </c>
       <c r="E9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="F9" t="n">
-        <v>271332.8049</v>
+        <v>6436824.4301</v>
       </c>
       <c r="G9" t="n">
-        <v>1.826133333333334</v>
+        <v>27611127.03921596</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8148</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +737,37 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="C10" t="n">
-        <v>1.863</v>
+        <v>1.895</v>
       </c>
       <c r="D10" t="n">
-        <v>1.863</v>
+        <v>1.895</v>
       </c>
       <c r="E10" t="n">
-        <v>1.86</v>
+        <v>1.855</v>
       </c>
       <c r="F10" t="n">
-        <v>39154.9528</v>
+        <v>3142936.761037433</v>
       </c>
       <c r="G10" t="n">
-        <v>1.830600000000001</v>
+        <v>30754063.80025339</v>
       </c>
       <c r="H10" t="n">
-        <v>1.816366666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +776,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.865</v>
+        <v>1.83</v>
       </c>
       <c r="C11" t="n">
-        <v>1.87</v>
+        <v>1.816</v>
       </c>
       <c r="D11" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="E11" t="n">
-        <v>1.865</v>
+        <v>1.816</v>
       </c>
       <c r="F11" t="n">
-        <v>208034.5758</v>
+        <v>607680.4017</v>
       </c>
       <c r="G11" t="n">
-        <v>1.835333333333334</v>
+        <v>30146383.39855339</v>
       </c>
       <c r="H11" t="n">
-        <v>1.81805</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +815,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.87</v>
+        <v>1.821</v>
       </c>
       <c r="C12" t="n">
-        <v>1.87</v>
+        <v>1.815</v>
       </c>
       <c r="D12" t="n">
-        <v>1.87</v>
+        <v>1.821</v>
       </c>
       <c r="E12" t="n">
-        <v>1.87</v>
+        <v>1.815</v>
       </c>
       <c r="F12" t="n">
-        <v>99538.864</v>
+        <v>1222744.9647</v>
       </c>
       <c r="G12" t="n">
-        <v>1.840000000000001</v>
+        <v>28923638.4338534</v>
       </c>
       <c r="H12" t="n">
-        <v>1.819733333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +854,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.869</v>
+        <v>1.839</v>
       </c>
       <c r="C13" t="n">
-        <v>1.869</v>
+        <v>1.895</v>
       </c>
       <c r="D13" t="n">
-        <v>1.869</v>
+        <v>1.895</v>
       </c>
       <c r="E13" t="n">
-        <v>1.869</v>
+        <v>1.839</v>
       </c>
       <c r="F13" t="n">
-        <v>50118.287</v>
+        <v>1275166.7963</v>
       </c>
       <c r="G13" t="n">
-        <v>1.843333333333334</v>
+        <v>30198805.2301534</v>
       </c>
       <c r="H13" t="n">
-        <v>1.821066666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +893,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.838</v>
+        <v>1.831</v>
       </c>
       <c r="C14" t="n">
-        <v>1.838</v>
+        <v>1.84</v>
       </c>
       <c r="D14" t="n">
-        <v>1.838</v>
+        <v>1.888</v>
       </c>
       <c r="E14" t="n">
-        <v>1.838</v>
+        <v>1.831</v>
       </c>
       <c r="F14" t="n">
-        <v>35615.6789</v>
+        <v>889337.6710677966</v>
       </c>
       <c r="G14" t="n">
-        <v>1.844533333333334</v>
+        <v>29309467.5590856</v>
       </c>
       <c r="H14" t="n">
-        <v>1.8222</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +932,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="C15" t="n">
-        <v>1.838</v>
+        <v>1.83</v>
       </c>
       <c r="D15" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="E15" t="n">
-        <v>1.838</v>
+        <v>1.83</v>
       </c>
       <c r="F15" t="n">
-        <v>7299.2536</v>
+        <v>608808.2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.847600000000001</v>
+        <v>28700659.3590856</v>
       </c>
       <c r="H15" t="n">
-        <v>1.823383333333333</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +971,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="C16" t="n">
-        <v>1.841</v>
+        <v>1.83</v>
       </c>
       <c r="D16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="E16" t="n">
-        <v>1.841</v>
+        <v>1.83</v>
       </c>
       <c r="F16" t="n">
-        <v>376795.7096</v>
+        <v>104715</v>
       </c>
       <c r="G16" t="n">
-        <v>1.848800000000001</v>
+        <v>28700659.3590856</v>
       </c>
       <c r="H16" t="n">
-        <v>1.824616666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1010,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.859</v>
+        <v>1.831</v>
       </c>
       <c r="C17" t="n">
-        <v>1.859</v>
+        <v>1.831</v>
       </c>
       <c r="D17" t="n">
-        <v>1.859</v>
+        <v>1.831</v>
       </c>
       <c r="E17" t="n">
-        <v>1.859</v>
+        <v>1.831</v>
       </c>
       <c r="F17" t="n">
-        <v>310.7669</v>
+        <v>39277.0303</v>
       </c>
       <c r="G17" t="n">
-        <v>1.850733333333334</v>
+        <v>28739936.3893856</v>
       </c>
       <c r="H17" t="n">
-        <v>1.825783333333333</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1049,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.837</v>
+        <v>1.84</v>
       </c>
       <c r="C18" t="n">
-        <v>1.826</v>
+        <v>1.84</v>
       </c>
       <c r="D18" t="n">
-        <v>1.837</v>
+        <v>1.84</v>
       </c>
       <c r="E18" t="n">
-        <v>1.826</v>
+        <v>1.84</v>
       </c>
       <c r="F18" t="n">
-        <v>4832.6622</v>
+        <v>10881.392</v>
       </c>
       <c r="G18" t="n">
-        <v>1.850333333333334</v>
+        <v>28750817.7813856</v>
       </c>
       <c r="H18" t="n">
-        <v>1.826383333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1088,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.825</v>
+        <v>1.82</v>
       </c>
       <c r="C19" t="n">
-        <v>1.808</v>
+        <v>1.816</v>
       </c>
       <c r="D19" t="n">
-        <v>1.825</v>
+        <v>1.82</v>
       </c>
       <c r="E19" t="n">
-        <v>1.808</v>
+        <v>1.816</v>
       </c>
       <c r="F19" t="n">
-        <v>367466.1625</v>
+        <v>200000</v>
       </c>
       <c r="G19" t="n">
-        <v>1.848666666666668</v>
+        <v>28550817.7813856</v>
       </c>
       <c r="H19" t="n">
-        <v>1.82635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1127,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.81</v>
+        <v>1.821</v>
       </c>
       <c r="C20" t="n">
-        <v>1.81</v>
+        <v>1.814</v>
       </c>
       <c r="D20" t="n">
-        <v>1.81</v>
+        <v>1.821</v>
       </c>
       <c r="E20" t="n">
-        <v>1.81</v>
+        <v>1.814</v>
       </c>
       <c r="F20" t="n">
-        <v>176318.1129</v>
+        <v>146870.7275</v>
       </c>
       <c r="G20" t="n">
-        <v>1.846800000000001</v>
+        <v>28403947.0538856</v>
       </c>
       <c r="H20" t="n">
-        <v>1.826683333333333</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1166,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.81</v>
+        <v>1.815</v>
       </c>
       <c r="C21" t="n">
         <v>1.81</v>
       </c>
       <c r="D21" t="n">
-        <v>1.81</v>
+        <v>1.815</v>
       </c>
       <c r="E21" t="n">
         <v>1.81</v>
       </c>
       <c r="F21" t="n">
-        <v>802320.0082</v>
+        <v>250507.7743</v>
       </c>
       <c r="G21" t="n">
-        <v>1.844133333333334</v>
+        <v>28153439.2795856</v>
       </c>
       <c r="H21" t="n">
-        <v>1.82685</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,33 +1208,34 @@
         <v>1.807</v>
       </c>
       <c r="C22" t="n">
-        <v>1.803</v>
+        <v>1.796</v>
       </c>
       <c r="D22" t="n">
         <v>1.807</v>
       </c>
       <c r="E22" t="n">
-        <v>1.803</v>
+        <v>1.796</v>
       </c>
       <c r="F22" t="n">
-        <v>77788.0015</v>
+        <v>250507.7743</v>
       </c>
       <c r="G22" t="n">
-        <v>1.841000000000001</v>
+        <v>27902931.5052856</v>
       </c>
       <c r="H22" t="n">
-        <v>1.8268</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1244,37 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.803</v>
+        <v>1.802</v>
       </c>
       <c r="C23" t="n">
-        <v>1.803</v>
+        <v>1.802</v>
       </c>
       <c r="D23" t="n">
-        <v>1.803</v>
+        <v>1.802</v>
       </c>
       <c r="E23" t="n">
-        <v>1.803</v>
+        <v>1.802</v>
       </c>
       <c r="F23" t="n">
-        <v>280314.4677</v>
+        <v>29034.5407</v>
       </c>
       <c r="G23" t="n">
-        <v>1.837866666666667</v>
+        <v>27931966.0459856</v>
       </c>
       <c r="H23" t="n">
-        <v>1.827016666666666</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1283,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.809</v>
+        <v>1.797</v>
       </c>
       <c r="C24" t="n">
-        <v>1.809</v>
+        <v>1.796</v>
       </c>
       <c r="D24" t="n">
-        <v>1.809</v>
+        <v>1.797</v>
       </c>
       <c r="E24" t="n">
-        <v>1.809</v>
+        <v>1.796</v>
       </c>
       <c r="F24" t="n">
-        <v>4395.1238</v>
+        <v>84984.3515</v>
       </c>
       <c r="G24" t="n">
-        <v>1.834466666666668</v>
+        <v>27846981.6944856</v>
       </c>
       <c r="H24" t="n">
-        <v>1.82735</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1322,37 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.81</v>
+        <v>1.799</v>
       </c>
       <c r="C25" t="n">
-        <v>1.81</v>
+        <v>1.799</v>
       </c>
       <c r="D25" t="n">
-        <v>1.81</v>
+        <v>1.799</v>
       </c>
       <c r="E25" t="n">
-        <v>1.81</v>
+        <v>1.799</v>
       </c>
       <c r="F25" t="n">
-        <v>482.9996</v>
+        <v>176642.6323</v>
       </c>
       <c r="G25" t="n">
-        <v>1.830933333333334</v>
+        <v>28023624.3267856</v>
       </c>
       <c r="H25" t="n">
-        <v>1.827516666666666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1361,37 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="C26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="D26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="E26" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="F26" t="n">
-        <v>43423.1546</v>
+        <v>85369.79429999999</v>
       </c>
       <c r="G26" t="n">
-        <v>1.826933333333334</v>
+        <v>28108994.1210856</v>
       </c>
       <c r="H26" t="n">
-        <v>1.82785</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1400,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.849</v>
+        <v>1.815</v>
       </c>
       <c r="C27" t="n">
-        <v>1.849</v>
+        <v>1.819</v>
       </c>
       <c r="D27" t="n">
-        <v>1.849</v>
+        <v>1.819</v>
       </c>
       <c r="E27" t="n">
-        <v>1.849</v>
+        <v>1.815</v>
       </c>
       <c r="F27" t="n">
-        <v>474.5302</v>
+        <v>269396.507</v>
       </c>
       <c r="G27" t="n">
-        <v>1.825533333333334</v>
+        <v>28378390.6280856</v>
       </c>
       <c r="H27" t="n">
-        <v>1.8285</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1441,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="C28" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="D28" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="E28" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="F28" t="n">
-        <v>4395.1238</v>
+        <v>1000</v>
       </c>
       <c r="G28" t="n">
-        <v>1.821600000000001</v>
+        <v>28379390.6280856</v>
       </c>
       <c r="H28" t="n">
-        <v>1.8279</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1467,33 +1483,34 @@
         <v>1.82</v>
       </c>
       <c r="C29" t="n">
-        <v>1.82</v>
+        <v>1.792</v>
       </c>
       <c r="D29" t="n">
         <v>1.82</v>
       </c>
       <c r="E29" t="n">
-        <v>1.82</v>
+        <v>1.792</v>
       </c>
       <c r="F29" t="n">
-        <v>82417.58241758242</v>
+        <v>517593</v>
       </c>
       <c r="G29" t="n">
-        <v>1.8204</v>
+        <v>27861797.6280856</v>
       </c>
       <c r="H29" t="n">
-        <v>1.827733333333333</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1519,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.81</v>
+        <v>1.823</v>
       </c>
       <c r="C30" t="n">
-        <v>1.81</v>
+        <v>1.823</v>
       </c>
       <c r="D30" t="n">
-        <v>1.81</v>
+        <v>1.823</v>
       </c>
       <c r="E30" t="n">
-        <v>1.81</v>
+        <v>1.823</v>
       </c>
       <c r="F30" t="n">
-        <v>15284.6145</v>
+        <v>1000</v>
       </c>
       <c r="G30" t="n">
-        <v>1.818533333333334</v>
+        <v>27862797.6280856</v>
       </c>
       <c r="H30" t="n">
-        <v>1.828016666666666</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.792</v>
       </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1560,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.804</v>
+        <v>1.825</v>
       </c>
       <c r="C31" t="n">
-        <v>1.804</v>
+        <v>1.83</v>
       </c>
       <c r="D31" t="n">
-        <v>1.804</v>
+        <v>1.83</v>
       </c>
       <c r="E31" t="n">
-        <v>1.804</v>
+        <v>1.825</v>
       </c>
       <c r="F31" t="n">
-        <v>67132.9679</v>
+        <v>3000</v>
       </c>
       <c r="G31" t="n">
-        <v>1.816066666666667</v>
+        <v>27865797.6280856</v>
       </c>
       <c r="H31" t="n">
-        <v>1.827916666666666</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.823</v>
       </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1601,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.819</v>
+        <v>1.832</v>
       </c>
       <c r="C32" t="n">
-        <v>1.819</v>
+        <v>1.832</v>
       </c>
       <c r="D32" t="n">
-        <v>1.819</v>
+        <v>1.832</v>
       </c>
       <c r="E32" t="n">
-        <v>1.819</v>
+        <v>1.832</v>
       </c>
       <c r="F32" t="n">
-        <v>1406</v>
+        <v>4519.3136</v>
       </c>
       <c r="G32" t="n">
-        <v>1.8134</v>
+        <v>27870316.9416856</v>
       </c>
       <c r="H32" t="n">
-        <v>1.828349999999999</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1642,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.819</v>
+        <v>1.832</v>
       </c>
       <c r="C33" t="n">
-        <v>1.819</v>
+        <v>1.833</v>
       </c>
       <c r="D33" t="n">
-        <v>1.819</v>
+        <v>1.833</v>
       </c>
       <c r="E33" t="n">
-        <v>1.819</v>
+        <v>1.83</v>
       </c>
       <c r="F33" t="n">
-        <v>65726.9679</v>
+        <v>7637.3627</v>
       </c>
       <c r="G33" t="n">
-        <v>1.812933333333333</v>
+        <v>27877954.3043856</v>
       </c>
       <c r="H33" t="n">
-        <v>1.827583333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1681,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.819</v>
+        <v>1.833</v>
       </c>
       <c r="C34" t="n">
-        <v>1.819</v>
+        <v>1.838</v>
       </c>
       <c r="D34" t="n">
-        <v>1.819</v>
+        <v>1.838</v>
       </c>
       <c r="E34" t="n">
-        <v>1.819</v>
+        <v>1.833</v>
       </c>
       <c r="F34" t="n">
-        <v>603237.1747</v>
+        <v>22704.8452</v>
       </c>
       <c r="G34" t="n">
-        <v>1.813666666666667</v>
+        <v>27900659.1495856</v>
       </c>
       <c r="H34" t="n">
-        <v>1.8279</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1720,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.805</v>
+        <v>1.838</v>
       </c>
       <c r="C35" t="n">
-        <v>1.801</v>
+        <v>1.85</v>
       </c>
       <c r="D35" t="n">
-        <v>1.805</v>
+        <v>1.85</v>
       </c>
       <c r="E35" t="n">
-        <v>1.801</v>
+        <v>1.838</v>
       </c>
       <c r="F35" t="n">
-        <v>104786.5503</v>
+        <v>12972204.4782</v>
       </c>
       <c r="G35" t="n">
-        <v>1.813066666666667</v>
+        <v>40872863.62778559</v>
       </c>
       <c r="H35" t="n">
-        <v>1.827583333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1759,37 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.818</v>
+        <v>1.84</v>
       </c>
       <c r="C36" t="n">
-        <v>1.817</v>
+        <v>1.85</v>
       </c>
       <c r="D36" t="n">
-        <v>1.818</v>
+        <v>1.85</v>
       </c>
       <c r="E36" t="n">
-        <v>1.817</v>
+        <v>1.84</v>
       </c>
       <c r="F36" t="n">
-        <v>300000</v>
+        <v>180006.3743</v>
       </c>
       <c r="G36" t="n">
-        <v>1.813533333333333</v>
+        <v>40872863.62778559</v>
       </c>
       <c r="H36" t="n">
-        <v>1.827933333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1798,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.817</v>
+        <v>1.85</v>
       </c>
       <c r="C37" t="n">
-        <v>1.817</v>
+        <v>1.85</v>
       </c>
       <c r="D37" t="n">
-        <v>1.817</v>
+        <v>1.85</v>
       </c>
       <c r="E37" t="n">
-        <v>1.817</v>
+        <v>1.85</v>
       </c>
       <c r="F37" t="n">
-        <v>40000</v>
+        <v>554892.7286</v>
       </c>
       <c r="G37" t="n">
-        <v>1.814466666666667</v>
+        <v>40872863.62778559</v>
       </c>
       <c r="H37" t="n">
-        <v>1.827699999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1837,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.801</v>
+        <v>1.85</v>
       </c>
       <c r="C38" t="n">
-        <v>1.801</v>
+        <v>1.86</v>
       </c>
       <c r="D38" t="n">
-        <v>1.801</v>
+        <v>1.86</v>
       </c>
       <c r="E38" t="n">
-        <v>1.801</v>
+        <v>1.85</v>
       </c>
       <c r="F38" t="n">
-        <v>52146.6</v>
+        <v>271332.8049</v>
       </c>
       <c r="G38" t="n">
-        <v>1.814333333333333</v>
+        <v>41144196.43268559</v>
       </c>
       <c r="H38" t="n">
-        <v>1.826783333333333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1876,37 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="C39" t="n">
-        <v>1.81</v>
+        <v>1.863</v>
       </c>
       <c r="D39" t="n">
-        <v>1.81</v>
+        <v>1.863</v>
       </c>
       <c r="E39" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="F39" t="n">
-        <v>2134.18</v>
+        <v>39154.9528</v>
       </c>
       <c r="G39" t="n">
-        <v>1.8144</v>
+        <v>41183351.38548559</v>
       </c>
       <c r="H39" t="n">
-        <v>1.826766666666666</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1915,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.827</v>
+        <v>1.865</v>
       </c>
       <c r="C40" t="n">
-        <v>1.828</v>
+        <v>1.87</v>
       </c>
       <c r="D40" t="n">
-        <v>1.828</v>
+        <v>1.87</v>
       </c>
       <c r="E40" t="n">
-        <v>1.827</v>
+        <v>1.865</v>
       </c>
       <c r="F40" t="n">
-        <v>950210.8295</v>
+        <v>208034.5758</v>
       </c>
       <c r="G40" t="n">
-        <v>1.8156</v>
+        <v>41391385.96128559</v>
       </c>
       <c r="H40" t="n">
-        <v>1.826383333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1954,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.828</v>
+        <v>1.87</v>
       </c>
       <c r="C41" t="n">
-        <v>1.807</v>
+        <v>1.87</v>
       </c>
       <c r="D41" t="n">
-        <v>1.828</v>
+        <v>1.87</v>
       </c>
       <c r="E41" t="n">
-        <v>1.807</v>
+        <v>1.87</v>
       </c>
       <c r="F41" t="n">
-        <v>550356.3503</v>
+        <v>99538.864</v>
       </c>
       <c r="G41" t="n">
-        <v>1.8154</v>
+        <v>41391385.96128559</v>
       </c>
       <c r="H41" t="n">
-        <v>1.824916666666666</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1993,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.83</v>
+        <v>1.869</v>
       </c>
       <c r="C42" t="n">
-        <v>1.83</v>
+        <v>1.869</v>
       </c>
       <c r="D42" t="n">
-        <v>1.83</v>
+        <v>1.869</v>
       </c>
       <c r="E42" t="n">
-        <v>1.83</v>
+        <v>1.869</v>
       </c>
       <c r="F42" t="n">
-        <v>53510.6654</v>
+        <v>50118.287</v>
       </c>
       <c r="G42" t="n">
-        <v>1.814133333333333</v>
+        <v>41341267.67428559</v>
       </c>
       <c r="H42" t="n">
-        <v>1.82515</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +2032,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.845</v>
+        <v>1.838</v>
       </c>
       <c r="C43" t="n">
-        <v>1.845</v>
+        <v>1.838</v>
       </c>
       <c r="D43" t="n">
-        <v>1.845</v>
+        <v>1.838</v>
       </c>
       <c r="E43" t="n">
-        <v>1.845</v>
+        <v>1.838</v>
       </c>
       <c r="F43" t="n">
-        <v>277</v>
+        <v>35615.6789</v>
       </c>
       <c r="G43" t="n">
-        <v>1.816466666666666</v>
+        <v>41305651.99538559</v>
       </c>
       <c r="H43" t="n">
-        <v>1.82565</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2071,37 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.845</v>
+        <v>1.87</v>
       </c>
       <c r="C44" t="n">
-        <v>1.845</v>
+        <v>1.838</v>
       </c>
       <c r="D44" t="n">
-        <v>1.845</v>
+        <v>1.87</v>
       </c>
       <c r="E44" t="n">
-        <v>1.845</v>
+        <v>1.838</v>
       </c>
       <c r="F44" t="n">
-        <v>277</v>
+        <v>7299.2536</v>
       </c>
       <c r="G44" t="n">
-        <v>1.818133333333333</v>
+        <v>41305651.99538559</v>
       </c>
       <c r="H44" t="n">
-        <v>1.824816666666666</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2110,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.845</v>
+        <v>1.85</v>
       </c>
       <c r="C45" t="n">
-        <v>1.845</v>
+        <v>1.841</v>
       </c>
       <c r="D45" t="n">
-        <v>1.845</v>
+        <v>1.85</v>
       </c>
       <c r="E45" t="n">
-        <v>1.845</v>
+        <v>1.841</v>
       </c>
       <c r="F45" t="n">
-        <v>277</v>
+        <v>376795.7096</v>
       </c>
       <c r="G45" t="n">
-        <v>1.820466666666666</v>
+        <v>41682447.70498559</v>
       </c>
       <c r="H45" t="n">
-        <v>1.8249</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2149,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.85</v>
+        <v>1.859</v>
       </c>
       <c r="C46" t="n">
-        <v>1.85</v>
+        <v>1.859</v>
       </c>
       <c r="D46" t="n">
-        <v>1.85</v>
+        <v>1.859</v>
       </c>
       <c r="E46" t="n">
-        <v>1.85</v>
+        <v>1.859</v>
       </c>
       <c r="F46" t="n">
-        <v>554</v>
+        <v>310.7669</v>
       </c>
       <c r="G46" t="n">
-        <v>1.823533333333333</v>
+        <v>41682758.47188559</v>
       </c>
       <c r="H46" t="n">
-        <v>1.825233333333333</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2188,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.85</v>
+        <v>1.837</v>
       </c>
       <c r="C47" t="n">
-        <v>1.85</v>
+        <v>1.826</v>
       </c>
       <c r="D47" t="n">
-        <v>1.85</v>
+        <v>1.837</v>
       </c>
       <c r="E47" t="n">
-        <v>1.85</v>
+        <v>1.826</v>
       </c>
       <c r="F47" t="n">
-        <v>8833.5923</v>
+        <v>4832.6622</v>
       </c>
       <c r="G47" t="n">
-        <v>1.8256</v>
+        <v>41677925.8096856</v>
       </c>
       <c r="H47" t="n">
-        <v>1.825566666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2227,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="C48" t="n">
-        <v>1.85</v>
+        <v>1.808</v>
       </c>
       <c r="D48" t="n">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="E48" t="n">
-        <v>1.85</v>
+        <v>1.808</v>
       </c>
       <c r="F48" t="n">
-        <v>321067.8</v>
+        <v>367466.1625</v>
       </c>
       <c r="G48" t="n">
-        <v>1.827666666666667</v>
+        <v>41310459.64718559</v>
       </c>
       <c r="H48" t="n">
-        <v>1.825883333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2266,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="C49" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="D49" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="E49" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="F49" t="n">
-        <v>23906.82</v>
+        <v>176318.1129</v>
       </c>
       <c r="G49" t="n">
-        <v>1.829733333333333</v>
+        <v>41486777.76008559</v>
       </c>
       <c r="H49" t="n">
-        <v>1.826049999999999</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2305,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="C50" t="n">
-        <v>1.823</v>
+        <v>1.81</v>
       </c>
       <c r="D50" t="n">
-        <v>1.853</v>
+        <v>1.81</v>
       </c>
       <c r="E50" t="n">
-        <v>1.823</v>
+        <v>1.81</v>
       </c>
       <c r="F50" t="n">
-        <v>1312.8585</v>
+        <v>802320.0082</v>
       </c>
       <c r="G50" t="n">
-        <v>1.8312</v>
+        <v>41486777.76008559</v>
       </c>
       <c r="H50" t="n">
-        <v>1.826166666666666</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2344,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.831</v>
+        <v>1.807</v>
       </c>
       <c r="C51" t="n">
-        <v>1.83</v>
+        <v>1.803</v>
       </c>
       <c r="D51" t="n">
-        <v>1.831</v>
+        <v>1.807</v>
       </c>
       <c r="E51" t="n">
-        <v>1.83</v>
+        <v>1.803</v>
       </c>
       <c r="F51" t="n">
-        <v>507884.6116</v>
+        <v>77788.0015</v>
       </c>
       <c r="G51" t="n">
-        <v>1.832066666666667</v>
+        <v>41408989.75858559</v>
       </c>
       <c r="H51" t="n">
-        <v>1.826433333333332</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2383,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.83</v>
+        <v>1.803</v>
       </c>
       <c r="C52" t="n">
-        <v>1.83</v>
+        <v>1.803</v>
       </c>
       <c r="D52" t="n">
-        <v>1.83</v>
+        <v>1.803</v>
       </c>
       <c r="E52" t="n">
-        <v>1.822</v>
+        <v>1.803</v>
       </c>
       <c r="F52" t="n">
-        <v>242537.0522</v>
+        <v>280314.4677</v>
       </c>
       <c r="G52" t="n">
-        <v>1.832933333333333</v>
+        <v>41408989.75858559</v>
       </c>
       <c r="H52" t="n">
-        <v>1.826766666666665</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2422,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.83</v>
+        <v>1.809</v>
       </c>
       <c r="C53" t="n">
-        <v>1.822</v>
+        <v>1.809</v>
       </c>
       <c r="D53" t="n">
-        <v>1.83</v>
+        <v>1.809</v>
       </c>
       <c r="E53" t="n">
-        <v>1.822</v>
+        <v>1.809</v>
       </c>
       <c r="F53" t="n">
-        <v>50000</v>
+        <v>4395.1238</v>
       </c>
       <c r="G53" t="n">
-        <v>1.834333333333333</v>
+        <v>41413384.88238559</v>
       </c>
       <c r="H53" t="n">
-        <v>1.827199999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2461,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.849</v>
+        <v>1.81</v>
       </c>
       <c r="C54" t="n">
-        <v>1.849</v>
+        <v>1.81</v>
       </c>
       <c r="D54" t="n">
-        <v>1.849</v>
+        <v>1.81</v>
       </c>
       <c r="E54" t="n">
-        <v>1.849</v>
+        <v>1.81</v>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>482.9996</v>
       </c>
       <c r="G54" t="n">
-        <v>1.836933333333334</v>
+        <v>41413867.88198559</v>
       </c>
       <c r="H54" t="n">
-        <v>1.827983333333332</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2500,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="C55" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="D55" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="E55" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="F55" t="n">
-        <v>28457.31</v>
+        <v>43423.1546</v>
       </c>
       <c r="G55" t="n">
-        <v>1.8364</v>
+        <v>41413867.88198559</v>
       </c>
       <c r="H55" t="n">
-        <v>1.828383333333332</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2539,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.82</v>
+        <v>1.849</v>
       </c>
       <c r="C56" t="n">
-        <v>1.82</v>
+        <v>1.849</v>
       </c>
       <c r="D56" t="n">
-        <v>1.82</v>
+        <v>1.849</v>
       </c>
       <c r="E56" t="n">
-        <v>1.82</v>
+        <v>1.849</v>
       </c>
       <c r="F56" t="n">
-        <v>10976.5358</v>
+        <v>474.5302</v>
       </c>
       <c r="G56" t="n">
-        <v>1.837266666666667</v>
+        <v>41414342.41218559</v>
       </c>
       <c r="H56" t="n">
-        <v>1.828733333333332</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2540,24 +2590,25 @@
         <v>1.81</v>
       </c>
       <c r="F57" t="n">
-        <v>377799.348</v>
+        <v>4395.1238</v>
       </c>
       <c r="G57" t="n">
-        <v>1.835933333333333</v>
+        <v>41409947.28838558</v>
       </c>
       <c r="H57" t="n">
-        <v>1.828899999999998</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2617,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.818</v>
+        <v>1.82</v>
       </c>
       <c r="C58" t="n">
-        <v>1.818</v>
+        <v>1.82</v>
       </c>
       <c r="D58" t="n">
-        <v>1.818</v>
+        <v>1.82</v>
       </c>
       <c r="E58" t="n">
-        <v>1.818</v>
+        <v>1.82</v>
       </c>
       <c r="F58" t="n">
-        <v>131137.8229</v>
+        <v>82417.58241758242</v>
       </c>
       <c r="G58" t="n">
-        <v>1.834133333333334</v>
+        <v>41492364.87080317</v>
       </c>
       <c r="H58" t="n">
-        <v>1.828883333333331</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2656,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="C59" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="D59" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="E59" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="F59" t="n">
-        <v>5994.4268</v>
+        <v>15284.6145</v>
       </c>
       <c r="G59" t="n">
-        <v>1.832333333333334</v>
+        <v>41477080.25630317</v>
       </c>
       <c r="H59" t="n">
-        <v>1.828849999999998</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2695,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.818</v>
+        <v>1.804</v>
       </c>
       <c r="C60" t="n">
-        <v>1.818</v>
+        <v>1.804</v>
       </c>
       <c r="D60" t="n">
-        <v>1.818</v>
+        <v>1.804</v>
       </c>
       <c r="E60" t="n">
-        <v>1.818</v>
+        <v>1.804</v>
       </c>
       <c r="F60" t="n">
-        <v>1550.6</v>
+        <v>67132.9679</v>
       </c>
       <c r="G60" t="n">
-        <v>1.830533333333334</v>
+        <v>41409947.28840317</v>
       </c>
       <c r="H60" t="n">
-        <v>1.829283333333332</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2734,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="C61" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="D61" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="E61" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="F61" t="n">
-        <v>16596.6309</v>
+        <v>1406</v>
       </c>
       <c r="G61" t="n">
-        <v>1.829200000000001</v>
+        <v>41411353.28840317</v>
       </c>
       <c r="H61" t="n">
-        <v>1.829399999999998</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2773,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="C62" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="D62" t="n">
-        <v>1.839</v>
+        <v>1.819</v>
       </c>
       <c r="E62" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="F62" t="n">
-        <v>57497.731</v>
+        <v>65726.9679</v>
       </c>
       <c r="G62" t="n">
-        <v>1.827866666666667</v>
+        <v>41411353.28840317</v>
       </c>
       <c r="H62" t="n">
-        <v>1.829399999999998</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2812,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="C63" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="D63" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="E63" t="n">
-        <v>1.83</v>
+        <v>1.819</v>
       </c>
       <c r="F63" t="n">
-        <v>605.5096</v>
+        <v>603237.1747</v>
       </c>
       <c r="G63" t="n">
-        <v>1.826533333333334</v>
+        <v>41411353.28840317</v>
       </c>
       <c r="H63" t="n">
-        <v>1.829366666666665</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2851,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.839</v>
+        <v>1.805</v>
       </c>
       <c r="C64" t="n">
-        <v>1.839</v>
+        <v>1.801</v>
       </c>
       <c r="D64" t="n">
-        <v>1.839</v>
+        <v>1.805</v>
       </c>
       <c r="E64" t="n">
-        <v>1.839</v>
+        <v>1.801</v>
       </c>
       <c r="F64" t="n">
-        <v>15466.8776</v>
+        <v>104786.5503</v>
       </c>
       <c r="G64" t="n">
-        <v>1.8258</v>
+        <v>41306566.73810317</v>
       </c>
       <c r="H64" t="n">
-        <v>1.829466666666665</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2890,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.839</v>
+        <v>1.818</v>
       </c>
       <c r="C65" t="n">
-        <v>1.839</v>
+        <v>1.817</v>
       </c>
       <c r="D65" t="n">
-        <v>1.839</v>
+        <v>1.818</v>
       </c>
       <c r="E65" t="n">
-        <v>1.839</v>
+        <v>1.817</v>
       </c>
       <c r="F65" t="n">
-        <v>15477.4811</v>
+        <v>300000</v>
       </c>
       <c r="G65" t="n">
-        <v>1.826866666666667</v>
+        <v>41606566.73810317</v>
       </c>
       <c r="H65" t="n">
-        <v>1.829483333333332</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2929,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.837</v>
+        <v>1.817</v>
       </c>
       <c r="C66" t="n">
-        <v>1.837</v>
+        <v>1.817</v>
       </c>
       <c r="D66" t="n">
-        <v>1.837</v>
+        <v>1.817</v>
       </c>
       <c r="E66" t="n">
-        <v>1.837</v>
+        <v>1.817</v>
       </c>
       <c r="F66" t="n">
-        <v>45865.7059</v>
+        <v>40000</v>
       </c>
       <c r="G66" t="n">
-        <v>1.827333333333333</v>
+        <v>41606566.73810317</v>
       </c>
       <c r="H66" t="n">
-        <v>1.829266666666665</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1.817</v>
       </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2970,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.837</v>
+        <v>1.801</v>
       </c>
       <c r="C67" t="n">
-        <v>1.809</v>
+        <v>1.801</v>
       </c>
       <c r="D67" t="n">
-        <v>1.837</v>
+        <v>1.801</v>
       </c>
       <c r="E67" t="n">
-        <v>1.809</v>
+        <v>1.801</v>
       </c>
       <c r="F67" t="n">
-        <v>26766.0651</v>
+        <v>52146.6</v>
       </c>
       <c r="G67" t="n">
-        <v>1.825933333333333</v>
+        <v>41554420.13810316</v>
       </c>
       <c r="H67" t="n">
-        <v>1.828583333333332</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +3009,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="C68" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="D68" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="E68" t="n">
-        <v>1.809</v>
+        <v>1.81</v>
       </c>
       <c r="F68" t="n">
-        <v>18376.432</v>
+        <v>2134.18</v>
       </c>
       <c r="G68" t="n">
-        <v>1.825066666666667</v>
+        <v>41556554.31810316</v>
       </c>
       <c r="H68" t="n">
-        <v>1.827899999999999</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +3048,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.808</v>
+        <v>1.827</v>
       </c>
       <c r="C69" t="n">
-        <v>1.808</v>
+        <v>1.828</v>
       </c>
       <c r="D69" t="n">
-        <v>1.808</v>
+        <v>1.828</v>
       </c>
       <c r="E69" t="n">
-        <v>1.808</v>
+        <v>1.827</v>
       </c>
       <c r="F69" t="n">
-        <v>674.4331</v>
+        <v>950210.8295</v>
       </c>
       <c r="G69" t="n">
-        <v>1.822333333333333</v>
+        <v>42506765.14760316</v>
       </c>
       <c r="H69" t="n">
-        <v>1.827033333333332</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +3087,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.81</v>
+        <v>1.828</v>
       </c>
       <c r="C70" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="D70" t="n">
-        <v>1.81</v>
+        <v>1.828</v>
       </c>
       <c r="E70" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="F70" t="n">
-        <v>20000</v>
+        <v>550356.3503</v>
       </c>
       <c r="G70" t="n">
-        <v>1.821666666666666</v>
+        <v>41956408.79730316</v>
       </c>
       <c r="H70" t="n">
-        <v>1.826149999999999</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +3126,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.808</v>
+        <v>1.83</v>
       </c>
       <c r="C71" t="n">
-        <v>1.799</v>
+        <v>1.83</v>
       </c>
       <c r="D71" t="n">
-        <v>1.808</v>
+        <v>1.83</v>
       </c>
       <c r="E71" t="n">
-        <v>1.799</v>
+        <v>1.83</v>
       </c>
       <c r="F71" t="n">
-        <v>208688.9713</v>
+        <v>53510.6654</v>
       </c>
       <c r="G71" t="n">
-        <v>1.820266666666666</v>
+        <v>42009919.46270316</v>
       </c>
       <c r="H71" t="n">
-        <v>1.824966666666666</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +3165,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.799</v>
+        <v>1.845</v>
       </c>
       <c r="C72" t="n">
-        <v>1.799</v>
+        <v>1.845</v>
       </c>
       <c r="D72" t="n">
-        <v>1.799</v>
+        <v>1.845</v>
       </c>
       <c r="E72" t="n">
-        <v>1.799</v>
+        <v>1.845</v>
       </c>
       <c r="F72" t="n">
-        <v>1157</v>
+        <v>277</v>
       </c>
       <c r="G72" t="n">
-        <v>1.819533333333333</v>
+        <v>42010196.46270316</v>
       </c>
       <c r="H72" t="n">
-        <v>1.823783333333332</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3204,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.798</v>
+        <v>1.845</v>
       </c>
       <c r="C73" t="n">
-        <v>1.791</v>
+        <v>1.845</v>
       </c>
       <c r="D73" t="n">
-        <v>1.798</v>
+        <v>1.845</v>
       </c>
       <c r="E73" t="n">
-        <v>1.791</v>
+        <v>1.845</v>
       </c>
       <c r="F73" t="n">
-        <v>45413.4348</v>
+        <v>277</v>
       </c>
       <c r="G73" t="n">
-        <v>1.817733333333333</v>
+        <v>42010196.46270316</v>
       </c>
       <c r="H73" t="n">
-        <v>1.822483333333332</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3243,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.789</v>
+        <v>1.845</v>
       </c>
       <c r="C74" t="n">
-        <v>1.78</v>
+        <v>1.845</v>
       </c>
       <c r="D74" t="n">
-        <v>1.789</v>
+        <v>1.845</v>
       </c>
       <c r="E74" t="n">
-        <v>1.78</v>
+        <v>1.845</v>
       </c>
       <c r="F74" t="n">
-        <v>46024</v>
+        <v>277</v>
       </c>
       <c r="G74" t="n">
-        <v>1.8152</v>
+        <v>42010196.46270316</v>
       </c>
       <c r="H74" t="n">
-        <v>1.821516666666666</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3282,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="C75" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="D75" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="E75" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="F75" t="n">
-        <v>83269</v>
+        <v>554</v>
       </c>
       <c r="G75" t="n">
-        <v>1.812666666666666</v>
+        <v>42010750.46270316</v>
       </c>
       <c r="H75" t="n">
-        <v>1.820549999999999</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,74 +3321,70 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.774</v>
+        <v>1.85</v>
       </c>
       <c r="C76" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="D76" t="n">
-        <v>1.774</v>
+        <v>1.85</v>
       </c>
       <c r="E76" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="F76" t="n">
-        <v>751539.2663</v>
+        <v>8833.5923</v>
       </c>
       <c r="G76" t="n">
-        <v>1.808</v>
+        <v>42010750.46270316</v>
       </c>
       <c r="H76" t="n">
-        <v>1.819199999999999</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="C77" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="D77" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="E77" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="F77" t="n">
-        <v>289072</v>
+        <v>321067.8</v>
       </c>
       <c r="G77" t="n">
-        <v>1.804</v>
+        <v>42010750.46270316</v>
       </c>
       <c r="H77" t="n">
-        <v>1.817716666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,42 +3393,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.754</v>
+        <v>1.85</v>
       </c>
       <c r="C78" t="n">
-        <v>1.769</v>
+        <v>1.85</v>
       </c>
       <c r="D78" t="n">
-        <v>1.769</v>
+        <v>1.85</v>
       </c>
       <c r="E78" t="n">
-        <v>1.751</v>
+        <v>1.85</v>
       </c>
       <c r="F78" t="n">
-        <v>7000.4854</v>
+        <v>23906.82</v>
       </c>
       <c r="G78" t="n">
-        <v>1.799933333333333</v>
+        <v>42010750.46270316</v>
       </c>
       <c r="H78" t="n">
-        <v>1.816766666666666</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3370,42 +3428,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.769</v>
+        <v>1.85</v>
       </c>
       <c r="C79" t="n">
-        <v>1.79</v>
+        <v>1.823</v>
       </c>
       <c r="D79" t="n">
-        <v>1.79</v>
+        <v>1.853</v>
       </c>
       <c r="E79" t="n">
-        <v>1.769</v>
+        <v>1.823</v>
       </c>
       <c r="F79" t="n">
-        <v>31078.2833</v>
+        <v>1312.8585</v>
       </c>
       <c r="G79" t="n">
-        <v>1.796666666666666</v>
+        <v>42009437.60420316</v>
       </c>
       <c r="H79" t="n">
-        <v>1.816466666666666</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>1.769</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,42 +3463,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.79</v>
+        <v>1.831</v>
       </c>
       <c r="C80" t="n">
-        <v>1.819</v>
+        <v>1.83</v>
       </c>
       <c r="D80" t="n">
-        <v>1.819</v>
+        <v>1.831</v>
       </c>
       <c r="E80" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="F80" t="n">
-        <v>130340.4444</v>
+        <v>507884.6116</v>
       </c>
       <c r="G80" t="n">
-        <v>1.795333333333333</v>
+        <v>42517322.21580316</v>
       </c>
       <c r="H80" t="n">
-        <v>1.816616666666666</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>1.79</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,42 +3498,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.819</v>
+        <v>1.83</v>
       </c>
       <c r="C81" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="D81" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="E81" t="n">
-        <v>1.819</v>
+        <v>1.822</v>
       </c>
       <c r="F81" t="n">
-        <v>16826.5429</v>
+        <v>242537.0522</v>
       </c>
       <c r="G81" t="n">
-        <v>1.7942</v>
+        <v>42517322.21580316</v>
       </c>
       <c r="H81" t="n">
-        <v>1.816783333333333</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1.819</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3502,40 +3533,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.819</v>
+        <v>1.83</v>
       </c>
       <c r="C82" t="n">
-        <v>1.75</v>
+        <v>1.822</v>
       </c>
       <c r="D82" t="n">
-        <v>1.819</v>
+        <v>1.83</v>
       </c>
       <c r="E82" t="n">
-        <v>1.75</v>
+        <v>1.822</v>
       </c>
       <c r="F82" t="n">
-        <v>81698.96859999999</v>
+        <v>50000</v>
       </c>
       <c r="G82" t="n">
-        <v>1.790266666666666</v>
+        <v>42467322.21580316</v>
       </c>
       <c r="H82" t="n">
-        <v>1.815899999999999</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,40 +3568,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.81</v>
+        <v>1.849</v>
       </c>
       <c r="C83" t="n">
-        <v>1.81</v>
+        <v>1.849</v>
       </c>
       <c r="D83" t="n">
-        <v>1.81</v>
+        <v>1.849</v>
       </c>
       <c r="E83" t="n">
-        <v>1.81</v>
+        <v>1.849</v>
       </c>
       <c r="F83" t="n">
-        <v>15228.3699</v>
+        <v>300</v>
       </c>
       <c r="G83" t="n">
-        <v>1.790333333333333</v>
+        <v>42467622.21580316</v>
       </c>
       <c r="H83" t="n">
-        <v>1.816016666666666</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3586,40 +3603,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.771</v>
+        <v>1.82</v>
       </c>
       <c r="C84" t="n">
-        <v>1.771</v>
+        <v>1.82</v>
       </c>
       <c r="D84" t="n">
-        <v>1.771</v>
+        <v>1.82</v>
       </c>
       <c r="E84" t="n">
-        <v>1.771</v>
+        <v>1.82</v>
       </c>
       <c r="F84" t="n">
-        <v>53618.4965</v>
+        <v>28457.31</v>
       </c>
       <c r="G84" t="n">
-        <v>1.787866666666666</v>
+        <v>42439164.90580316</v>
       </c>
       <c r="H84" t="n">
-        <v>1.815383333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3628,40 +3638,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.799</v>
+        <v>1.82</v>
       </c>
       <c r="C85" t="n">
-        <v>1.799</v>
+        <v>1.82</v>
       </c>
       <c r="D85" t="n">
-        <v>1.799</v>
+        <v>1.82</v>
       </c>
       <c r="E85" t="n">
-        <v>1.799</v>
+        <v>1.82</v>
       </c>
       <c r="F85" t="n">
-        <v>5795.0504</v>
+        <v>10976.5358</v>
       </c>
       <c r="G85" t="n">
-        <v>1.787133333333333</v>
+        <v>42439164.90580316</v>
       </c>
       <c r="H85" t="n">
-        <v>1.8152</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,40 +3673,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="C86" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="D86" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="E86" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="F86" t="n">
-        <v>1000</v>
+        <v>377799.348</v>
       </c>
       <c r="G86" t="n">
-        <v>1.787133333333333</v>
+        <v>42061365.55780316</v>
       </c>
       <c r="H86" t="n">
-        <v>1.815016666666666</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,40 +3708,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.8</v>
+        <v>1.818</v>
       </c>
       <c r="C87" t="n">
-        <v>1.8</v>
+        <v>1.818</v>
       </c>
       <c r="D87" t="n">
-        <v>1.8</v>
+        <v>1.818</v>
       </c>
       <c r="E87" t="n">
-        <v>1.8</v>
+        <v>1.818</v>
       </c>
       <c r="F87" t="n">
-        <v>280</v>
+        <v>131137.8229</v>
       </c>
       <c r="G87" t="n">
-        <v>1.7872</v>
+        <v>42192503.38070316</v>
       </c>
       <c r="H87" t="n">
-        <v>1.8142</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,40 +3743,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.809</v>
+        <v>1.818</v>
       </c>
       <c r="C88" t="n">
-        <v>1.809</v>
+        <v>1.818</v>
       </c>
       <c r="D88" t="n">
-        <v>1.809</v>
+        <v>1.818</v>
       </c>
       <c r="E88" t="n">
-        <v>1.809</v>
+        <v>1.818</v>
       </c>
       <c r="F88" t="n">
-        <v>1054.5294</v>
+        <v>5994.4268</v>
       </c>
       <c r="G88" t="n">
-        <v>1.7884</v>
+        <v>42192503.38070316</v>
       </c>
       <c r="H88" t="n">
-        <v>1.814183333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3796,40 +3778,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.8</v>
+        <v>1.818</v>
       </c>
       <c r="C89" t="n">
-        <v>1.8</v>
+        <v>1.818</v>
       </c>
       <c r="D89" t="n">
-        <v>1.8</v>
+        <v>1.818</v>
       </c>
       <c r="E89" t="n">
-        <v>1.8</v>
+        <v>1.818</v>
       </c>
       <c r="F89" t="n">
-        <v>10393.1146</v>
+        <v>1550.6</v>
       </c>
       <c r="G89" t="n">
-        <v>1.789733333333333</v>
+        <v>42192503.38070316</v>
       </c>
       <c r="H89" t="n">
-        <v>1.81385</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3838,40 +3813,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.799</v>
+        <v>1.83</v>
       </c>
       <c r="C90" t="n">
-        <v>1.799</v>
+        <v>1.83</v>
       </c>
       <c r="D90" t="n">
-        <v>1.799</v>
+        <v>1.83</v>
       </c>
       <c r="E90" t="n">
-        <v>1.799</v>
+        <v>1.83</v>
       </c>
       <c r="F90" t="n">
-        <v>99.34</v>
+        <v>16596.6309</v>
       </c>
       <c r="G90" t="n">
-        <v>1.791</v>
+        <v>42209100.01160316</v>
       </c>
       <c r="H90" t="n">
-        <v>1.813666666666666</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3880,40 +3848,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.781</v>
+        <v>1.83</v>
       </c>
       <c r="C91" t="n">
-        <v>1.767</v>
+        <v>1.83</v>
       </c>
       <c r="D91" t="n">
-        <v>1.799</v>
+        <v>1.839</v>
       </c>
       <c r="E91" t="n">
-        <v>1.767</v>
+        <v>1.83</v>
       </c>
       <c r="F91" t="n">
-        <v>596193.857</v>
+        <v>57497.731</v>
       </c>
       <c r="G91" t="n">
-        <v>1.791466666666666</v>
+        <v>42209100.01160316</v>
       </c>
       <c r="H91" t="n">
-        <v>1.81305</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,40 +3883,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.799</v>
+        <v>1.83</v>
       </c>
       <c r="C92" t="n">
-        <v>1.799</v>
+        <v>1.83</v>
       </c>
       <c r="D92" t="n">
-        <v>1.799</v>
+        <v>1.83</v>
       </c>
       <c r="E92" t="n">
-        <v>1.799</v>
+        <v>1.83</v>
       </c>
       <c r="F92" t="n">
-        <v>6549.6708</v>
+        <v>605.5096</v>
       </c>
       <c r="G92" t="n">
-        <v>1.793399999999999</v>
+        <v>42209100.01160316</v>
       </c>
       <c r="H92" t="n">
-        <v>1.812716666666666</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,40 +3918,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.78</v>
+        <v>1.839</v>
       </c>
       <c r="C93" t="n">
-        <v>1.779</v>
+        <v>1.839</v>
       </c>
       <c r="D93" t="n">
-        <v>1.78</v>
+        <v>1.839</v>
       </c>
       <c r="E93" t="n">
-        <v>1.779</v>
+        <v>1.839</v>
       </c>
       <c r="F93" t="n">
-        <v>49659</v>
+        <v>15466.8776</v>
       </c>
       <c r="G93" t="n">
-        <v>1.794066666666666</v>
+        <v>42224566.88920316</v>
       </c>
       <c r="H93" t="n">
-        <v>1.812049999999999</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4006,40 +3953,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.77</v>
+        <v>1.839</v>
       </c>
       <c r="C94" t="n">
-        <v>1.77</v>
+        <v>1.839</v>
       </c>
       <c r="D94" t="n">
-        <v>1.77</v>
+        <v>1.839</v>
       </c>
       <c r="E94" t="n">
-        <v>1.77</v>
+        <v>1.839</v>
       </c>
       <c r="F94" t="n">
-        <v>44644.3139</v>
+        <v>15477.4811</v>
       </c>
       <c r="G94" t="n">
-        <v>1.792733333333333</v>
+        <v>42224566.88920316</v>
       </c>
       <c r="H94" t="n">
-        <v>1.811233333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,42 +3988,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.77</v>
+        <v>1.837</v>
       </c>
       <c r="C95" t="n">
-        <v>1.77</v>
+        <v>1.837</v>
       </c>
       <c r="D95" t="n">
-        <v>1.77</v>
+        <v>1.837</v>
       </c>
       <c r="E95" t="n">
-        <v>1.77</v>
+        <v>1.837</v>
       </c>
       <c r="F95" t="n">
-        <v>281965.6581</v>
+        <v>45865.7059</v>
       </c>
       <c r="G95" t="n">
-        <v>1.789466666666666</v>
+        <v>42178701.18330316</v>
       </c>
       <c r="H95" t="n">
-        <v>1.810716666666666</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4092,42 +4023,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.772</v>
+        <v>1.837</v>
       </c>
       <c r="C96" t="n">
-        <v>1.772</v>
+        <v>1.809</v>
       </c>
       <c r="D96" t="n">
-        <v>1.772</v>
+        <v>1.837</v>
       </c>
       <c r="E96" t="n">
-        <v>1.772</v>
+        <v>1.809</v>
       </c>
       <c r="F96" t="n">
-        <v>44644.3139</v>
+        <v>26766.0651</v>
       </c>
       <c r="G96" t="n">
-        <v>1.786266666666666</v>
+        <v>42151935.11820316</v>
       </c>
       <c r="H96" t="n">
-        <v>1.809966666666666</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,42 +4058,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.785</v>
+        <v>1.809</v>
       </c>
       <c r="C97" t="n">
-        <v>1.785</v>
+        <v>1.809</v>
       </c>
       <c r="D97" t="n">
-        <v>1.785</v>
+        <v>1.809</v>
       </c>
       <c r="E97" t="n">
-        <v>1.785</v>
+        <v>1.809</v>
       </c>
       <c r="F97" t="n">
-        <v>6270.9886</v>
+        <v>18376.432</v>
       </c>
       <c r="G97" t="n">
-        <v>1.7886</v>
+        <v>42151935.11820316</v>
       </c>
       <c r="H97" t="n">
-        <v>1.809433333333333</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="n">
-        <v>1.772</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4180,42 +4093,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.772</v>
+        <v>1.808</v>
       </c>
       <c r="C98" t="n">
-        <v>1.771</v>
+        <v>1.808</v>
       </c>
       <c r="D98" t="n">
-        <v>1.772</v>
+        <v>1.808</v>
       </c>
       <c r="E98" t="n">
-        <v>1.771</v>
+        <v>1.808</v>
       </c>
       <c r="F98" t="n">
-        <v>24311.0148</v>
+        <v>674.4331</v>
       </c>
       <c r="G98" t="n">
-        <v>1.786</v>
+        <v>42151260.68510316</v>
       </c>
       <c r="H98" t="n">
-        <v>1.808933333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1.785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4224,42 +4128,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="C99" t="n">
-        <v>1.784</v>
+        <v>1.81</v>
       </c>
       <c r="D99" t="n">
-        <v>1.784</v>
+        <v>1.81</v>
       </c>
       <c r="E99" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="F99" t="n">
-        <v>255300</v>
+        <v>20000</v>
       </c>
       <c r="G99" t="n">
-        <v>1.786866666666666</v>
+        <v>42171260.68510316</v>
       </c>
       <c r="H99" t="n">
-        <v>1.8085</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="n">
-        <v>1.771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4268,42 +4163,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.767</v>
+        <v>1.808</v>
       </c>
       <c r="C100" t="n">
-        <v>1.767</v>
+        <v>1.799</v>
       </c>
       <c r="D100" t="n">
-        <v>1.767</v>
+        <v>1.808</v>
       </c>
       <c r="E100" t="n">
-        <v>1.767</v>
+        <v>1.799</v>
       </c>
       <c r="F100" t="n">
-        <v>30000</v>
+        <v>208688.9713</v>
       </c>
       <c r="G100" t="n">
-        <v>1.784733333333333</v>
+        <v>41962571.71380316</v>
       </c>
       <c r="H100" t="n">
-        <v>1.807483333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>1.784</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4312,42 +4198,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.768</v>
+        <v>1.799</v>
       </c>
       <c r="C101" t="n">
-        <v>1.768</v>
+        <v>1.799</v>
       </c>
       <c r="D101" t="n">
-        <v>1.768</v>
+        <v>1.799</v>
       </c>
       <c r="E101" t="n">
-        <v>1.768</v>
+        <v>1.799</v>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>1157</v>
       </c>
       <c r="G101" t="n">
-        <v>1.782666666666666</v>
+        <v>41962571.71380316</v>
       </c>
       <c r="H101" t="n">
-        <v>1.806833333333333</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="n">
-        <v>1.767</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4356,42 +4233,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.784</v>
+        <v>1.798</v>
       </c>
       <c r="C102" t="n">
-        <v>1.784</v>
+        <v>1.791</v>
       </c>
       <c r="D102" t="n">
-        <v>1.784</v>
+        <v>1.798</v>
       </c>
       <c r="E102" t="n">
-        <v>1.784</v>
+        <v>1.791</v>
       </c>
       <c r="F102" t="n">
-        <v>281</v>
+        <v>45413.4348</v>
       </c>
       <c r="G102" t="n">
-        <v>1.7816</v>
+        <v>41917158.27900317</v>
       </c>
       <c r="H102" t="n">
-        <v>1.806066666666666</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4400,42 +4274,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.784</v>
+        <v>1.789</v>
       </c>
       <c r="C103" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="D103" t="n">
-        <v>1.82</v>
+        <v>1.789</v>
       </c>
       <c r="E103" t="n">
-        <v>1.784</v>
+        <v>1.78</v>
       </c>
       <c r="F103" t="n">
-        <v>543137.9267667582</v>
+        <v>46024</v>
       </c>
       <c r="G103" t="n">
-        <v>1.782333333333333</v>
+        <v>41871134.27900317</v>
       </c>
       <c r="H103" t="n">
-        <v>1.80565</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4444,42 +4313,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="C104" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="D104" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="E104" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="F104" t="n">
-        <v>184665.1059</v>
+        <v>83269</v>
       </c>
       <c r="G104" t="n">
-        <v>1.782333333333333</v>
+        <v>41871134.27900317</v>
       </c>
       <c r="H104" t="n">
-        <v>1.8049</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4488,40 +4354,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.781</v>
+        <v>1.774</v>
       </c>
       <c r="C105" t="n">
-        <v>1.781</v>
+        <v>1.76</v>
       </c>
       <c r="D105" t="n">
-        <v>1.781</v>
+        <v>1.774</v>
       </c>
       <c r="E105" t="n">
-        <v>1.781</v>
+        <v>1.76</v>
       </c>
       <c r="F105" t="n">
-        <v>122120.721</v>
+        <v>751539.2663</v>
       </c>
       <c r="G105" t="n">
-        <v>1.781133333333333</v>
+        <v>41119595.01270317</v>
       </c>
       <c r="H105" t="n">
-        <v>1.803833333333333</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,42 +4395,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="C106" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="D106" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="E106" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="F106" t="n">
-        <v>196729.3296</v>
+        <v>289072</v>
       </c>
       <c r="G106" t="n">
-        <v>1.782666666666666</v>
+        <v>41408667.01270317</v>
       </c>
       <c r="H106" t="n">
-        <v>1.802833333333333</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4574,42 +4436,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.78</v>
+        <v>1.754</v>
       </c>
       <c r="C107" t="n">
-        <v>1.78</v>
+        <v>1.769</v>
       </c>
       <c r="D107" t="n">
-        <v>1.78</v>
+        <v>1.769</v>
       </c>
       <c r="E107" t="n">
-        <v>1.78</v>
+        <v>1.751</v>
       </c>
       <c r="F107" t="n">
-        <v>2149.3361</v>
+        <v>7000.4854</v>
       </c>
       <c r="G107" t="n">
-        <v>1.781399999999999</v>
+        <v>41401666.52730317</v>
       </c>
       <c r="H107" t="n">
-        <v>1.801666666666667</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,42 +4475,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.779</v>
+        <v>1.769</v>
       </c>
       <c r="C108" t="n">
         <v>1.79</v>
       </c>
       <c r="D108" t="n">
-        <v>1.791</v>
+        <v>1.79</v>
       </c>
       <c r="E108" t="n">
-        <v>1.779</v>
+        <v>1.769</v>
       </c>
       <c r="F108" t="n">
-        <v>919360.7581</v>
+        <v>31078.2833</v>
       </c>
       <c r="G108" t="n">
-        <v>1.782133333333333</v>
+        <v>41432744.81060316</v>
       </c>
       <c r="H108" t="n">
-        <v>1.800666666666667</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4665,39 +4517,34 @@
         <v>1.79</v>
       </c>
       <c r="C109" t="n">
-        <v>1.8</v>
+        <v>1.819</v>
       </c>
       <c r="D109" t="n">
-        <v>1.8</v>
+        <v>1.819</v>
       </c>
       <c r="E109" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="F109" t="n">
-        <v>576992.9377</v>
+        <v>130340.4444</v>
       </c>
       <c r="G109" t="n">
-        <v>1.784133333333333</v>
+        <v>41563085.25500316</v>
       </c>
       <c r="H109" t="n">
-        <v>1.799833333333333</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4706,42 +4553,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.771</v>
+        <v>1.819</v>
       </c>
       <c r="C110" t="n">
-        <v>1.771</v>
+        <v>1.82</v>
       </c>
       <c r="D110" t="n">
-        <v>1.771</v>
+        <v>1.82</v>
       </c>
       <c r="E110" t="n">
-        <v>1.77</v>
+        <v>1.819</v>
       </c>
       <c r="F110" t="n">
-        <v>237978.8019</v>
+        <v>16826.5429</v>
       </c>
       <c r="G110" t="n">
-        <v>1.7842</v>
+        <v>41579911.79790317</v>
       </c>
       <c r="H110" t="n">
-        <v>1.798966666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4750,42 +4592,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.771</v>
+        <v>1.819</v>
       </c>
       <c r="C111" t="n">
-        <v>1.771</v>
+        <v>1.75</v>
       </c>
       <c r="D111" t="n">
-        <v>1.771</v>
+        <v>1.819</v>
       </c>
       <c r="E111" t="n">
-        <v>1.771</v>
+        <v>1.75</v>
       </c>
       <c r="F111" t="n">
-        <v>208826.4329</v>
+        <v>81698.96859999999</v>
       </c>
       <c r="G111" t="n">
-        <v>1.784133333333333</v>
+        <v>41498212.82930317</v>
       </c>
       <c r="H111" t="n">
-        <v>1.797983333333334</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4794,42 +4631,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="C112" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="D112" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="E112" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="F112" t="n">
-        <v>262256.3604</v>
+        <v>15228.3699</v>
       </c>
       <c r="G112" t="n">
-        <v>1.7838</v>
+        <v>41513441.19920317</v>
       </c>
       <c r="H112" t="n">
-        <v>1.79715</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4838,42 +4670,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="C113" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="D113" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="E113" t="n">
-        <v>1.77</v>
+        <v>1.771</v>
       </c>
       <c r="F113" t="n">
-        <v>200141.4824</v>
+        <v>53618.4965</v>
       </c>
       <c r="G113" t="n">
-        <v>1.783733333333333</v>
+        <v>41459822.70270317</v>
       </c>
       <c r="H113" t="n">
-        <v>1.796283333333334</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,42 +4711,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.77</v>
+        <v>1.799</v>
       </c>
       <c r="C114" t="n">
-        <v>1.77</v>
+        <v>1.799</v>
       </c>
       <c r="D114" t="n">
-        <v>1.77</v>
+        <v>1.799</v>
       </c>
       <c r="E114" t="n">
-        <v>1.77</v>
+        <v>1.799</v>
       </c>
       <c r="F114" t="n">
-        <v>23561.1873</v>
+        <v>5795.0504</v>
       </c>
       <c r="G114" t="n">
-        <v>1.7828</v>
+        <v>41465617.75310317</v>
       </c>
       <c r="H114" t="n">
-        <v>1.794966666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4926,42 +4750,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.77</v>
+        <v>1.799</v>
       </c>
       <c r="C115" t="n">
-        <v>1.77</v>
+        <v>1.799</v>
       </c>
       <c r="D115" t="n">
-        <v>1.77</v>
+        <v>1.799</v>
       </c>
       <c r="E115" t="n">
-        <v>1.77</v>
+        <v>1.799</v>
       </c>
       <c r="F115" t="n">
-        <v>34858.7207</v>
+        <v>1000</v>
       </c>
       <c r="G115" t="n">
-        <v>1.783</v>
+        <v>41465617.75310317</v>
       </c>
       <c r="H115" t="n">
-        <v>1.794133333333334</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4970,42 +4789,37 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.766</v>
+        <v>1.8</v>
       </c>
       <c r="C116" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="D116" t="n">
-        <v>1.766</v>
+        <v>1.8</v>
       </c>
       <c r="E116" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="F116" t="n">
-        <v>7000</v>
+        <v>280</v>
       </c>
       <c r="G116" t="n">
-        <v>1.782466666666667</v>
+        <v>41465897.75310317</v>
       </c>
       <c r="H116" t="n">
-        <v>1.793133333333334</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,42 +4828,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.76</v>
+        <v>1.809</v>
       </c>
       <c r="C117" t="n">
-        <v>1.76</v>
+        <v>1.809</v>
       </c>
       <c r="D117" t="n">
-        <v>1.76</v>
+        <v>1.809</v>
       </c>
       <c r="E117" t="n">
-        <v>1.76</v>
+        <v>1.809</v>
       </c>
       <c r="F117" t="n">
-        <v>227776.8193</v>
+        <v>1054.5294</v>
       </c>
       <c r="G117" t="n">
-        <v>1.780866666666667</v>
+        <v>41466952.28250317</v>
       </c>
       <c r="H117" t="n">
-        <v>1.7923</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5058,42 +4867,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.788</v>
+        <v>1.8</v>
       </c>
       <c r="C118" t="n">
-        <v>1.788</v>
+        <v>1.8</v>
       </c>
       <c r="D118" t="n">
-        <v>1.788</v>
+        <v>1.8</v>
       </c>
       <c r="E118" t="n">
-        <v>1.788</v>
+        <v>1.8</v>
       </c>
       <c r="F118" t="n">
-        <v>300</v>
+        <v>10393.1146</v>
       </c>
       <c r="G118" t="n">
-        <v>1.778733333333333</v>
+        <v>41456559.16790316</v>
       </c>
       <c r="H118" t="n">
-        <v>1.791800000000001</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5102,42 +4908,1178 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="F119" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="G119" t="n">
+        <v>41456459.82790316</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F120" t="n">
+        <v>596193.857</v>
+      </c>
+      <c r="G120" t="n">
+        <v>40860265.97090316</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6549.6708</v>
+      </c>
+      <c r="G121" t="n">
+        <v>40866815.64170316</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F122" t="n">
+        <v>49659</v>
+      </c>
+      <c r="G122" t="n">
+        <v>40817156.64170316</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F123" t="n">
+        <v>44644.3139</v>
+      </c>
+      <c r="G123" t="n">
+        <v>40772512.32780316</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F124" t="n">
+        <v>281965.6581</v>
+      </c>
+      <c r="G124" t="n">
+        <v>40772512.32780316</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F125" t="n">
+        <v>44644.3139</v>
+      </c>
+      <c r="G125" t="n">
+        <v>40817156.64170316</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="F126" t="n">
+        <v>6270.9886</v>
+      </c>
+      <c r="G126" t="n">
+        <v>40823427.63030316</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="F127" t="n">
+        <v>24311.0148</v>
+      </c>
+      <c r="G127" t="n">
+        <v>40799116.61550316</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="F128" t="n">
+        <v>255300</v>
+      </c>
+      <c r="G128" t="n">
+        <v>41054416.61550316</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F129" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>41024416.61550316</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G130" t="n">
+        <v>41025416.61550316</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F131" t="n">
+        <v>281</v>
+      </c>
+      <c r="G131" t="n">
+        <v>41025697.61550316</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F132" t="n">
+        <v>543137.9267667582</v>
+      </c>
+      <c r="G132" t="n">
+        <v>41568835.54226992</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>184665.1059</v>
+      </c>
+      <c r="G133" t="n">
+        <v>41384170.43636993</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="F134" t="n">
+        <v>122120.721</v>
+      </c>
+      <c r="G134" t="n">
+        <v>41262049.71536992</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F135" t="n">
+        <v>196729.3296</v>
+      </c>
+      <c r="G135" t="n">
+        <v>41458779.04496992</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2149.3361</v>
+      </c>
+      <c r="G136" t="n">
+        <v>41456629.70886993</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F137" t="n">
+        <v>919360.7581</v>
+      </c>
+      <c r="G137" t="n">
+        <v>42375990.46696993</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E138" t="n">
         <v>1.76</v>
       </c>
-      <c r="C119" t="n">
+      <c r="F138" t="n">
+        <v>576992.9377</v>
+      </c>
+      <c r="G138" t="n">
+        <v>42952983.40466993</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F139" t="n">
+        <v>237978.8019</v>
+      </c>
+      <c r="G139" t="n">
+        <v>42715004.60276993</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="F140" t="n">
+        <v>208826.4329</v>
+      </c>
+      <c r="G140" t="n">
+        <v>42715004.60276993</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F141" t="n">
+        <v>262256.3604</v>
+      </c>
+      <c r="G141" t="n">
+        <v>42977260.96316993</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F142" t="n">
+        <v>200141.4824</v>
+      </c>
+      <c r="G142" t="n">
+        <v>42777119.48076993</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F143" t="n">
+        <v>23561.1873</v>
+      </c>
+      <c r="G143" t="n">
+        <v>42777119.48076993</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F144" t="n">
+        <v>34858.7207</v>
+      </c>
+      <c r="G144" t="n">
+        <v>42777119.48076993</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F145" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>42770119.48076993</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F146" t="n">
+        <v>227776.8193</v>
+      </c>
+      <c r="G146" t="n">
+        <v>42770119.48076993</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="F147" t="n">
+        <v>300</v>
+      </c>
+      <c r="G147" t="n">
+        <v>42770419.48076993</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C148" t="n">
         <v>1.75</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D148" t="n">
         <v>1.76</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E148" t="n">
         <v>1.75</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F148" t="n">
         <v>701080.2433</v>
       </c>
-      <c r="G119" t="n">
-        <v>1.7754</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1.790666666666667</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="G148" t="n">
+        <v>42069339.23746993</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest MXC.xlsx
+++ b/BackTest/2020-01-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.793</v>
+        <v>1.87</v>
       </c>
       <c r="C2" t="n">
-        <v>1.865</v>
+        <v>1.838</v>
       </c>
       <c r="D2" t="n">
-        <v>1.865</v>
+        <v>1.87</v>
       </c>
       <c r="E2" t="n">
-        <v>1.793</v>
+        <v>1.838</v>
       </c>
       <c r="F2" t="n">
-        <v>2619472.8683</v>
+        <v>7299.2536</v>
       </c>
       <c r="G2" t="n">
-        <v>13794236.25411596</v>
+        <v>41305651.99538559</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.801</v>
+        <v>1.85</v>
       </c>
       <c r="C3" t="n">
-        <v>1.8</v>
+        <v>1.841</v>
       </c>
       <c r="D3" t="n">
-        <v>1.801</v>
+        <v>1.85</v>
       </c>
       <c r="E3" t="n">
-        <v>1.8</v>
+        <v>1.841</v>
       </c>
       <c r="F3" t="n">
-        <v>500000</v>
+        <v>376795.7096</v>
       </c>
       <c r="G3" t="n">
-        <v>13294236.25411596</v>
+        <v>41682447.70498559</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.82</v>
+        <v>1.859</v>
       </c>
       <c r="C4" t="n">
-        <v>1.82</v>
+        <v>1.859</v>
       </c>
       <c r="D4" t="n">
-        <v>1.82</v>
+        <v>1.859</v>
       </c>
       <c r="E4" t="n">
-        <v>1.82</v>
+        <v>1.859</v>
       </c>
       <c r="F4" t="n">
-        <v>1033.68</v>
+        <v>310.7669</v>
       </c>
       <c r="G4" t="n">
-        <v>13295269.93411596</v>
+        <v>41682758.47188559</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,69 +539,65 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.82</v>
+        <v>1.837</v>
       </c>
       <c r="C5" t="n">
-        <v>1.796</v>
+        <v>1.826</v>
       </c>
       <c r="D5" t="n">
-        <v>1.831</v>
+        <v>1.837</v>
       </c>
       <c r="E5" t="n">
-        <v>1.796</v>
+        <v>1.826</v>
       </c>
       <c r="F5" t="n">
-        <v>6672533.4913</v>
+        <v>4832.6622</v>
       </c>
       <c r="G5" t="n">
-        <v>6622736.442815961</v>
+        <v>41677925.8096856</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>1.82</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.831</v>
+        <v>1.825</v>
       </c>
       <c r="C6" t="n">
-        <v>1.831</v>
+        <v>1.808</v>
       </c>
       <c r="D6" t="n">
-        <v>1.831</v>
+        <v>1.825</v>
       </c>
       <c r="E6" t="n">
-        <v>1.831</v>
+        <v>1.808</v>
       </c>
       <c r="F6" t="n">
-        <v>6670506.707</v>
+        <v>367466.1625</v>
       </c>
       <c r="G6" t="n">
-        <v>13293243.14981596</v>
+        <v>41310459.64718559</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -604,77 +607,69 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="C7" t="n">
-        <v>1.856</v>
+        <v>1.81</v>
       </c>
       <c r="D7" t="n">
-        <v>1.856</v>
+        <v>1.81</v>
       </c>
       <c r="E7" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="F7" t="n">
-        <v>7883573.3893</v>
+        <v>176318.1129</v>
       </c>
       <c r="G7" t="n">
-        <v>21176816.53911596</v>
+        <v>41486777.76008559</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.831</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="C8" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="D8" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="E8" t="n">
-        <v>1.811</v>
+        <v>1.81</v>
       </c>
       <c r="F8" t="n">
-        <v>2513.93</v>
+        <v>802320.0082</v>
       </c>
       <c r="G8" t="n">
-        <v>21174302.60911596</v>
+        <v>41486777.76008559</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -684,36 +679,33 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.851</v>
+        <v>1.807</v>
       </c>
       <c r="C9" t="n">
-        <v>1.851</v>
+        <v>1.803</v>
       </c>
       <c r="D9" t="n">
-        <v>1.851</v>
+        <v>1.807</v>
       </c>
       <c r="E9" t="n">
-        <v>1.83</v>
+        <v>1.803</v>
       </c>
       <c r="F9" t="n">
-        <v>6436824.4301</v>
+        <v>77788.0015</v>
       </c>
       <c r="G9" t="n">
-        <v>27611127.03921596</v>
+        <v>41408989.75858559</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -723,36 +715,33 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.855</v>
+        <v>1.803</v>
       </c>
       <c r="C10" t="n">
-        <v>1.895</v>
+        <v>1.803</v>
       </c>
       <c r="D10" t="n">
-        <v>1.895</v>
+        <v>1.803</v>
       </c>
       <c r="E10" t="n">
-        <v>1.855</v>
+        <v>1.803</v>
       </c>
       <c r="F10" t="n">
-        <v>3142936.761037433</v>
+        <v>280314.4677</v>
       </c>
       <c r="G10" t="n">
-        <v>30754063.80025339</v>
+        <v>41408989.75858559</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,36 +751,33 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.83</v>
+        <v>1.809</v>
       </c>
       <c r="C11" t="n">
-        <v>1.816</v>
+        <v>1.809</v>
       </c>
       <c r="D11" t="n">
-        <v>1.83</v>
+        <v>1.809</v>
       </c>
       <c r="E11" t="n">
-        <v>1.816</v>
+        <v>1.809</v>
       </c>
       <c r="F11" t="n">
-        <v>607680.4017</v>
+        <v>4395.1238</v>
       </c>
       <c r="G11" t="n">
-        <v>30146383.39855339</v>
+        <v>41413384.88238559</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -801,36 +787,33 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.821</v>
+        <v>1.81</v>
       </c>
       <c r="C12" t="n">
-        <v>1.815</v>
+        <v>1.81</v>
       </c>
       <c r="D12" t="n">
-        <v>1.821</v>
+        <v>1.81</v>
       </c>
       <c r="E12" t="n">
-        <v>1.815</v>
+        <v>1.81</v>
       </c>
       <c r="F12" t="n">
-        <v>1222744.9647</v>
+        <v>482.9996</v>
       </c>
       <c r="G12" t="n">
-        <v>28923638.4338534</v>
+        <v>41413867.88198559</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -840,36 +823,33 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.839</v>
+        <v>1.81</v>
       </c>
       <c r="C13" t="n">
-        <v>1.895</v>
+        <v>1.81</v>
       </c>
       <c r="D13" t="n">
-        <v>1.895</v>
+        <v>1.81</v>
       </c>
       <c r="E13" t="n">
-        <v>1.839</v>
+        <v>1.81</v>
       </c>
       <c r="F13" t="n">
-        <v>1275166.7963</v>
+        <v>43423.1546</v>
       </c>
       <c r="G13" t="n">
-        <v>30198805.2301534</v>
+        <v>41413867.88198559</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -879,36 +859,33 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.831</v>
+        <v>1.849</v>
       </c>
       <c r="C14" t="n">
-        <v>1.84</v>
+        <v>1.849</v>
       </c>
       <c r="D14" t="n">
-        <v>1.888</v>
+        <v>1.849</v>
       </c>
       <c r="E14" t="n">
-        <v>1.831</v>
+        <v>1.849</v>
       </c>
       <c r="F14" t="n">
-        <v>889337.6710677966</v>
+        <v>474.5302</v>
       </c>
       <c r="G14" t="n">
-        <v>29309467.5590856</v>
+        <v>41414342.41218559</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -918,36 +895,33 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="C15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="D15" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="E15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="F15" t="n">
-        <v>608808.2</v>
+        <v>4395.1238</v>
       </c>
       <c r="G15" t="n">
-        <v>28700659.3590856</v>
+        <v>41409947.28838558</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -957,36 +931,33 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="C16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="D16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="E16" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="F16" t="n">
-        <v>104715</v>
+        <v>82417.58241758242</v>
       </c>
       <c r="G16" t="n">
-        <v>28700659.3590856</v>
+        <v>41492364.87080317</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -996,36 +967,33 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.831</v>
+        <v>1.81</v>
       </c>
       <c r="C17" t="n">
-        <v>1.831</v>
+        <v>1.81</v>
       </c>
       <c r="D17" t="n">
-        <v>1.831</v>
+        <v>1.81</v>
       </c>
       <c r="E17" t="n">
-        <v>1.831</v>
+        <v>1.81</v>
       </c>
       <c r="F17" t="n">
-        <v>39277.0303</v>
+        <v>15284.6145</v>
       </c>
       <c r="G17" t="n">
-        <v>28739936.3893856</v>
+        <v>41477080.25630317</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1035,36 +1003,33 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.84</v>
+        <v>1.804</v>
       </c>
       <c r="C18" t="n">
-        <v>1.84</v>
+        <v>1.804</v>
       </c>
       <c r="D18" t="n">
-        <v>1.84</v>
+        <v>1.804</v>
       </c>
       <c r="E18" t="n">
-        <v>1.84</v>
+        <v>1.804</v>
       </c>
       <c r="F18" t="n">
-        <v>10881.392</v>
+        <v>67132.9679</v>
       </c>
       <c r="G18" t="n">
-        <v>28750817.7813856</v>
+        <v>41409947.28840317</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1074,36 +1039,33 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.82</v>
+        <v>1.819</v>
       </c>
       <c r="C19" t="n">
-        <v>1.816</v>
+        <v>1.819</v>
       </c>
       <c r="D19" t="n">
-        <v>1.82</v>
+        <v>1.819</v>
       </c>
       <c r="E19" t="n">
-        <v>1.816</v>
+        <v>1.819</v>
       </c>
       <c r="F19" t="n">
-        <v>200000</v>
+        <v>1406</v>
       </c>
       <c r="G19" t="n">
-        <v>28550817.7813856</v>
+        <v>41411353.28840317</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1113,36 +1075,33 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.821</v>
+        <v>1.819</v>
       </c>
       <c r="C20" t="n">
-        <v>1.814</v>
+        <v>1.819</v>
       </c>
       <c r="D20" t="n">
-        <v>1.821</v>
+        <v>1.819</v>
       </c>
       <c r="E20" t="n">
-        <v>1.814</v>
+        <v>1.819</v>
       </c>
       <c r="F20" t="n">
-        <v>146870.7275</v>
+        <v>65726.9679</v>
       </c>
       <c r="G20" t="n">
-        <v>28403947.0538856</v>
+        <v>41411353.28840317</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1152,36 +1111,33 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.815</v>
+        <v>1.819</v>
       </c>
       <c r="C21" t="n">
-        <v>1.81</v>
+        <v>1.819</v>
       </c>
       <c r="D21" t="n">
-        <v>1.815</v>
+        <v>1.819</v>
       </c>
       <c r="E21" t="n">
-        <v>1.81</v>
+        <v>1.819</v>
       </c>
       <c r="F21" t="n">
-        <v>250507.7743</v>
+        <v>603237.1747</v>
       </c>
       <c r="G21" t="n">
-        <v>28153439.2795856</v>
+        <v>41411353.28840317</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1191,36 +1147,33 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.807</v>
+        <v>1.805</v>
       </c>
       <c r="C22" t="n">
-        <v>1.796</v>
+        <v>1.801</v>
       </c>
       <c r="D22" t="n">
-        <v>1.807</v>
+        <v>1.805</v>
       </c>
       <c r="E22" t="n">
-        <v>1.796</v>
+        <v>1.801</v>
       </c>
       <c r="F22" t="n">
-        <v>250507.7743</v>
+        <v>104786.5503</v>
       </c>
       <c r="G22" t="n">
-        <v>27902931.5052856</v>
+        <v>41306566.73810317</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1230,36 +1183,33 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.802</v>
+        <v>1.818</v>
       </c>
       <c r="C23" t="n">
-        <v>1.802</v>
+        <v>1.817</v>
       </c>
       <c r="D23" t="n">
-        <v>1.802</v>
+        <v>1.818</v>
       </c>
       <c r="E23" t="n">
-        <v>1.802</v>
+        <v>1.817</v>
       </c>
       <c r="F23" t="n">
-        <v>29034.5407</v>
+        <v>300000</v>
       </c>
       <c r="G23" t="n">
-        <v>27931966.0459856</v>
+        <v>41606566.73810317</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1269,36 +1219,33 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.797</v>
+        <v>1.817</v>
       </c>
       <c r="C24" t="n">
-        <v>1.796</v>
+        <v>1.817</v>
       </c>
       <c r="D24" t="n">
-        <v>1.797</v>
+        <v>1.817</v>
       </c>
       <c r="E24" t="n">
-        <v>1.796</v>
+        <v>1.817</v>
       </c>
       <c r="F24" t="n">
-        <v>84984.3515</v>
+        <v>40000</v>
       </c>
       <c r="G24" t="n">
-        <v>27846981.6944856</v>
+        <v>41606566.73810317</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1308,36 +1255,33 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.799</v>
+        <v>1.801</v>
       </c>
       <c r="C25" t="n">
-        <v>1.799</v>
+        <v>1.801</v>
       </c>
       <c r="D25" t="n">
-        <v>1.799</v>
+        <v>1.801</v>
       </c>
       <c r="E25" t="n">
-        <v>1.799</v>
+        <v>1.801</v>
       </c>
       <c r="F25" t="n">
-        <v>176642.6323</v>
+        <v>52146.6</v>
       </c>
       <c r="G25" t="n">
-        <v>28023624.3267856</v>
+        <v>41554420.13810316</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1347,36 +1291,33 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="C26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="D26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="E26" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="F26" t="n">
-        <v>85369.79429999999</v>
+        <v>2134.18</v>
       </c>
       <c r="G26" t="n">
-        <v>28108994.1210856</v>
+        <v>41556554.31810316</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1386,77 +1327,69 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.815</v>
+        <v>1.827</v>
       </c>
       <c r="C27" t="n">
-        <v>1.819</v>
+        <v>1.828</v>
       </c>
       <c r="D27" t="n">
-        <v>1.819</v>
+        <v>1.828</v>
       </c>
       <c r="E27" t="n">
-        <v>1.815</v>
+        <v>1.827</v>
       </c>
       <c r="F27" t="n">
-        <v>269396.507</v>
+        <v>950210.8295</v>
       </c>
       <c r="G27" t="n">
-        <v>28378390.6280856</v>
+        <v>42506765.14760316</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1.8</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.82</v>
+        <v>1.828</v>
       </c>
       <c r="C28" t="n">
-        <v>1.82</v>
+        <v>1.807</v>
       </c>
       <c r="D28" t="n">
-        <v>1.82</v>
+        <v>1.828</v>
       </c>
       <c r="E28" t="n">
-        <v>1.82</v>
+        <v>1.807</v>
       </c>
       <c r="F28" t="n">
-        <v>1000</v>
+        <v>550356.3503</v>
       </c>
       <c r="G28" t="n">
-        <v>28379390.6280856</v>
+        <v>41956408.79730316</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1466,36 +1399,33 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="C29" t="n">
-        <v>1.792</v>
+        <v>1.83</v>
       </c>
       <c r="D29" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="E29" t="n">
-        <v>1.792</v>
+        <v>1.83</v>
       </c>
       <c r="F29" t="n">
-        <v>517593</v>
+        <v>53510.6654</v>
       </c>
       <c r="G29" t="n">
-        <v>27861797.6280856</v>
+        <v>42009919.46270316</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1505,159 +1435,141 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.823</v>
+        <v>1.845</v>
       </c>
       <c r="C30" t="n">
-        <v>1.823</v>
+        <v>1.845</v>
       </c>
       <c r="D30" t="n">
-        <v>1.823</v>
+        <v>1.845</v>
       </c>
       <c r="E30" t="n">
-        <v>1.823</v>
+        <v>1.845</v>
       </c>
       <c r="F30" t="n">
-        <v>1000</v>
+        <v>277</v>
       </c>
       <c r="G30" t="n">
-        <v>27862797.6280856</v>
+        <v>42010196.46270316</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>1.792</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.825</v>
+        <v>1.845</v>
       </c>
       <c r="C31" t="n">
-        <v>1.83</v>
+        <v>1.845</v>
       </c>
       <c r="D31" t="n">
-        <v>1.83</v>
+        <v>1.845</v>
       </c>
       <c r="E31" t="n">
-        <v>1.825</v>
+        <v>1.845</v>
       </c>
       <c r="F31" t="n">
-        <v>3000</v>
+        <v>277</v>
       </c>
       <c r="G31" t="n">
-        <v>27865797.6280856</v>
+        <v>42010196.46270316</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.823</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.832</v>
+        <v>1.845</v>
       </c>
       <c r="C32" t="n">
-        <v>1.832</v>
+        <v>1.845</v>
       </c>
       <c r="D32" t="n">
-        <v>1.832</v>
+        <v>1.845</v>
       </c>
       <c r="E32" t="n">
-        <v>1.832</v>
+        <v>1.845</v>
       </c>
       <c r="F32" t="n">
-        <v>4519.3136</v>
+        <v>277</v>
       </c>
       <c r="G32" t="n">
-        <v>27870316.9416856</v>
+        <v>42010196.46270316</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>1.83</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.832</v>
+        <v>1.85</v>
       </c>
       <c r="C33" t="n">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="D33" t="n">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="E33" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="F33" t="n">
-        <v>7637.3627</v>
+        <v>554</v>
       </c>
       <c r="G33" t="n">
-        <v>27877954.3043856</v>
+        <v>42010750.46270316</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1667,36 +1579,33 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="C34" t="n">
-        <v>1.838</v>
+        <v>1.85</v>
       </c>
       <c r="D34" t="n">
-        <v>1.838</v>
+        <v>1.85</v>
       </c>
       <c r="E34" t="n">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="F34" t="n">
-        <v>22704.8452</v>
+        <v>8833.5923</v>
       </c>
       <c r="G34" t="n">
-        <v>27900659.1495856</v>
+        <v>42010750.46270316</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1706,21 +1615,18 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.838</v>
+        <v>1.85</v>
       </c>
       <c r="C35" t="n">
         <v>1.85</v>
@@ -1729,37 +1635,34 @@
         <v>1.85</v>
       </c>
       <c r="E35" t="n">
-        <v>1.838</v>
+        <v>1.85</v>
       </c>
       <c r="F35" t="n">
-        <v>12972204.4782</v>
+        <v>321067.8</v>
       </c>
       <c r="G35" t="n">
-        <v>40872863.62778559</v>
+        <v>42010750.46270316</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="C36" t="n">
         <v>1.85</v>
@@ -1768,30 +1671,27 @@
         <v>1.85</v>
       </c>
       <c r="E36" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="F36" t="n">
-        <v>180006.3743</v>
+        <v>23906.82</v>
       </c>
       <c r="G36" t="n">
-        <v>40872863.62778559</v>
+        <v>42010750.46270316</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1801,58 +1701,55 @@
         <v>1.85</v>
       </c>
       <c r="C37" t="n">
-        <v>1.85</v>
+        <v>1.823</v>
       </c>
       <c r="D37" t="n">
-        <v>1.85</v>
+        <v>1.853</v>
       </c>
       <c r="E37" t="n">
-        <v>1.85</v>
+        <v>1.823</v>
       </c>
       <c r="F37" t="n">
-        <v>554892.7286</v>
+        <v>1312.8585</v>
       </c>
       <c r="G37" t="n">
-        <v>40872863.62778559</v>
+        <v>42009437.60420316</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.85</v>
+        <v>1.831</v>
       </c>
       <c r="C38" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="D38" t="n">
-        <v>1.86</v>
+        <v>1.831</v>
       </c>
       <c r="E38" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="F38" t="n">
-        <v>271332.8049</v>
+        <v>507884.6116</v>
       </c>
       <c r="G38" t="n">
-        <v>41144196.43268559</v>
+        <v>42517322.21580316</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1862,36 +1759,33 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="C39" t="n">
-        <v>1.863</v>
+        <v>1.83</v>
       </c>
       <c r="D39" t="n">
-        <v>1.863</v>
+        <v>1.83</v>
       </c>
       <c r="E39" t="n">
-        <v>1.86</v>
+        <v>1.822</v>
       </c>
       <c r="F39" t="n">
-        <v>39154.9528</v>
+        <v>242537.0522</v>
       </c>
       <c r="G39" t="n">
-        <v>41183351.38548559</v>
+        <v>42517322.21580316</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1901,36 +1795,33 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.865</v>
+        <v>1.83</v>
       </c>
       <c r="C40" t="n">
-        <v>1.87</v>
+        <v>1.822</v>
       </c>
       <c r="D40" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="E40" t="n">
-        <v>1.865</v>
+        <v>1.822</v>
       </c>
       <c r="F40" t="n">
-        <v>208034.5758</v>
+        <v>50000</v>
       </c>
       <c r="G40" t="n">
-        <v>41391385.96128559</v>
+        <v>42467322.21580316</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1940,153 +1831,141 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.87</v>
+        <v>1.849</v>
       </c>
       <c r="C41" t="n">
-        <v>1.87</v>
+        <v>1.849</v>
       </c>
       <c r="D41" t="n">
-        <v>1.87</v>
+        <v>1.849</v>
       </c>
       <c r="E41" t="n">
-        <v>1.87</v>
+        <v>1.849</v>
       </c>
       <c r="F41" t="n">
-        <v>99538.864</v>
+        <v>300</v>
       </c>
       <c r="G41" t="n">
-        <v>41391385.96128559</v>
+        <v>42467622.21580316</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.869</v>
+        <v>1.82</v>
       </c>
       <c r="C42" t="n">
-        <v>1.869</v>
+        <v>1.82</v>
       </c>
       <c r="D42" t="n">
-        <v>1.869</v>
+        <v>1.82</v>
       </c>
       <c r="E42" t="n">
-        <v>1.869</v>
+        <v>1.82</v>
       </c>
       <c r="F42" t="n">
-        <v>50118.287</v>
+        <v>28457.31</v>
       </c>
       <c r="G42" t="n">
-        <v>41341267.67428559</v>
+        <v>42439164.90580316</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.838</v>
+        <v>1.82</v>
       </c>
       <c r="C43" t="n">
-        <v>1.838</v>
+        <v>1.82</v>
       </c>
       <c r="D43" t="n">
-        <v>1.838</v>
+        <v>1.82</v>
       </c>
       <c r="E43" t="n">
-        <v>1.838</v>
+        <v>1.82</v>
       </c>
       <c r="F43" t="n">
-        <v>35615.6789</v>
+        <v>10976.5358</v>
       </c>
       <c r="G43" t="n">
-        <v>41305651.99538559</v>
+        <v>42439164.90580316</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="C44" t="n">
-        <v>1.838</v>
+        <v>1.81</v>
       </c>
       <c r="D44" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="E44" t="n">
-        <v>1.838</v>
+        <v>1.81</v>
       </c>
       <c r="F44" t="n">
-        <v>7299.2536</v>
+        <v>377799.348</v>
       </c>
       <c r="G44" t="n">
-        <v>41305651.99538559</v>
+        <v>42061365.55780316</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2096,36 +1975,33 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.85</v>
+        <v>1.818</v>
       </c>
       <c r="C45" t="n">
-        <v>1.841</v>
+        <v>1.818</v>
       </c>
       <c r="D45" t="n">
-        <v>1.85</v>
+        <v>1.818</v>
       </c>
       <c r="E45" t="n">
-        <v>1.841</v>
+        <v>1.818</v>
       </c>
       <c r="F45" t="n">
-        <v>376795.7096</v>
+        <v>131137.8229</v>
       </c>
       <c r="G45" t="n">
-        <v>41682447.70498559</v>
+        <v>42192503.38070316</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2135,36 +2011,33 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.859</v>
+        <v>1.818</v>
       </c>
       <c r="C46" t="n">
-        <v>1.859</v>
+        <v>1.818</v>
       </c>
       <c r="D46" t="n">
-        <v>1.859</v>
+        <v>1.818</v>
       </c>
       <c r="E46" t="n">
-        <v>1.859</v>
+        <v>1.818</v>
       </c>
       <c r="F46" t="n">
-        <v>310.7669</v>
+        <v>5994.4268</v>
       </c>
       <c r="G46" t="n">
-        <v>41682758.47188559</v>
+        <v>42192503.38070316</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2174,36 +2047,33 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.837</v>
+        <v>1.818</v>
       </c>
       <c r="C47" t="n">
-        <v>1.826</v>
+        <v>1.818</v>
       </c>
       <c r="D47" t="n">
-        <v>1.837</v>
+        <v>1.818</v>
       </c>
       <c r="E47" t="n">
-        <v>1.826</v>
+        <v>1.818</v>
       </c>
       <c r="F47" t="n">
-        <v>4832.6622</v>
+        <v>1550.6</v>
       </c>
       <c r="G47" t="n">
-        <v>41677925.8096856</v>
+        <v>42192503.38070316</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2213,36 +2083,33 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.825</v>
+        <v>1.83</v>
       </c>
       <c r="C48" t="n">
-        <v>1.808</v>
+        <v>1.83</v>
       </c>
       <c r="D48" t="n">
-        <v>1.825</v>
+        <v>1.83</v>
       </c>
       <c r="E48" t="n">
-        <v>1.808</v>
+        <v>1.83</v>
       </c>
       <c r="F48" t="n">
-        <v>367466.1625</v>
+        <v>16596.6309</v>
       </c>
       <c r="G48" t="n">
-        <v>41310459.64718559</v>
+        <v>42209100.01160316</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2252,36 +2119,33 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="C49" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="D49" t="n">
-        <v>1.81</v>
+        <v>1.839</v>
       </c>
       <c r="E49" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F49" t="n">
-        <v>176318.1129</v>
+        <v>57497.731</v>
       </c>
       <c r="G49" t="n">
-        <v>41486777.76008559</v>
+        <v>42209100.01160316</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2291,36 +2155,33 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="C50" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="D50" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="E50" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F50" t="n">
-        <v>802320.0082</v>
+        <v>605.5096</v>
       </c>
       <c r="G50" t="n">
-        <v>41486777.76008559</v>
+        <v>42209100.01160316</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2330,36 +2191,33 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.807</v>
+        <v>1.839</v>
       </c>
       <c r="C51" t="n">
-        <v>1.803</v>
+        <v>1.839</v>
       </c>
       <c r="D51" t="n">
-        <v>1.807</v>
+        <v>1.839</v>
       </c>
       <c r="E51" t="n">
-        <v>1.803</v>
+        <v>1.839</v>
       </c>
       <c r="F51" t="n">
-        <v>77788.0015</v>
+        <v>15466.8776</v>
       </c>
       <c r="G51" t="n">
-        <v>41408989.75858559</v>
+        <v>42224566.88920316</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2369,153 +2227,141 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.803</v>
+        <v>1.839</v>
       </c>
       <c r="C52" t="n">
-        <v>1.803</v>
+        <v>1.839</v>
       </c>
       <c r="D52" t="n">
-        <v>1.803</v>
+        <v>1.839</v>
       </c>
       <c r="E52" t="n">
-        <v>1.803</v>
+        <v>1.839</v>
       </c>
       <c r="F52" t="n">
-        <v>280314.4677</v>
+        <v>15477.4811</v>
       </c>
       <c r="G52" t="n">
-        <v>41408989.75858559</v>
+        <v>42224566.88920316</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.809</v>
+        <v>1.837</v>
       </c>
       <c r="C53" t="n">
-        <v>1.809</v>
+        <v>1.837</v>
       </c>
       <c r="D53" t="n">
-        <v>1.809</v>
+        <v>1.837</v>
       </c>
       <c r="E53" t="n">
-        <v>1.809</v>
+        <v>1.837</v>
       </c>
       <c r="F53" t="n">
-        <v>4395.1238</v>
+        <v>45865.7059</v>
       </c>
       <c r="G53" t="n">
-        <v>41413384.88238559</v>
+        <v>42178701.18330316</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.81</v>
+        <v>1.837</v>
       </c>
       <c r="C54" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="D54" t="n">
-        <v>1.81</v>
+        <v>1.837</v>
       </c>
       <c r="E54" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="F54" t="n">
-        <v>482.9996</v>
+        <v>26766.0651</v>
       </c>
       <c r="G54" t="n">
-        <v>41413867.88198559</v>
+        <v>42151935.11820316</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="C55" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="D55" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="E55" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="F55" t="n">
-        <v>43423.1546</v>
+        <v>18376.432</v>
       </c>
       <c r="G55" t="n">
-        <v>41413867.88198559</v>
+        <v>42151935.11820316</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2525,36 +2371,33 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.849</v>
+        <v>1.808</v>
       </c>
       <c r="C56" t="n">
-        <v>1.849</v>
+        <v>1.808</v>
       </c>
       <c r="D56" t="n">
-        <v>1.849</v>
+        <v>1.808</v>
       </c>
       <c r="E56" t="n">
-        <v>1.849</v>
+        <v>1.808</v>
       </c>
       <c r="F56" t="n">
-        <v>474.5302</v>
+        <v>674.4331</v>
       </c>
       <c r="G56" t="n">
-        <v>41414342.41218559</v>
+        <v>42151260.68510316</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2564,14 +2407,11 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2590,10 +2430,10 @@
         <v>1.81</v>
       </c>
       <c r="F57" t="n">
-        <v>4395.1238</v>
+        <v>20000</v>
       </c>
       <c r="G57" t="n">
-        <v>41409947.28838558</v>
+        <v>42171260.68510316</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2603,36 +2443,33 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.82</v>
+        <v>1.808</v>
       </c>
       <c r="C58" t="n">
-        <v>1.82</v>
+        <v>1.799</v>
       </c>
       <c r="D58" t="n">
-        <v>1.82</v>
+        <v>1.808</v>
       </c>
       <c r="E58" t="n">
-        <v>1.82</v>
+        <v>1.799</v>
       </c>
       <c r="F58" t="n">
-        <v>82417.58241758242</v>
+        <v>208688.9713</v>
       </c>
       <c r="G58" t="n">
-        <v>41492364.87080317</v>
+        <v>41962571.71380316</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2642,153 +2479,141 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.81</v>
+        <v>1.799</v>
       </c>
       <c r="C59" t="n">
-        <v>1.81</v>
+        <v>1.799</v>
       </c>
       <c r="D59" t="n">
-        <v>1.81</v>
+        <v>1.799</v>
       </c>
       <c r="E59" t="n">
-        <v>1.81</v>
+        <v>1.799</v>
       </c>
       <c r="F59" t="n">
-        <v>15284.6145</v>
+        <v>1157</v>
       </c>
       <c r="G59" t="n">
-        <v>41477080.25630317</v>
+        <v>41962571.71380316</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.804</v>
+        <v>1.798</v>
       </c>
       <c r="C60" t="n">
-        <v>1.804</v>
+        <v>1.791</v>
       </c>
       <c r="D60" t="n">
-        <v>1.804</v>
+        <v>1.798</v>
       </c>
       <c r="E60" t="n">
-        <v>1.804</v>
+        <v>1.791</v>
       </c>
       <c r="F60" t="n">
-        <v>67132.9679</v>
+        <v>45413.4348</v>
       </c>
       <c r="G60" t="n">
-        <v>41409947.28840317</v>
+        <v>41917158.27900317</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.819</v>
+        <v>1.789</v>
       </c>
       <c r="C61" t="n">
-        <v>1.819</v>
+        <v>1.78</v>
       </c>
       <c r="D61" t="n">
-        <v>1.819</v>
+        <v>1.789</v>
       </c>
       <c r="E61" t="n">
-        <v>1.819</v>
+        <v>1.78</v>
       </c>
       <c r="F61" t="n">
-        <v>1406</v>
+        <v>46024</v>
       </c>
       <c r="G61" t="n">
-        <v>41411353.28840317</v>
+        <v>41871134.27900317</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.819</v>
+        <v>1.78</v>
       </c>
       <c r="C62" t="n">
-        <v>1.819</v>
+        <v>1.78</v>
       </c>
       <c r="D62" t="n">
-        <v>1.819</v>
+        <v>1.78</v>
       </c>
       <c r="E62" t="n">
-        <v>1.819</v>
+        <v>1.78</v>
       </c>
       <c r="F62" t="n">
-        <v>65726.9679</v>
+        <v>83269</v>
       </c>
       <c r="G62" t="n">
-        <v>41411353.28840317</v>
+        <v>41871134.27900317</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2798,36 +2623,33 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.819</v>
+        <v>1.774</v>
       </c>
       <c r="C63" t="n">
-        <v>1.819</v>
+        <v>1.76</v>
       </c>
       <c r="D63" t="n">
-        <v>1.819</v>
+        <v>1.774</v>
       </c>
       <c r="E63" t="n">
-        <v>1.819</v>
+        <v>1.76</v>
       </c>
       <c r="F63" t="n">
-        <v>603237.1747</v>
+        <v>751539.2663</v>
       </c>
       <c r="G63" t="n">
-        <v>41411353.28840317</v>
+        <v>41119595.01270317</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2837,36 +2659,33 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.805</v>
+        <v>1.76</v>
       </c>
       <c r="C64" t="n">
-        <v>1.801</v>
+        <v>1.77</v>
       </c>
       <c r="D64" t="n">
-        <v>1.805</v>
+        <v>1.77</v>
       </c>
       <c r="E64" t="n">
-        <v>1.801</v>
+        <v>1.76</v>
       </c>
       <c r="F64" t="n">
-        <v>104786.5503</v>
+        <v>289072</v>
       </c>
       <c r="G64" t="n">
-        <v>41306566.73810317</v>
+        <v>41408667.01270317</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2876,36 +2695,33 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.818</v>
+        <v>1.754</v>
       </c>
       <c r="C65" t="n">
-        <v>1.817</v>
+        <v>1.769</v>
       </c>
       <c r="D65" t="n">
-        <v>1.818</v>
+        <v>1.769</v>
       </c>
       <c r="E65" t="n">
-        <v>1.817</v>
+        <v>1.751</v>
       </c>
       <c r="F65" t="n">
-        <v>300000</v>
+        <v>7000.4854</v>
       </c>
       <c r="G65" t="n">
-        <v>41606566.73810317</v>
+        <v>41401666.52730317</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2915,36 +2731,33 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.817</v>
+        <v>1.769</v>
       </c>
       <c r="C66" t="n">
-        <v>1.817</v>
+        <v>1.79</v>
       </c>
       <c r="D66" t="n">
-        <v>1.817</v>
+        <v>1.79</v>
       </c>
       <c r="E66" t="n">
-        <v>1.817</v>
+        <v>1.769</v>
       </c>
       <c r="F66" t="n">
-        <v>40000</v>
+        <v>31078.2833</v>
       </c>
       <c r="G66" t="n">
-        <v>41606566.73810317</v>
+        <v>41432744.81060316</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2953,47 +2766,50 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.817</v>
+        <v>1.769</v>
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.801</v>
+        <v>1.79</v>
       </c>
       <c r="C67" t="n">
-        <v>1.801</v>
+        <v>1.819</v>
       </c>
       <c r="D67" t="n">
-        <v>1.801</v>
+        <v>1.819</v>
       </c>
       <c r="E67" t="n">
-        <v>1.801</v>
+        <v>1.79</v>
       </c>
       <c r="F67" t="n">
-        <v>52146.6</v>
+        <v>130340.4444</v>
       </c>
       <c r="G67" t="n">
-        <v>41554420.13810316</v>
+        <v>41563085.25500316</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1.79</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -3003,28 +2819,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.81</v>
+        <v>1.819</v>
       </c>
       <c r="C68" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="D68" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="E68" t="n">
-        <v>1.81</v>
+        <v>1.819</v>
       </c>
       <c r="F68" t="n">
-        <v>2134.18</v>
+        <v>16826.5429</v>
       </c>
       <c r="G68" t="n">
-        <v>41556554.31810316</v>
+        <v>41579911.79790317</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3042,28 +2859,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.827</v>
+        <v>1.819</v>
       </c>
       <c r="C69" t="n">
-        <v>1.828</v>
+        <v>1.75</v>
       </c>
       <c r="D69" t="n">
-        <v>1.828</v>
+        <v>1.819</v>
       </c>
       <c r="E69" t="n">
-        <v>1.827</v>
+        <v>1.75</v>
       </c>
       <c r="F69" t="n">
-        <v>950210.8295</v>
+        <v>81698.96859999999</v>
       </c>
       <c r="G69" t="n">
-        <v>42506765.14760316</v>
+        <v>41498212.82930317</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3081,28 +2899,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.828</v>
+        <v>1.81</v>
       </c>
       <c r="C70" t="n">
-        <v>1.807</v>
+        <v>1.81</v>
       </c>
       <c r="D70" t="n">
-        <v>1.828</v>
+        <v>1.81</v>
       </c>
       <c r="E70" t="n">
-        <v>1.807</v>
+        <v>1.81</v>
       </c>
       <c r="F70" t="n">
-        <v>550356.3503</v>
+        <v>15228.3699</v>
       </c>
       <c r="G70" t="n">
-        <v>41956408.79730316</v>
+        <v>41513441.19920317</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3120,28 +2939,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.83</v>
+        <v>1.771</v>
       </c>
       <c r="C71" t="n">
-        <v>1.83</v>
+        <v>1.771</v>
       </c>
       <c r="D71" t="n">
-        <v>1.83</v>
+        <v>1.771</v>
       </c>
       <c r="E71" t="n">
-        <v>1.83</v>
+        <v>1.771</v>
       </c>
       <c r="F71" t="n">
-        <v>53510.6654</v>
+        <v>53618.4965</v>
       </c>
       <c r="G71" t="n">
-        <v>42009919.46270316</v>
+        <v>41459822.70270317</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3159,28 +2979,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.845</v>
+        <v>1.799</v>
       </c>
       <c r="C72" t="n">
-        <v>1.845</v>
+        <v>1.799</v>
       </c>
       <c r="D72" t="n">
-        <v>1.845</v>
+        <v>1.799</v>
       </c>
       <c r="E72" t="n">
-        <v>1.845</v>
+        <v>1.799</v>
       </c>
       <c r="F72" t="n">
-        <v>277</v>
+        <v>5795.0504</v>
       </c>
       <c r="G72" t="n">
-        <v>42010196.46270316</v>
+        <v>41465617.75310317</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3198,28 +3019,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.845</v>
+        <v>1.799</v>
       </c>
       <c r="C73" t="n">
-        <v>1.845</v>
+        <v>1.799</v>
       </c>
       <c r="D73" t="n">
-        <v>1.845</v>
+        <v>1.799</v>
       </c>
       <c r="E73" t="n">
-        <v>1.845</v>
+        <v>1.799</v>
       </c>
       <c r="F73" t="n">
-        <v>277</v>
+        <v>1000</v>
       </c>
       <c r="G73" t="n">
-        <v>42010196.46270316</v>
+        <v>41465617.75310317</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3237,28 +3059,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.845</v>
+        <v>1.8</v>
       </c>
       <c r="C74" t="n">
-        <v>1.845</v>
+        <v>1.8</v>
       </c>
       <c r="D74" t="n">
-        <v>1.845</v>
+        <v>1.8</v>
       </c>
       <c r="E74" t="n">
-        <v>1.845</v>
+        <v>1.8</v>
       </c>
       <c r="F74" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G74" t="n">
-        <v>42010196.46270316</v>
+        <v>41465897.75310317</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3276,28 +3099,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.85</v>
+        <v>1.809</v>
       </c>
       <c r="C75" t="n">
-        <v>1.85</v>
+        <v>1.809</v>
       </c>
       <c r="D75" t="n">
-        <v>1.85</v>
+        <v>1.809</v>
       </c>
       <c r="E75" t="n">
-        <v>1.85</v>
+        <v>1.809</v>
       </c>
       <c r="F75" t="n">
-        <v>554</v>
+        <v>1054.5294</v>
       </c>
       <c r="G75" t="n">
-        <v>42010750.46270316</v>
+        <v>41466952.28250317</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3315,380 +3139,435 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="C76" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="D76" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="E76" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="F76" t="n">
-        <v>8833.5923</v>
+        <v>10393.1146</v>
       </c>
       <c r="G76" t="n">
-        <v>42010750.46270316</v>
+        <v>41456559.16790316</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.85</v>
+        <v>1.799</v>
       </c>
       <c r="C77" t="n">
-        <v>1.85</v>
+        <v>1.799</v>
       </c>
       <c r="D77" t="n">
-        <v>1.85</v>
+        <v>1.799</v>
       </c>
       <c r="E77" t="n">
-        <v>1.85</v>
+        <v>1.799</v>
       </c>
       <c r="F77" t="n">
-        <v>321067.8</v>
+        <v>99.34</v>
       </c>
       <c r="G77" t="n">
-        <v>42010750.46270316</v>
+        <v>41456459.82790316</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.85</v>
+        <v>1.781</v>
       </c>
       <c r="C78" t="n">
-        <v>1.85</v>
+        <v>1.767</v>
       </c>
       <c r="D78" t="n">
-        <v>1.85</v>
+        <v>1.799</v>
       </c>
       <c r="E78" t="n">
-        <v>1.85</v>
+        <v>1.767</v>
       </c>
       <c r="F78" t="n">
-        <v>23906.82</v>
+        <v>596193.857</v>
       </c>
       <c r="G78" t="n">
-        <v>42010750.46270316</v>
+        <v>40860265.97090316</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.85</v>
+        <v>1.799</v>
       </c>
       <c r="C79" t="n">
-        <v>1.823</v>
+        <v>1.799</v>
       </c>
       <c r="D79" t="n">
-        <v>1.853</v>
+        <v>1.799</v>
       </c>
       <c r="E79" t="n">
-        <v>1.823</v>
+        <v>1.799</v>
       </c>
       <c r="F79" t="n">
-        <v>1312.8585</v>
+        <v>6549.6708</v>
       </c>
       <c r="G79" t="n">
-        <v>42009437.60420316</v>
+        <v>40866815.64170316</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.831</v>
+        <v>1.78</v>
       </c>
       <c r="C80" t="n">
-        <v>1.83</v>
+        <v>1.779</v>
       </c>
       <c r="D80" t="n">
-        <v>1.831</v>
+        <v>1.78</v>
       </c>
       <c r="E80" t="n">
-        <v>1.83</v>
+        <v>1.779</v>
       </c>
       <c r="F80" t="n">
-        <v>507884.6116</v>
+        <v>49659</v>
       </c>
       <c r="G80" t="n">
-        <v>42517322.21580316</v>
+        <v>40817156.64170316</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="C81" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="D81" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="E81" t="n">
-        <v>1.822</v>
+        <v>1.77</v>
       </c>
       <c r="F81" t="n">
-        <v>242537.0522</v>
+        <v>44644.3139</v>
       </c>
       <c r="G81" t="n">
-        <v>42517322.21580316</v>
+        <v>40772512.32780316</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1.779</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="C82" t="n">
-        <v>1.822</v>
+        <v>1.77</v>
       </c>
       <c r="D82" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="E82" t="n">
-        <v>1.822</v>
+        <v>1.77</v>
       </c>
       <c r="F82" t="n">
-        <v>50000</v>
+        <v>281965.6581</v>
       </c>
       <c r="G82" t="n">
-        <v>42467322.21580316</v>
+        <v>40772512.32780316</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.77</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.849</v>
+        <v>1.772</v>
       </c>
       <c r="C83" t="n">
-        <v>1.849</v>
+        <v>1.772</v>
       </c>
       <c r="D83" t="n">
-        <v>1.849</v>
+        <v>1.772</v>
       </c>
       <c r="E83" t="n">
-        <v>1.849</v>
+        <v>1.772</v>
       </c>
       <c r="F83" t="n">
-        <v>300</v>
+        <v>44644.3139</v>
       </c>
       <c r="G83" t="n">
-        <v>42467622.21580316</v>
+        <v>40817156.64170316</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1.77</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.82</v>
+        <v>1.785</v>
       </c>
       <c r="C84" t="n">
-        <v>1.82</v>
+        <v>1.785</v>
       </c>
       <c r="D84" t="n">
-        <v>1.82</v>
+        <v>1.785</v>
       </c>
       <c r="E84" t="n">
-        <v>1.82</v>
+        <v>1.785</v>
       </c>
       <c r="F84" t="n">
-        <v>28457.31</v>
+        <v>6270.9886</v>
       </c>
       <c r="G84" t="n">
-        <v>42439164.90580316</v>
+        <v>40823427.63030316</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.82</v>
+        <v>1.772</v>
       </c>
       <c r="C85" t="n">
-        <v>1.82</v>
+        <v>1.771</v>
       </c>
       <c r="D85" t="n">
-        <v>1.82</v>
+        <v>1.772</v>
       </c>
       <c r="E85" t="n">
-        <v>1.82</v>
+        <v>1.771</v>
       </c>
       <c r="F85" t="n">
-        <v>10976.5358</v>
+        <v>24311.0148</v>
       </c>
       <c r="G85" t="n">
-        <v>42439164.90580316</v>
+        <v>40799116.61550316</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.81</v>
+        <v>1.771</v>
       </c>
       <c r="C86" t="n">
-        <v>1.81</v>
+        <v>1.784</v>
       </c>
       <c r="D86" t="n">
-        <v>1.81</v>
+        <v>1.784</v>
       </c>
       <c r="E86" t="n">
-        <v>1.81</v>
+        <v>1.771</v>
       </c>
       <c r="F86" t="n">
-        <v>377799.348</v>
+        <v>255300</v>
       </c>
       <c r="G86" t="n">
-        <v>42061365.55780316</v>
+        <v>41054416.61550316</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3698,32 +3577,37 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.818</v>
+        <v>1.767</v>
       </c>
       <c r="C87" t="n">
-        <v>1.818</v>
+        <v>1.767</v>
       </c>
       <c r="D87" t="n">
-        <v>1.818</v>
+        <v>1.767</v>
       </c>
       <c r="E87" t="n">
-        <v>1.818</v>
+        <v>1.767</v>
       </c>
       <c r="F87" t="n">
-        <v>131137.8229</v>
+        <v>30000</v>
       </c>
       <c r="G87" t="n">
-        <v>42192503.38070316</v>
+        <v>41024416.61550316</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3733,32 +3617,37 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.818</v>
+        <v>1.768</v>
       </c>
       <c r="C88" t="n">
-        <v>1.818</v>
+        <v>1.768</v>
       </c>
       <c r="D88" t="n">
-        <v>1.818</v>
+        <v>1.768</v>
       </c>
       <c r="E88" t="n">
-        <v>1.818</v>
+        <v>1.768</v>
       </c>
       <c r="F88" t="n">
-        <v>5994.4268</v>
+        <v>1000</v>
       </c>
       <c r="G88" t="n">
-        <v>42192503.38070316</v>
+        <v>41025416.61550316</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3768,32 +3657,37 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.818</v>
+        <v>1.784</v>
       </c>
       <c r="C89" t="n">
-        <v>1.818</v>
+        <v>1.784</v>
       </c>
       <c r="D89" t="n">
-        <v>1.818</v>
+        <v>1.784</v>
       </c>
       <c r="E89" t="n">
-        <v>1.818</v>
+        <v>1.784</v>
       </c>
       <c r="F89" t="n">
-        <v>1550.6</v>
+        <v>281</v>
       </c>
       <c r="G89" t="n">
-        <v>42192503.38070316</v>
+        <v>41025697.61550316</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3803,32 +3697,37 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.83</v>
+        <v>1.784</v>
       </c>
       <c r="C90" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="D90" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="E90" t="n">
-        <v>1.83</v>
+        <v>1.784</v>
       </c>
       <c r="F90" t="n">
-        <v>16596.6309</v>
+        <v>543137.9267667582</v>
       </c>
       <c r="G90" t="n">
-        <v>42209100.01160316</v>
+        <v>41568835.54226992</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3838,242 +3737,277 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="C91" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="D91" t="n">
-        <v>1.839</v>
+        <v>1.8</v>
       </c>
       <c r="E91" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="F91" t="n">
-        <v>57497.731</v>
+        <v>184665.1059</v>
       </c>
       <c r="G91" t="n">
-        <v>42209100.01160316</v>
+        <v>41384170.43636993</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.83</v>
+        <v>1.781</v>
       </c>
       <c r="C92" t="n">
-        <v>1.83</v>
+        <v>1.781</v>
       </c>
       <c r="D92" t="n">
-        <v>1.83</v>
+        <v>1.781</v>
       </c>
       <c r="E92" t="n">
-        <v>1.83</v>
+        <v>1.781</v>
       </c>
       <c r="F92" t="n">
-        <v>605.5096</v>
+        <v>122120.721</v>
       </c>
       <c r="G92" t="n">
-        <v>42209100.01160316</v>
+        <v>41262049.71536992</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.839</v>
+        <v>1.79</v>
       </c>
       <c r="C93" t="n">
-        <v>1.839</v>
+        <v>1.79</v>
       </c>
       <c r="D93" t="n">
-        <v>1.839</v>
+        <v>1.79</v>
       </c>
       <c r="E93" t="n">
-        <v>1.839</v>
+        <v>1.79</v>
       </c>
       <c r="F93" t="n">
-        <v>15466.8776</v>
+        <v>196729.3296</v>
       </c>
       <c r="G93" t="n">
-        <v>42224566.88920316</v>
+        <v>41458779.04496992</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.839</v>
+        <v>1.78</v>
       </c>
       <c r="C94" t="n">
-        <v>1.839</v>
+        <v>1.78</v>
       </c>
       <c r="D94" t="n">
-        <v>1.839</v>
+        <v>1.78</v>
       </c>
       <c r="E94" t="n">
-        <v>1.839</v>
+        <v>1.78</v>
       </c>
       <c r="F94" t="n">
-        <v>15477.4811</v>
+        <v>2149.3361</v>
       </c>
       <c r="G94" t="n">
-        <v>42224566.88920316</v>
+        <v>41456629.70886993</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.837</v>
+        <v>1.779</v>
       </c>
       <c r="C95" t="n">
-        <v>1.837</v>
+        <v>1.79</v>
       </c>
       <c r="D95" t="n">
-        <v>1.837</v>
+        <v>1.791</v>
       </c>
       <c r="E95" t="n">
-        <v>1.837</v>
+        <v>1.779</v>
       </c>
       <c r="F95" t="n">
-        <v>45865.7059</v>
+        <v>919360.7581</v>
       </c>
       <c r="G95" t="n">
-        <v>42178701.18330316</v>
+        <v>42375990.46696993</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.837</v>
+        <v>1.79</v>
       </c>
       <c r="C96" t="n">
-        <v>1.809</v>
+        <v>1.8</v>
       </c>
       <c r="D96" t="n">
-        <v>1.837</v>
+        <v>1.8</v>
       </c>
       <c r="E96" t="n">
-        <v>1.809</v>
+        <v>1.76</v>
       </c>
       <c r="F96" t="n">
-        <v>26766.0651</v>
+        <v>576992.9377</v>
       </c>
       <c r="G96" t="n">
-        <v>42151935.11820316</v>
+        <v>42952983.40466993</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.809</v>
+        <v>1.771</v>
       </c>
       <c r="C97" t="n">
-        <v>1.809</v>
+        <v>1.771</v>
       </c>
       <c r="D97" t="n">
-        <v>1.809</v>
+        <v>1.771</v>
       </c>
       <c r="E97" t="n">
-        <v>1.809</v>
+        <v>1.77</v>
       </c>
       <c r="F97" t="n">
-        <v>18376.432</v>
+        <v>237978.8019</v>
       </c>
       <c r="G97" t="n">
-        <v>42151935.11820316</v>
+        <v>42715004.60276993</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4083,32 +4017,37 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.808</v>
+        <v>1.771</v>
       </c>
       <c r="C98" t="n">
-        <v>1.808</v>
+        <v>1.771</v>
       </c>
       <c r="D98" t="n">
-        <v>1.808</v>
+        <v>1.771</v>
       </c>
       <c r="E98" t="n">
-        <v>1.808</v>
+        <v>1.771</v>
       </c>
       <c r="F98" t="n">
-        <v>674.4331</v>
+        <v>208826.4329</v>
       </c>
       <c r="G98" t="n">
-        <v>42151260.68510316</v>
+        <v>42715004.60276993</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4118,32 +4057,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="C99" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="D99" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="E99" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="F99" t="n">
-        <v>20000</v>
+        <v>262256.3604</v>
       </c>
       <c r="G99" t="n">
-        <v>42171260.68510316</v>
+        <v>42977260.96316993</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4153,32 +4097,37 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.808</v>
+        <v>1.77</v>
       </c>
       <c r="C100" t="n">
-        <v>1.799</v>
+        <v>1.77</v>
       </c>
       <c r="D100" t="n">
-        <v>1.808</v>
+        <v>1.77</v>
       </c>
       <c r="E100" t="n">
-        <v>1.799</v>
+        <v>1.77</v>
       </c>
       <c r="F100" t="n">
-        <v>208688.9713</v>
+        <v>200141.4824</v>
       </c>
       <c r="G100" t="n">
-        <v>41962571.71380316</v>
+        <v>42777119.48076993</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4188,32 +4137,37 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.799</v>
+        <v>1.77</v>
       </c>
       <c r="C101" t="n">
-        <v>1.799</v>
+        <v>1.77</v>
       </c>
       <c r="D101" t="n">
-        <v>1.799</v>
+        <v>1.77</v>
       </c>
       <c r="E101" t="n">
-        <v>1.799</v>
+        <v>1.77</v>
       </c>
       <c r="F101" t="n">
-        <v>1157</v>
+        <v>23561.1873</v>
       </c>
       <c r="G101" t="n">
-        <v>41962571.71380316</v>
+        <v>42777119.48076993</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4223,32 +4177,37 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.798</v>
+        <v>1.77</v>
       </c>
       <c r="C102" t="n">
-        <v>1.791</v>
+        <v>1.77</v>
       </c>
       <c r="D102" t="n">
-        <v>1.798</v>
+        <v>1.77</v>
       </c>
       <c r="E102" t="n">
-        <v>1.791</v>
+        <v>1.77</v>
       </c>
       <c r="F102" t="n">
-        <v>45413.4348</v>
+        <v>34858.7207</v>
       </c>
       <c r="G102" t="n">
-        <v>41917158.27900317</v>
+        <v>42777119.48076993</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
@@ -4257,39 +4216,40 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.799</v>
+        <v>1.77</v>
       </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.789</v>
+        <v>1.766</v>
       </c>
       <c r="C103" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="D103" t="n">
-        <v>1.789</v>
+        <v>1.766</v>
       </c>
       <c r="E103" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="F103" t="n">
-        <v>46024</v>
+        <v>7000</v>
       </c>
       <c r="G103" t="n">
-        <v>41871134.27900317</v>
+        <v>42770119.48076993</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4307,28 +4267,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="C104" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="D104" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="E104" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="F104" t="n">
-        <v>83269</v>
+        <v>227776.8193</v>
       </c>
       <c r="G104" t="n">
-        <v>41871134.27900317</v>
+        <v>42770119.48076993</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4337,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
@@ -4348,37 +4309,38 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.774</v>
+        <v>1.788</v>
       </c>
       <c r="C105" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="F105" t="n">
+        <v>300</v>
+      </c>
+      <c r="G105" t="n">
+        <v>42770419.48076993</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
         <v>1.76</v>
-      </c>
-      <c r="D105" t="n">
-        <v>1.774</v>
-      </c>
-      <c r="E105" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F105" t="n">
-        <v>751539.2663</v>
-      </c>
-      <c r="G105" t="n">
-        <v>41119595.01270317</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.78</v>
       </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
@@ -4389,6 +4351,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4398,19 +4361,19 @@
         <v>1.76</v>
       </c>
       <c r="C106" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="D106" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="E106" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="F106" t="n">
-        <v>289072</v>
+        <v>701080.2433</v>
       </c>
       <c r="G106" t="n">
-        <v>41408667.01270317</v>
+        <v>42069339.23746993</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4419,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.76</v>
+        <v>1.788</v>
       </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
@@ -4430,1658 +4393,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>1.754</v>
-      </c>
-      <c r="C107" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D107" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1.751</v>
-      </c>
-      <c r="F107" t="n">
-        <v>7000.4854</v>
-      </c>
-      <c r="G107" t="n">
-        <v>41401666.52730317</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C108" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D108" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E108" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F108" t="n">
-        <v>31078.2833</v>
-      </c>
-      <c r="G108" t="n">
-        <v>41432744.81060316</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="D109" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="E109" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F109" t="n">
-        <v>130340.4444</v>
-      </c>
-      <c r="G109" t="n">
-        <v>41563085.25500316</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E110" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="F110" t="n">
-        <v>16826.5429</v>
-      </c>
-      <c r="G110" t="n">
-        <v>41579911.79790317</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D111" t="n">
-        <v>1.819</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F111" t="n">
-        <v>81698.96859999999</v>
-      </c>
-      <c r="G111" t="n">
-        <v>41498212.82930317</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D112" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="E112" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F112" t="n">
-        <v>15228.3699</v>
-      </c>
-      <c r="G112" t="n">
-        <v>41513441.19920317</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="D113" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="E113" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="F113" t="n">
-        <v>53618.4965</v>
-      </c>
-      <c r="G113" t="n">
-        <v>41459822.70270317</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="E114" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5795.0504</v>
-      </c>
-      <c r="G114" t="n">
-        <v>41465617.75310317</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="D115" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="E115" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G115" t="n">
-        <v>41465617.75310317</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D116" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E116" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F116" t="n">
-        <v>280</v>
-      </c>
-      <c r="G116" t="n">
-        <v>41465897.75310317</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="D117" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="E117" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1054.5294</v>
-      </c>
-      <c r="G117" t="n">
-        <v>41466952.28250317</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F118" t="n">
-        <v>10393.1146</v>
-      </c>
-      <c r="G118" t="n">
-        <v>41456559.16790316</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1.809</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="C119" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="D119" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="E119" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="F119" t="n">
-        <v>99.34</v>
-      </c>
-      <c r="G119" t="n">
-        <v>41456459.82790316</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="C120" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="D120" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="F120" t="n">
-        <v>596193.857</v>
-      </c>
-      <c r="G120" t="n">
-        <v>40860265.97090316</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="C121" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="D121" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="F121" t="n">
-        <v>6549.6708</v>
-      </c>
-      <c r="G121" t="n">
-        <v>40866815.64170316</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C122" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F122" t="n">
-        <v>49659</v>
-      </c>
-      <c r="G122" t="n">
-        <v>40817156.64170316</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1.799</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C123" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D123" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F123" t="n">
-        <v>44644.3139</v>
-      </c>
-      <c r="G123" t="n">
-        <v>40772512.32780316</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C124" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D124" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F124" t="n">
-        <v>281965.6581</v>
-      </c>
-      <c r="G124" t="n">
-        <v>40772512.32780316</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="C125" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="D125" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="E125" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="F125" t="n">
-        <v>44644.3139</v>
-      </c>
-      <c r="G125" t="n">
-        <v>40817156.64170316</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="C126" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="E126" t="n">
-        <v>1.785</v>
-      </c>
-      <c r="F126" t="n">
-        <v>6270.9886</v>
-      </c>
-      <c r="G126" t="n">
-        <v>40823427.63030316</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="D127" t="n">
-        <v>1.772</v>
-      </c>
-      <c r="E127" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="F127" t="n">
-        <v>24311.0148</v>
-      </c>
-      <c r="G127" t="n">
-        <v>40799116.61550316</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="C128" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="D128" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="E128" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="F128" t="n">
-        <v>255300</v>
-      </c>
-      <c r="G128" t="n">
-        <v>41054416.61550316</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="C129" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="D129" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E129" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="F129" t="n">
-        <v>30000</v>
-      </c>
-      <c r="G129" t="n">
-        <v>41024416.61550316</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="C130" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="E130" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G130" t="n">
-        <v>41025416.61550316</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="C131" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="E131" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="F131" t="n">
-        <v>281</v>
-      </c>
-      <c r="G131" t="n">
-        <v>41025697.61550316</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="D132" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.784</v>
-      </c>
-      <c r="F132" t="n">
-        <v>543137.9267667582</v>
-      </c>
-      <c r="G132" t="n">
-        <v>41568835.54226992</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E133" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="F133" t="n">
-        <v>184665.1059</v>
-      </c>
-      <c r="G133" t="n">
-        <v>41384170.43636993</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="E134" t="n">
-        <v>1.781</v>
-      </c>
-      <c r="F134" t="n">
-        <v>122120.721</v>
-      </c>
-      <c r="G134" t="n">
-        <v>41262049.71536992</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E135" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="F135" t="n">
-        <v>196729.3296</v>
-      </c>
-      <c r="G135" t="n">
-        <v>41458779.04496992</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D136" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="E136" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F136" t="n">
-        <v>2149.3361</v>
-      </c>
-      <c r="G136" t="n">
-        <v>41456629.70886993</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.791</v>
-      </c>
-      <c r="E137" t="n">
-        <v>1.779</v>
-      </c>
-      <c r="F137" t="n">
-        <v>919360.7581</v>
-      </c>
-      <c r="G137" t="n">
-        <v>42375990.46696993</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="E138" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F138" t="n">
-        <v>576992.9377</v>
-      </c>
-      <c r="G138" t="n">
-        <v>42952983.40466993</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="D139" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="E139" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F139" t="n">
-        <v>237978.8019</v>
-      </c>
-      <c r="G139" t="n">
-        <v>42715004.60276993</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="D140" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="E140" t="n">
-        <v>1.771</v>
-      </c>
-      <c r="F140" t="n">
-        <v>208826.4329</v>
-      </c>
-      <c r="G140" t="n">
-        <v>42715004.60276993</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="D141" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="E141" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F141" t="n">
-        <v>262256.3604</v>
-      </c>
-      <c r="G141" t="n">
-        <v>42977260.96316993</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E142" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F142" t="n">
-        <v>200141.4824</v>
-      </c>
-      <c r="G142" t="n">
-        <v>42777119.48076993</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D143" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E143" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F143" t="n">
-        <v>23561.1873</v>
-      </c>
-      <c r="G143" t="n">
-        <v>42777119.48076993</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D144" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E144" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F144" t="n">
-        <v>34858.7207</v>
-      </c>
-      <c r="G144" t="n">
-        <v>42777119.48076993</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D145" t="n">
-        <v>1.766</v>
-      </c>
-      <c r="E145" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F145" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G145" t="n">
-        <v>42770119.48076993</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="D146" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="E146" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="F146" t="n">
-        <v>227776.8193</v>
-      </c>
-      <c r="G146" t="n">
-        <v>42770119.48076993</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="D147" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="E147" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="F147" t="n">
-        <v>300</v>
-      </c>
-      <c r="G147" t="n">
-        <v>42770419.48076993</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="D148" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="E148" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F148" t="n">
-        <v>701080.2433</v>
-      </c>
-      <c r="G148" t="n">
-        <v>42069339.23746993</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest MXC.xlsx
+++ b/BackTest/2020-01-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.87</v>
+        <v>1.788</v>
       </c>
       <c r="C2" t="n">
-        <v>1.838</v>
+        <v>1.789</v>
       </c>
       <c r="D2" t="n">
-        <v>1.87</v>
+        <v>1.789</v>
       </c>
       <c r="E2" t="n">
-        <v>1.838</v>
+        <v>1.788</v>
       </c>
       <c r="F2" t="n">
-        <v>7299.2536</v>
+        <v>432710</v>
       </c>
       <c r="G2" t="n">
-        <v>41305651.99538559</v>
+        <v>1052120.139115961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.85</v>
+        <v>1.769</v>
       </c>
       <c r="C3" t="n">
-        <v>1.841</v>
+        <v>1.789</v>
       </c>
       <c r="D3" t="n">
-        <v>1.85</v>
+        <v>1.789</v>
       </c>
       <c r="E3" t="n">
-        <v>1.841</v>
+        <v>1.76</v>
       </c>
       <c r="F3" t="n">
-        <v>376795.7096</v>
+        <v>983005.6438</v>
       </c>
       <c r="G3" t="n">
-        <v>41682447.70498559</v>
+        <v>1052120.139115961</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.859</v>
+        <v>1.77</v>
       </c>
       <c r="C4" t="n">
-        <v>1.859</v>
+        <v>1.77</v>
       </c>
       <c r="D4" t="n">
-        <v>1.859</v>
+        <v>1.77</v>
       </c>
       <c r="E4" t="n">
-        <v>1.859</v>
+        <v>1.77</v>
       </c>
       <c r="F4" t="n">
-        <v>310.7669</v>
+        <v>1064458.835</v>
       </c>
       <c r="G4" t="n">
-        <v>41682758.47188559</v>
+        <v>-12338.69588403916</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,31 +546,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.837</v>
+        <v>1.77</v>
       </c>
       <c r="C5" t="n">
-        <v>1.826</v>
+        <v>1.77</v>
       </c>
       <c r="D5" t="n">
-        <v>1.837</v>
+        <v>1.77</v>
       </c>
       <c r="E5" t="n">
-        <v>1.826</v>
+        <v>1.77</v>
       </c>
       <c r="F5" t="n">
-        <v>4832.6622</v>
+        <v>70687.80590000001</v>
       </c>
       <c r="G5" t="n">
-        <v>41677925.8096856</v>
+        <v>-12338.69588403916</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -582,32 +586,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.825</v>
+        <v>1.768</v>
       </c>
       <c r="C6" t="n">
-        <v>1.808</v>
+        <v>1.768</v>
       </c>
       <c r="D6" t="n">
-        <v>1.825</v>
+        <v>1.768</v>
       </c>
       <c r="E6" t="n">
-        <v>1.808</v>
+        <v>1.768</v>
       </c>
       <c r="F6" t="n">
-        <v>367466.1625</v>
+        <v>15976.04</v>
       </c>
       <c r="G6" t="n">
-        <v>41310459.64718559</v>
+        <v>-28314.73588403916</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,32 +630,40 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.81</v>
+        <v>1.768</v>
       </c>
       <c r="C7" t="n">
-        <v>1.81</v>
+        <v>1.762</v>
       </c>
       <c r="D7" t="n">
-        <v>1.81</v>
+        <v>1.768</v>
       </c>
       <c r="E7" t="n">
-        <v>1.81</v>
+        <v>1.762</v>
       </c>
       <c r="F7" t="n">
-        <v>176318.1129</v>
+        <v>5500</v>
       </c>
       <c r="G7" t="n">
-        <v>41486777.76008559</v>
+        <v>-33814.73588403916</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -654,32 +674,40 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.81</v>
+        <v>1.769</v>
       </c>
       <c r="C8" t="n">
-        <v>1.81</v>
+        <v>1.769</v>
       </c>
       <c r="D8" t="n">
-        <v>1.81</v>
+        <v>1.769</v>
       </c>
       <c r="E8" t="n">
-        <v>1.81</v>
+        <v>1.769</v>
       </c>
       <c r="F8" t="n">
-        <v>802320.0082</v>
+        <v>1500</v>
       </c>
       <c r="G8" t="n">
-        <v>41486777.76008559</v>
+        <v>-32314.73588403916</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1.762</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -690,32 +718,40 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.807</v>
+        <v>1.769</v>
       </c>
       <c r="C9" t="n">
-        <v>1.803</v>
+        <v>1.769</v>
       </c>
       <c r="D9" t="n">
-        <v>1.807</v>
+        <v>1.769</v>
       </c>
       <c r="E9" t="n">
-        <v>1.803</v>
+        <v>1.769</v>
       </c>
       <c r="F9" t="n">
-        <v>77788.0015</v>
+        <v>1303.2438</v>
       </c>
       <c r="G9" t="n">
-        <v>41408989.75858559</v>
+        <v>-32314.73588403916</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -726,32 +762,40 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.803</v>
+        <v>1.769</v>
       </c>
       <c r="C10" t="n">
-        <v>1.803</v>
+        <v>1.769</v>
       </c>
       <c r="D10" t="n">
-        <v>1.803</v>
+        <v>1.769</v>
       </c>
       <c r="E10" t="n">
-        <v>1.803</v>
+        <v>1.769</v>
       </c>
       <c r="F10" t="n">
-        <v>280314.4677</v>
+        <v>500</v>
       </c>
       <c r="G10" t="n">
-        <v>41408989.75858559</v>
+        <v>-32314.73588403916</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -762,32 +806,40 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.809</v>
+        <v>1.769</v>
       </c>
       <c r="C11" t="n">
-        <v>1.809</v>
+        <v>1.789</v>
       </c>
       <c r="D11" t="n">
-        <v>1.809</v>
+        <v>1.789</v>
       </c>
       <c r="E11" t="n">
-        <v>1.809</v>
+        <v>1.769</v>
       </c>
       <c r="F11" t="n">
-        <v>4395.1238</v>
+        <v>2461731.4957</v>
       </c>
       <c r="G11" t="n">
-        <v>41413384.88238559</v>
+        <v>2429416.759815961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -798,32 +850,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="C12" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="D12" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="E12" t="n">
-        <v>1.81</v>
+        <v>1.77</v>
       </c>
       <c r="F12" t="n">
-        <v>482.9996</v>
+        <v>43815</v>
       </c>
       <c r="G12" t="n">
-        <v>41413867.88198559</v>
+        <v>2385601.759815961</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -834,32 +894,40 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.81</v>
+        <v>1.767</v>
       </c>
       <c r="C13" t="n">
-        <v>1.81</v>
+        <v>1.767</v>
       </c>
       <c r="D13" t="n">
-        <v>1.81</v>
+        <v>1.767</v>
       </c>
       <c r="E13" t="n">
-        <v>1.81</v>
+        <v>1.767</v>
       </c>
       <c r="F13" t="n">
-        <v>43423.1546</v>
+        <v>23160.3405</v>
       </c>
       <c r="G13" t="n">
-        <v>41413867.88198559</v>
+        <v>2362441.419315961</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -870,22 +938,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.849</v>
+        <v>1.767</v>
       </c>
       <c r="C14" t="n">
-        <v>1.849</v>
+        <v>1.767</v>
       </c>
       <c r="D14" t="n">
-        <v>1.849</v>
+        <v>1.767</v>
       </c>
       <c r="E14" t="n">
-        <v>1.849</v>
+        <v>1.767</v>
       </c>
       <c r="F14" t="n">
-        <v>474.5302</v>
+        <v>34495.2166</v>
       </c>
       <c r="G14" t="n">
-        <v>41414342.41218559</v>
+        <v>2362441.419315961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -894,8 +962,14 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -906,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="C15" t="n">
-        <v>1.81</v>
+        <v>1.789</v>
       </c>
       <c r="D15" t="n">
-        <v>1.81</v>
+        <v>1.789</v>
       </c>
       <c r="E15" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="F15" t="n">
-        <v>4395.1238</v>
+        <v>250000</v>
       </c>
       <c r="G15" t="n">
-        <v>41409947.28838558</v>
+        <v>2612441.419315961</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -930,8 +1004,14 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -942,22 +1022,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.82</v>
+        <v>1.789</v>
       </c>
       <c r="C16" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="D16" t="n">
-        <v>1.82</v>
+        <v>1.807</v>
       </c>
       <c r="E16" t="n">
-        <v>1.82</v>
+        <v>1.789</v>
       </c>
       <c r="F16" t="n">
-        <v>82417.58241758242</v>
+        <v>3354.26</v>
       </c>
       <c r="G16" t="n">
-        <v>41492364.87080317</v>
+        <v>2615795.679315961</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -966,8 +1046,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -978,7 +1064,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="C17" t="n">
         <v>1.81</v>
@@ -987,13 +1073,13 @@
         <v>1.81</v>
       </c>
       <c r="E17" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="F17" t="n">
-        <v>15284.6145</v>
+        <v>15000</v>
       </c>
       <c r="G17" t="n">
-        <v>41477080.25630317</v>
+        <v>2630795.679315961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1002,8 +1088,14 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1014,22 +1106,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.804</v>
+        <v>1.81</v>
       </c>
       <c r="C18" t="n">
-        <v>1.804</v>
+        <v>1.79</v>
       </c>
       <c r="D18" t="n">
-        <v>1.804</v>
+        <v>1.813</v>
       </c>
       <c r="E18" t="n">
-        <v>1.804</v>
+        <v>1.79</v>
       </c>
       <c r="F18" t="n">
-        <v>67132.9679</v>
+        <v>111520.7352</v>
       </c>
       <c r="G18" t="n">
-        <v>41409947.28840317</v>
+        <v>2519274.944115961</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1038,8 +1130,14 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1050,22 +1148,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.819</v>
+        <v>1.815</v>
       </c>
       <c r="C19" t="n">
-        <v>1.819</v>
+        <v>1.8</v>
       </c>
       <c r="D19" t="n">
-        <v>1.819</v>
+        <v>1.82</v>
       </c>
       <c r="E19" t="n">
-        <v>1.819</v>
+        <v>1.8</v>
       </c>
       <c r="F19" t="n">
-        <v>1406</v>
+        <v>170881.8578</v>
       </c>
       <c r="G19" t="n">
-        <v>41411353.28840317</v>
+        <v>2690156.80191596</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1074,8 +1172,14 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1086,22 +1190,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.819</v>
+        <v>1.806</v>
       </c>
       <c r="C20" t="n">
-        <v>1.819</v>
+        <v>1.806</v>
       </c>
       <c r="D20" t="n">
-        <v>1.819</v>
+        <v>1.806</v>
       </c>
       <c r="E20" t="n">
-        <v>1.819</v>
+        <v>1.806</v>
       </c>
       <c r="F20" t="n">
-        <v>65726.9679</v>
+        <v>13226235.0597</v>
       </c>
       <c r="G20" t="n">
-        <v>41411353.28840317</v>
+        <v>15916391.86161596</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,8 +1214,14 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1122,22 +1232,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.819</v>
+        <v>1.81</v>
       </c>
       <c r="C21" t="n">
-        <v>1.819</v>
+        <v>1.79</v>
       </c>
       <c r="D21" t="n">
-        <v>1.819</v>
+        <v>1.825</v>
       </c>
       <c r="E21" t="n">
-        <v>1.819</v>
+        <v>1.79</v>
       </c>
       <c r="F21" t="n">
-        <v>603237.1747</v>
+        <v>2785343.7456</v>
       </c>
       <c r="G21" t="n">
-        <v>41411353.28840317</v>
+        <v>13131048.11601596</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1146,8 +1256,14 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1158,22 +1274,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.805</v>
+        <v>1.81</v>
       </c>
       <c r="C22" t="n">
-        <v>1.801</v>
+        <v>1.789</v>
       </c>
       <c r="D22" t="n">
-        <v>1.805</v>
+        <v>1.835</v>
       </c>
       <c r="E22" t="n">
-        <v>1.801</v>
+        <v>1.789</v>
       </c>
       <c r="F22" t="n">
-        <v>104786.5503</v>
+        <v>2085193.9664</v>
       </c>
       <c r="G22" t="n">
-        <v>41306566.73810317</v>
+        <v>11045854.14961596</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1182,8 +1298,14 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1194,22 +1316,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.818</v>
+        <v>1.81</v>
       </c>
       <c r="C23" t="n">
-        <v>1.817</v>
+        <v>1.8</v>
       </c>
       <c r="D23" t="n">
-        <v>1.818</v>
+        <v>1.842</v>
       </c>
       <c r="E23" t="n">
-        <v>1.817</v>
+        <v>1.8</v>
       </c>
       <c r="F23" t="n">
-        <v>300000</v>
+        <v>1693928.1871</v>
       </c>
       <c r="G23" t="n">
-        <v>41606566.73810317</v>
+        <v>12739782.33671596</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1218,8 +1340,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1230,22 +1358,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.817</v>
+        <v>1.83</v>
       </c>
       <c r="C24" t="n">
-        <v>1.817</v>
+        <v>1.79</v>
       </c>
       <c r="D24" t="n">
-        <v>1.817</v>
+        <v>1.842</v>
       </c>
       <c r="E24" t="n">
-        <v>1.817</v>
+        <v>1.79</v>
       </c>
       <c r="F24" t="n">
-        <v>40000</v>
+        <v>1942508.8233</v>
       </c>
       <c r="G24" t="n">
-        <v>41606566.73810317</v>
+        <v>10797273.51341596</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1254,8 +1382,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,22 +1400,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.801</v>
+        <v>1.79</v>
       </c>
       <c r="C25" t="n">
-        <v>1.801</v>
+        <v>1.81</v>
       </c>
       <c r="D25" t="n">
-        <v>1.801</v>
+        <v>1.846</v>
       </c>
       <c r="E25" t="n">
-        <v>1.801</v>
+        <v>1.79</v>
       </c>
       <c r="F25" t="n">
-        <v>52146.6</v>
+        <v>1083686.919</v>
       </c>
       <c r="G25" t="n">
-        <v>41554420.13810316</v>
+        <v>11880960.43241596</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1290,8 +1424,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,22 +1442,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.81</v>
+        <v>1.809</v>
       </c>
       <c r="C26" t="n">
-        <v>1.81</v>
+        <v>1.846</v>
       </c>
       <c r="D26" t="n">
-        <v>1.81</v>
+        <v>1.846</v>
       </c>
       <c r="E26" t="n">
-        <v>1.81</v>
+        <v>1.789</v>
       </c>
       <c r="F26" t="n">
-        <v>2134.18</v>
+        <v>1641840.5568</v>
       </c>
       <c r="G26" t="n">
-        <v>41556554.31810316</v>
+        <v>13522800.98921596</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1326,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1338,22 +1484,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.827</v>
+        <v>1.82</v>
       </c>
       <c r="C27" t="n">
-        <v>1.828</v>
+        <v>1.83</v>
       </c>
       <c r="D27" t="n">
-        <v>1.828</v>
+        <v>1.855</v>
       </c>
       <c r="E27" t="n">
-        <v>1.827</v>
+        <v>1.82</v>
       </c>
       <c r="F27" t="n">
-        <v>950210.8295</v>
+        <v>934683.8964</v>
       </c>
       <c r="G27" t="n">
-        <v>42506765.14760316</v>
+        <v>12588117.09281596</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1362,8 +1508,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,22 +1526,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.828</v>
+        <v>1.811</v>
       </c>
       <c r="C28" t="n">
-        <v>1.807</v>
+        <v>1.793</v>
       </c>
       <c r="D28" t="n">
-        <v>1.828</v>
+        <v>1.821</v>
       </c>
       <c r="E28" t="n">
-        <v>1.807</v>
+        <v>1.793</v>
       </c>
       <c r="F28" t="n">
-        <v>550356.3503</v>
+        <v>644403.4300000001</v>
       </c>
       <c r="G28" t="n">
-        <v>41956408.79730316</v>
+        <v>11943713.66281596</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1398,8 +1550,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,22 +1568,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="C29" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="D29" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="E29" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="F29" t="n">
-        <v>53510.6654</v>
+        <v>11049.723</v>
       </c>
       <c r="G29" t="n">
-        <v>42009919.46270316</v>
+        <v>11954763.38581596</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1434,8 +1592,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1446,22 +1610,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.845</v>
+        <v>1.794</v>
       </c>
       <c r="C30" t="n">
-        <v>1.845</v>
+        <v>1.793</v>
       </c>
       <c r="D30" t="n">
-        <v>1.845</v>
+        <v>1.794</v>
       </c>
       <c r="E30" t="n">
-        <v>1.845</v>
+        <v>1.793</v>
       </c>
       <c r="F30" t="n">
-        <v>277</v>
+        <v>780000</v>
       </c>
       <c r="G30" t="n">
-        <v>42010196.46270316</v>
+        <v>11174763.38581596</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1470,8 +1634,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,22 +1652,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.845</v>
+        <v>1.793</v>
       </c>
       <c r="C31" t="n">
-        <v>1.845</v>
+        <v>1.865</v>
       </c>
       <c r="D31" t="n">
-        <v>1.845</v>
+        <v>1.865</v>
       </c>
       <c r="E31" t="n">
-        <v>1.845</v>
+        <v>1.793</v>
       </c>
       <c r="F31" t="n">
-        <v>277</v>
+        <v>2619472.8683</v>
       </c>
       <c r="G31" t="n">
-        <v>42010196.46270316</v>
+        <v>13794236.25411596</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1506,8 +1676,14 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,22 +1694,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.845</v>
+        <v>1.801</v>
       </c>
       <c r="C32" t="n">
-        <v>1.845</v>
+        <v>1.8</v>
       </c>
       <c r="D32" t="n">
-        <v>1.845</v>
+        <v>1.801</v>
       </c>
       <c r="E32" t="n">
-        <v>1.845</v>
+        <v>1.8</v>
       </c>
       <c r="F32" t="n">
-        <v>277</v>
+        <v>500000</v>
       </c>
       <c r="G32" t="n">
-        <v>42010196.46270316</v>
+        <v>13294236.25411596</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1542,8 +1718,14 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,22 +1736,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="C33" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="D33" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="E33" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="F33" t="n">
-        <v>554</v>
+        <v>1033.68</v>
       </c>
       <c r="G33" t="n">
-        <v>42010750.46270316</v>
+        <v>13295269.93411596</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1578,8 +1760,14 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1778,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="C34" t="n">
-        <v>1.85</v>
+        <v>1.796</v>
       </c>
       <c r="D34" t="n">
-        <v>1.85</v>
+        <v>1.831</v>
       </c>
       <c r="E34" t="n">
-        <v>1.85</v>
+        <v>1.796</v>
       </c>
       <c r="F34" t="n">
-        <v>8833.5923</v>
+        <v>6672533.4913</v>
       </c>
       <c r="G34" t="n">
-        <v>42010750.46270316</v>
+        <v>6622736.442815961</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1614,8 +1802,14 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1820,38 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.85</v>
+        <v>1.831</v>
       </c>
       <c r="C35" t="n">
-        <v>1.85</v>
+        <v>1.831</v>
       </c>
       <c r="D35" t="n">
-        <v>1.85</v>
+        <v>1.831</v>
       </c>
       <c r="E35" t="n">
-        <v>1.85</v>
+        <v>1.831</v>
       </c>
       <c r="F35" t="n">
-        <v>321067.8</v>
+        <v>6670506.707</v>
       </c>
       <c r="G35" t="n">
-        <v>42010750.46270316</v>
+        <v>13293243.14981596</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1862,38 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.85</v>
+        <v>1.818</v>
       </c>
       <c r="C36" t="n">
-        <v>1.85</v>
+        <v>1.856</v>
       </c>
       <c r="D36" t="n">
-        <v>1.85</v>
+        <v>1.856</v>
       </c>
       <c r="E36" t="n">
-        <v>1.85</v>
+        <v>1.818</v>
       </c>
       <c r="F36" t="n">
-        <v>23906.82</v>
+        <v>7883573.3893</v>
       </c>
       <c r="G36" t="n">
-        <v>42010750.46270316</v>
+        <v>21176816.53911596</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1904,38 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.85</v>
+        <v>1.811</v>
       </c>
       <c r="C37" t="n">
-        <v>1.823</v>
+        <v>1.811</v>
       </c>
       <c r="D37" t="n">
-        <v>1.853</v>
+        <v>1.811</v>
       </c>
       <c r="E37" t="n">
-        <v>1.823</v>
+        <v>1.811</v>
       </c>
       <c r="F37" t="n">
-        <v>1312.8585</v>
+        <v>2513.93</v>
       </c>
       <c r="G37" t="n">
-        <v>42009437.60420316</v>
+        <v>21174302.60911596</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,22 +1946,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.831</v>
+        <v>1.851</v>
       </c>
       <c r="C38" t="n">
-        <v>1.83</v>
+        <v>1.851</v>
       </c>
       <c r="D38" t="n">
-        <v>1.831</v>
+        <v>1.851</v>
       </c>
       <c r="E38" t="n">
         <v>1.83</v>
       </c>
       <c r="F38" t="n">
-        <v>507884.6116</v>
+        <v>6436824.4301</v>
       </c>
       <c r="G38" t="n">
-        <v>42517322.21580316</v>
+        <v>27611127.03921596</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,8 +1970,14 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,22 +1988,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.83</v>
+        <v>1.855</v>
       </c>
       <c r="C39" t="n">
-        <v>1.83</v>
+        <v>1.895</v>
       </c>
       <c r="D39" t="n">
-        <v>1.83</v>
+        <v>1.895</v>
       </c>
       <c r="E39" t="n">
-        <v>1.822</v>
+        <v>1.855</v>
       </c>
       <c r="F39" t="n">
-        <v>242537.0522</v>
+        <v>3142936.761037433</v>
       </c>
       <c r="G39" t="n">
-        <v>42517322.21580316</v>
+        <v>30754063.80025339</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1794,8 +2012,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1809,19 +2033,19 @@
         <v>1.83</v>
       </c>
       <c r="C40" t="n">
-        <v>1.822</v>
+        <v>1.816</v>
       </c>
       <c r="D40" t="n">
         <v>1.83</v>
       </c>
       <c r="E40" t="n">
-        <v>1.822</v>
+        <v>1.816</v>
       </c>
       <c r="F40" t="n">
-        <v>50000</v>
+        <v>607680.4017</v>
       </c>
       <c r="G40" t="n">
-        <v>42467322.21580316</v>
+        <v>30146383.39855339</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1830,8 +2054,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +2072,38 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.849</v>
+        <v>1.821</v>
       </c>
       <c r="C41" t="n">
-        <v>1.849</v>
+        <v>1.815</v>
       </c>
       <c r="D41" t="n">
-        <v>1.849</v>
+        <v>1.821</v>
       </c>
       <c r="E41" t="n">
-        <v>1.849</v>
+        <v>1.815</v>
       </c>
       <c r="F41" t="n">
-        <v>300</v>
+        <v>1222744.9647</v>
       </c>
       <c r="G41" t="n">
-        <v>42467622.21580316</v>
+        <v>28923638.4338534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2114,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.82</v>
+        <v>1.839</v>
       </c>
       <c r="C42" t="n">
-        <v>1.82</v>
+        <v>1.895</v>
       </c>
       <c r="D42" t="n">
-        <v>1.82</v>
+        <v>1.895</v>
       </c>
       <c r="E42" t="n">
-        <v>1.82</v>
+        <v>1.839</v>
       </c>
       <c r="F42" t="n">
-        <v>28457.31</v>
+        <v>1275166.7963</v>
       </c>
       <c r="G42" t="n">
-        <v>42439164.90580316</v>
+        <v>30198805.2301534</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2156,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.82</v>
+        <v>1.831</v>
       </c>
       <c r="C43" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="D43" t="n">
-        <v>1.82</v>
+        <v>1.888</v>
       </c>
       <c r="E43" t="n">
-        <v>1.82</v>
+        <v>1.831</v>
       </c>
       <c r="F43" t="n">
-        <v>10976.5358</v>
+        <v>889337.6710677966</v>
       </c>
       <c r="G43" t="n">
-        <v>42439164.90580316</v>
+        <v>29309467.5590856</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,22 +2198,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="C44" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="D44" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="E44" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F44" t="n">
-        <v>377799.348</v>
+        <v>608808.2</v>
       </c>
       <c r="G44" t="n">
-        <v>42061365.55780316</v>
+        <v>28700659.3590856</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,8 +2222,14 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,22 +2240,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.818</v>
+        <v>1.83</v>
       </c>
       <c r="C45" t="n">
-        <v>1.818</v>
+        <v>1.83</v>
       </c>
       <c r="D45" t="n">
-        <v>1.818</v>
+        <v>1.83</v>
       </c>
       <c r="E45" t="n">
-        <v>1.818</v>
+        <v>1.83</v>
       </c>
       <c r="F45" t="n">
-        <v>131137.8229</v>
+        <v>104715</v>
       </c>
       <c r="G45" t="n">
-        <v>42192503.38070316</v>
+        <v>28700659.3590856</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2010,8 +2264,14 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +2282,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.818</v>
+        <v>1.831</v>
       </c>
       <c r="C46" t="n">
-        <v>1.818</v>
+        <v>1.831</v>
       </c>
       <c r="D46" t="n">
-        <v>1.818</v>
+        <v>1.831</v>
       </c>
       <c r="E46" t="n">
-        <v>1.818</v>
+        <v>1.831</v>
       </c>
       <c r="F46" t="n">
-        <v>5994.4268</v>
+        <v>39277.0303</v>
       </c>
       <c r="G46" t="n">
-        <v>42192503.38070316</v>
+        <v>28739936.3893856</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2046,8 +2306,14 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2324,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.818</v>
+        <v>1.84</v>
       </c>
       <c r="C47" t="n">
-        <v>1.818</v>
+        <v>1.84</v>
       </c>
       <c r="D47" t="n">
-        <v>1.818</v>
+        <v>1.84</v>
       </c>
       <c r="E47" t="n">
-        <v>1.818</v>
+        <v>1.84</v>
       </c>
       <c r="F47" t="n">
-        <v>1550.6</v>
+        <v>10881.392</v>
       </c>
       <c r="G47" t="n">
-        <v>42192503.38070316</v>
+        <v>28750817.7813856</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2348,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2366,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="C48" t="n">
-        <v>1.83</v>
+        <v>1.816</v>
       </c>
       <c r="D48" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="E48" t="n">
-        <v>1.83</v>
+        <v>1.816</v>
       </c>
       <c r="F48" t="n">
-        <v>16596.6309</v>
+        <v>200000</v>
       </c>
       <c r="G48" t="n">
-        <v>42209100.01160316</v>
+        <v>28550817.7813856</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2390,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2408,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.83</v>
+        <v>1.821</v>
       </c>
       <c r="C49" t="n">
-        <v>1.83</v>
+        <v>1.814</v>
       </c>
       <c r="D49" t="n">
-        <v>1.839</v>
+        <v>1.821</v>
       </c>
       <c r="E49" t="n">
-        <v>1.83</v>
+        <v>1.814</v>
       </c>
       <c r="F49" t="n">
-        <v>57497.731</v>
+        <v>146870.7275</v>
       </c>
       <c r="G49" t="n">
-        <v>42209100.01160316</v>
+        <v>28403947.0538856</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2432,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,22 +2450,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.83</v>
+        <v>1.815</v>
       </c>
       <c r="C50" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="D50" t="n">
-        <v>1.83</v>
+        <v>1.815</v>
       </c>
       <c r="E50" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="F50" t="n">
-        <v>605.5096</v>
+        <v>250507.7743</v>
       </c>
       <c r="G50" t="n">
-        <v>42209100.01160316</v>
+        <v>28153439.2795856</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2190,8 +2474,14 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2492,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.839</v>
+        <v>1.807</v>
       </c>
       <c r="C51" t="n">
-        <v>1.839</v>
+        <v>1.796</v>
       </c>
       <c r="D51" t="n">
-        <v>1.839</v>
+        <v>1.807</v>
       </c>
       <c r="E51" t="n">
-        <v>1.839</v>
+        <v>1.796</v>
       </c>
       <c r="F51" t="n">
-        <v>15466.8776</v>
+        <v>250507.7743</v>
       </c>
       <c r="G51" t="n">
-        <v>42224566.88920316</v>
+        <v>27902931.5052856</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2226,8 +2516,14 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2534,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.839</v>
+        <v>1.802</v>
       </c>
       <c r="C52" t="n">
-        <v>1.839</v>
+        <v>1.802</v>
       </c>
       <c r="D52" t="n">
-        <v>1.839</v>
+        <v>1.802</v>
       </c>
       <c r="E52" t="n">
-        <v>1.839</v>
+        <v>1.802</v>
       </c>
       <c r="F52" t="n">
-        <v>15477.4811</v>
+        <v>29034.5407</v>
       </c>
       <c r="G52" t="n">
-        <v>42224566.88920316</v>
+        <v>27931966.0459856</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,32 +2576,38 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.837</v>
+        <v>1.797</v>
       </c>
       <c r="C53" t="n">
-        <v>1.837</v>
+        <v>1.796</v>
       </c>
       <c r="D53" t="n">
-        <v>1.837</v>
+        <v>1.797</v>
       </c>
       <c r="E53" t="n">
-        <v>1.837</v>
+        <v>1.796</v>
       </c>
       <c r="F53" t="n">
-        <v>45865.7059</v>
+        <v>84984.3515</v>
       </c>
       <c r="G53" t="n">
-        <v>42178701.18330316</v>
+        <v>27846981.6944856</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,32 +2618,38 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.837</v>
+        <v>1.799</v>
       </c>
       <c r="C54" t="n">
-        <v>1.809</v>
+        <v>1.799</v>
       </c>
       <c r="D54" t="n">
-        <v>1.837</v>
+        <v>1.799</v>
       </c>
       <c r="E54" t="n">
-        <v>1.809</v>
+        <v>1.799</v>
       </c>
       <c r="F54" t="n">
-        <v>26766.0651</v>
+        <v>176642.6323</v>
       </c>
       <c r="G54" t="n">
-        <v>42151935.11820316</v>
+        <v>28023624.3267856</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2660,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.809</v>
+        <v>1.8</v>
       </c>
       <c r="C55" t="n">
-        <v>1.809</v>
+        <v>1.8</v>
       </c>
       <c r="D55" t="n">
-        <v>1.809</v>
+        <v>1.8</v>
       </c>
       <c r="E55" t="n">
-        <v>1.809</v>
+        <v>1.8</v>
       </c>
       <c r="F55" t="n">
-        <v>18376.432</v>
+        <v>85369.79429999999</v>
       </c>
       <c r="G55" t="n">
-        <v>42151935.11820316</v>
+        <v>28108994.1210856</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,8 +2684,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2702,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.808</v>
+        <v>1.815</v>
       </c>
       <c r="C56" t="n">
-        <v>1.808</v>
+        <v>1.819</v>
       </c>
       <c r="D56" t="n">
-        <v>1.808</v>
+        <v>1.819</v>
       </c>
       <c r="E56" t="n">
-        <v>1.808</v>
+        <v>1.815</v>
       </c>
       <c r="F56" t="n">
-        <v>674.4331</v>
+        <v>269396.507</v>
       </c>
       <c r="G56" t="n">
-        <v>42151260.68510316</v>
+        <v>28378390.6280856</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,8 +2726,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2744,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="C57" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="D57" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="E57" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="F57" t="n">
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>42171260.68510316</v>
+        <v>28379390.6280856</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2442,8 +2768,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2786,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.808</v>
+        <v>1.82</v>
       </c>
       <c r="C58" t="n">
-        <v>1.799</v>
+        <v>1.792</v>
       </c>
       <c r="D58" t="n">
-        <v>1.808</v>
+        <v>1.82</v>
       </c>
       <c r="E58" t="n">
-        <v>1.799</v>
+        <v>1.792</v>
       </c>
       <c r="F58" t="n">
-        <v>208688.9713</v>
+        <v>517593</v>
       </c>
       <c r="G58" t="n">
-        <v>41962571.71380316</v>
+        <v>27861797.6280856</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2478,8 +2810,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,32 +2828,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.799</v>
+        <v>1.823</v>
       </c>
       <c r="C59" t="n">
-        <v>1.799</v>
+        <v>1.823</v>
       </c>
       <c r="D59" t="n">
-        <v>1.799</v>
+        <v>1.823</v>
       </c>
       <c r="E59" t="n">
-        <v>1.799</v>
+        <v>1.823</v>
       </c>
       <c r="F59" t="n">
-        <v>1157</v>
+        <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>41962571.71380316</v>
+        <v>27862797.6280856</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,32 +2870,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.798</v>
+        <v>1.825</v>
       </c>
       <c r="C60" t="n">
-        <v>1.791</v>
+        <v>1.83</v>
       </c>
       <c r="D60" t="n">
-        <v>1.798</v>
+        <v>1.83</v>
       </c>
       <c r="E60" t="n">
-        <v>1.791</v>
+        <v>1.825</v>
       </c>
       <c r="F60" t="n">
-        <v>45413.4348</v>
+        <v>3000</v>
       </c>
       <c r="G60" t="n">
-        <v>41917158.27900317</v>
+        <v>27865797.6280856</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,32 +2912,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.789</v>
+        <v>1.832</v>
       </c>
       <c r="C61" t="n">
-        <v>1.78</v>
+        <v>1.832</v>
       </c>
       <c r="D61" t="n">
-        <v>1.789</v>
+        <v>1.832</v>
       </c>
       <c r="E61" t="n">
-        <v>1.78</v>
+        <v>1.832</v>
       </c>
       <c r="F61" t="n">
-        <v>46024</v>
+        <v>4519.3136</v>
       </c>
       <c r="G61" t="n">
-        <v>41871134.27900317</v>
+        <v>27870316.9416856</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2598,22 +2954,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.78</v>
+        <v>1.832</v>
       </c>
       <c r="C62" t="n">
-        <v>1.78</v>
+        <v>1.833</v>
       </c>
       <c r="D62" t="n">
-        <v>1.78</v>
+        <v>1.833</v>
       </c>
       <c r="E62" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="F62" t="n">
-        <v>83269</v>
+        <v>7637.3627</v>
       </c>
       <c r="G62" t="n">
-        <v>41871134.27900317</v>
+        <v>27877954.3043856</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2622,8 +2978,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2634,22 +2996,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.774</v>
+        <v>1.833</v>
       </c>
       <c r="C63" t="n">
-        <v>1.76</v>
+        <v>1.838</v>
       </c>
       <c r="D63" t="n">
-        <v>1.774</v>
+        <v>1.838</v>
       </c>
       <c r="E63" t="n">
-        <v>1.76</v>
+        <v>1.833</v>
       </c>
       <c r="F63" t="n">
-        <v>751539.2663</v>
+        <v>22704.8452</v>
       </c>
       <c r="G63" t="n">
-        <v>41119595.01270317</v>
+        <v>27900659.1495856</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2658,8 +3020,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2670,22 +3038,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.76</v>
+        <v>1.838</v>
       </c>
       <c r="C64" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="D64" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="E64" t="n">
-        <v>1.76</v>
+        <v>1.838</v>
       </c>
       <c r="F64" t="n">
-        <v>289072</v>
+        <v>12972204.4782</v>
       </c>
       <c r="G64" t="n">
-        <v>41408667.01270317</v>
+        <v>40872863.62778559</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2694,8 +3062,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2706,22 +3080,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.754</v>
+        <v>1.84</v>
       </c>
       <c r="C65" t="n">
-        <v>1.769</v>
+        <v>1.85</v>
       </c>
       <c r="D65" t="n">
-        <v>1.769</v>
+        <v>1.85</v>
       </c>
       <c r="E65" t="n">
-        <v>1.751</v>
+        <v>1.84</v>
       </c>
       <c r="F65" t="n">
-        <v>7000.4854</v>
+        <v>180006.3743</v>
       </c>
       <c r="G65" t="n">
-        <v>41401666.52730317</v>
+        <v>40872863.62778559</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2730,8 +3104,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2742,36 +3122,36 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.769</v>
+        <v>1.85</v>
       </c>
       <c r="C66" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="D66" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="E66" t="n">
-        <v>1.769</v>
+        <v>1.85</v>
       </c>
       <c r="F66" t="n">
-        <v>31078.2833</v>
+        <v>554892.7286</v>
       </c>
       <c r="G66" t="n">
-        <v>41432744.81060316</v>
+        <v>40872863.62778559</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M66" t="n">
@@ -2784,33 +3164,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="C67" t="n">
-        <v>1.819</v>
+        <v>1.86</v>
       </c>
       <c r="D67" t="n">
-        <v>1.819</v>
+        <v>1.86</v>
       </c>
       <c r="E67" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="F67" t="n">
-        <v>130340.4444</v>
+        <v>271332.8049</v>
       </c>
       <c r="G67" t="n">
-        <v>41563085.25500316</v>
+        <v>41144196.43268559</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2826,22 +3206,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.819</v>
+        <v>1.86</v>
       </c>
       <c r="C68" t="n">
-        <v>1.82</v>
+        <v>1.863</v>
       </c>
       <c r="D68" t="n">
-        <v>1.82</v>
+        <v>1.863</v>
       </c>
       <c r="E68" t="n">
-        <v>1.819</v>
+        <v>1.86</v>
       </c>
       <c r="F68" t="n">
-        <v>16826.5429</v>
+        <v>39154.9528</v>
       </c>
       <c r="G68" t="n">
-        <v>41579911.79790317</v>
+        <v>41183351.38548559</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,7 +3230,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2866,22 +3248,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.819</v>
+        <v>1.865</v>
       </c>
       <c r="C69" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="D69" t="n">
-        <v>1.819</v>
+        <v>1.87</v>
       </c>
       <c r="E69" t="n">
-        <v>1.75</v>
+        <v>1.865</v>
       </c>
       <c r="F69" t="n">
-        <v>81698.96859999999</v>
+        <v>208034.5758</v>
       </c>
       <c r="G69" t="n">
-        <v>41498212.82930317</v>
+        <v>41391385.96128559</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2890,7 +3272,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2906,22 +3290,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="C70" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="D70" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="E70" t="n">
-        <v>1.81</v>
+        <v>1.87</v>
       </c>
       <c r="F70" t="n">
-        <v>15228.3699</v>
+        <v>99538.864</v>
       </c>
       <c r="G70" t="n">
-        <v>41513441.19920317</v>
+        <v>41391385.96128559</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2930,7 +3314,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2946,22 +3332,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.771</v>
+        <v>1.869</v>
       </c>
       <c r="C71" t="n">
-        <v>1.771</v>
+        <v>1.869</v>
       </c>
       <c r="D71" t="n">
-        <v>1.771</v>
+        <v>1.869</v>
       </c>
       <c r="E71" t="n">
-        <v>1.771</v>
+        <v>1.869</v>
       </c>
       <c r="F71" t="n">
-        <v>53618.4965</v>
+        <v>50118.287</v>
       </c>
       <c r="G71" t="n">
-        <v>41459822.70270317</v>
+        <v>41341267.67428559</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2970,7 +3356,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2986,38 +3374,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.799</v>
+        <v>1.838</v>
       </c>
       <c r="C72" t="n">
-        <v>1.799</v>
+        <v>1.838</v>
       </c>
       <c r="D72" t="n">
-        <v>1.799</v>
+        <v>1.838</v>
       </c>
       <c r="E72" t="n">
-        <v>1.799</v>
+        <v>1.838</v>
       </c>
       <c r="F72" t="n">
-        <v>5795.0504</v>
+        <v>35615.6789</v>
       </c>
       <c r="G72" t="n">
-        <v>41465617.75310317</v>
+        <v>41305651.99538559</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1.77</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>1.033418079096045</v>
       </c>
       <c r="N72" t="inlineStr"/>
     </row>
@@ -3026,22 +3416,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.799</v>
+        <v>1.87</v>
       </c>
       <c r="C73" t="n">
-        <v>1.799</v>
+        <v>1.838</v>
       </c>
       <c r="D73" t="n">
-        <v>1.799</v>
+        <v>1.87</v>
       </c>
       <c r="E73" t="n">
-        <v>1.799</v>
+        <v>1.838</v>
       </c>
       <c r="F73" t="n">
-        <v>1000</v>
+        <v>7299.2536</v>
       </c>
       <c r="G73" t="n">
-        <v>41465617.75310317</v>
+        <v>41305651.99538559</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3051,11 +3441,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3066,36 +3452,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="C74" t="n">
-        <v>1.8</v>
+        <v>1.841</v>
       </c>
       <c r="D74" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="E74" t="n">
-        <v>1.8</v>
+        <v>1.841</v>
       </c>
       <c r="F74" t="n">
-        <v>280</v>
+        <v>376795.7096</v>
       </c>
       <c r="G74" t="n">
-        <v>41465897.75310317</v>
+        <v>41682447.70498559</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3106,36 +3488,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.809</v>
+        <v>1.859</v>
       </c>
       <c r="C75" t="n">
-        <v>1.809</v>
+        <v>1.859</v>
       </c>
       <c r="D75" t="n">
-        <v>1.809</v>
+        <v>1.859</v>
       </c>
       <c r="E75" t="n">
-        <v>1.809</v>
+        <v>1.859</v>
       </c>
       <c r="F75" t="n">
-        <v>1054.5294</v>
+        <v>310.7669</v>
       </c>
       <c r="G75" t="n">
-        <v>41466952.28250317</v>
+        <v>41682758.47188559</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3146,36 +3524,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.8</v>
+        <v>1.837</v>
       </c>
       <c r="C76" t="n">
-        <v>1.8</v>
+        <v>1.826</v>
       </c>
       <c r="D76" t="n">
-        <v>1.8</v>
+        <v>1.837</v>
       </c>
       <c r="E76" t="n">
-        <v>1.8</v>
+        <v>1.826</v>
       </c>
       <c r="F76" t="n">
-        <v>10393.1146</v>
+        <v>4832.6622</v>
       </c>
       <c r="G76" t="n">
-        <v>41456559.16790316</v>
+        <v>41677925.8096856</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3186,22 +3560,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.799</v>
+        <v>1.825</v>
       </c>
       <c r="C77" t="n">
-        <v>1.799</v>
+        <v>1.808</v>
       </c>
       <c r="D77" t="n">
-        <v>1.799</v>
+        <v>1.825</v>
       </c>
       <c r="E77" t="n">
-        <v>1.799</v>
+        <v>1.808</v>
       </c>
       <c r="F77" t="n">
-        <v>99.34</v>
+        <v>367466.1625</v>
       </c>
       <c r="G77" t="n">
-        <v>41456459.82790316</v>
+        <v>41310459.64718559</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3211,11 +3585,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3226,22 +3596,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.781</v>
+        <v>1.81</v>
       </c>
       <c r="C78" t="n">
-        <v>1.767</v>
+        <v>1.81</v>
       </c>
       <c r="D78" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="E78" t="n">
-        <v>1.767</v>
+        <v>1.81</v>
       </c>
       <c r="F78" t="n">
-        <v>596193.857</v>
+        <v>176318.1129</v>
       </c>
       <c r="G78" t="n">
-        <v>40860265.97090316</v>
+        <v>41486777.76008559</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3251,11 +3621,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3266,22 +3632,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="C79" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="D79" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="E79" t="n">
-        <v>1.799</v>
+        <v>1.81</v>
       </c>
       <c r="F79" t="n">
-        <v>6549.6708</v>
+        <v>802320.0082</v>
       </c>
       <c r="G79" t="n">
-        <v>40866815.64170316</v>
+        <v>41486777.76008559</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3291,11 +3657,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3306,22 +3668,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.78</v>
+        <v>1.807</v>
       </c>
       <c r="C80" t="n">
-        <v>1.779</v>
+        <v>1.803</v>
       </c>
       <c r="D80" t="n">
-        <v>1.78</v>
+        <v>1.807</v>
       </c>
       <c r="E80" t="n">
-        <v>1.779</v>
+        <v>1.803</v>
       </c>
       <c r="F80" t="n">
-        <v>49659</v>
+        <v>77788.0015</v>
       </c>
       <c r="G80" t="n">
-        <v>40817156.64170316</v>
+        <v>41408989.75858559</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3331,11 +3693,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3346,38 +3704,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.77</v>
+        <v>1.803</v>
       </c>
       <c r="C81" t="n">
-        <v>1.77</v>
+        <v>1.803</v>
       </c>
       <c r="D81" t="n">
-        <v>1.77</v>
+        <v>1.803</v>
       </c>
       <c r="E81" t="n">
-        <v>1.77</v>
+        <v>1.803</v>
       </c>
       <c r="F81" t="n">
-        <v>44644.3139</v>
+        <v>280314.4677</v>
       </c>
       <c r="G81" t="n">
-        <v>40772512.32780316</v>
+        <v>41408989.75858559</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1.779</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3388,38 +3740,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.77</v>
+        <v>1.809</v>
       </c>
       <c r="C82" t="n">
-        <v>1.77</v>
+        <v>1.809</v>
       </c>
       <c r="D82" t="n">
-        <v>1.77</v>
+        <v>1.809</v>
       </c>
       <c r="E82" t="n">
-        <v>1.77</v>
+        <v>1.809</v>
       </c>
       <c r="F82" t="n">
-        <v>281965.6581</v>
+        <v>4395.1238</v>
       </c>
       <c r="G82" t="n">
-        <v>40772512.32780316</v>
+        <v>41413384.88238559</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3430,38 +3776,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.772</v>
+        <v>1.81</v>
       </c>
       <c r="C83" t="n">
-        <v>1.772</v>
+        <v>1.81</v>
       </c>
       <c r="D83" t="n">
-        <v>1.772</v>
+        <v>1.81</v>
       </c>
       <c r="E83" t="n">
-        <v>1.772</v>
+        <v>1.81</v>
       </c>
       <c r="F83" t="n">
-        <v>44644.3139</v>
+        <v>482.9996</v>
       </c>
       <c r="G83" t="n">
-        <v>40817156.64170316</v>
+        <v>41413867.88198559</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3472,22 +3812,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.785</v>
+        <v>1.81</v>
       </c>
       <c r="C84" t="n">
-        <v>1.785</v>
+        <v>1.81</v>
       </c>
       <c r="D84" t="n">
-        <v>1.785</v>
+        <v>1.81</v>
       </c>
       <c r="E84" t="n">
-        <v>1.785</v>
+        <v>1.81</v>
       </c>
       <c r="F84" t="n">
-        <v>6270.9886</v>
+        <v>43423.1546</v>
       </c>
       <c r="G84" t="n">
-        <v>40823427.63030316</v>
+        <v>41413867.88198559</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3497,11 +3837,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3512,22 +3848,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.772</v>
+        <v>1.849</v>
       </c>
       <c r="C85" t="n">
-        <v>1.771</v>
+        <v>1.849</v>
       </c>
       <c r="D85" t="n">
-        <v>1.772</v>
+        <v>1.849</v>
       </c>
       <c r="E85" t="n">
-        <v>1.771</v>
+        <v>1.849</v>
       </c>
       <c r="F85" t="n">
-        <v>24311.0148</v>
+        <v>474.5302</v>
       </c>
       <c r="G85" t="n">
-        <v>40799116.61550316</v>
+        <v>41414342.41218559</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3537,11 +3873,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3552,22 +3884,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="C86" t="n">
-        <v>1.784</v>
+        <v>1.81</v>
       </c>
       <c r="D86" t="n">
-        <v>1.784</v>
+        <v>1.81</v>
       </c>
       <c r="E86" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="F86" t="n">
-        <v>255300</v>
+        <v>4395.1238</v>
       </c>
       <c r="G86" t="n">
-        <v>41054416.61550316</v>
+        <v>41409947.28838558</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3577,11 +3909,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3592,22 +3920,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.767</v>
+        <v>1.82</v>
       </c>
       <c r="C87" t="n">
-        <v>1.767</v>
+        <v>1.82</v>
       </c>
       <c r="D87" t="n">
-        <v>1.767</v>
+        <v>1.82</v>
       </c>
       <c r="E87" t="n">
-        <v>1.767</v>
+        <v>1.82</v>
       </c>
       <c r="F87" t="n">
-        <v>30000</v>
+        <v>82417.58241758242</v>
       </c>
       <c r="G87" t="n">
-        <v>41024416.61550316</v>
+        <v>41492364.87080317</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3617,11 +3945,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3632,22 +3956,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.768</v>
+        <v>1.81</v>
       </c>
       <c r="C88" t="n">
-        <v>1.768</v>
+        <v>1.81</v>
       </c>
       <c r="D88" t="n">
-        <v>1.768</v>
+        <v>1.81</v>
       </c>
       <c r="E88" t="n">
-        <v>1.768</v>
+        <v>1.81</v>
       </c>
       <c r="F88" t="n">
-        <v>1000</v>
+        <v>15284.6145</v>
       </c>
       <c r="G88" t="n">
-        <v>41025416.61550316</v>
+        <v>41477080.25630317</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3657,11 +3981,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3672,22 +3992,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.784</v>
+        <v>1.804</v>
       </c>
       <c r="C89" t="n">
-        <v>1.784</v>
+        <v>1.804</v>
       </c>
       <c r="D89" t="n">
-        <v>1.784</v>
+        <v>1.804</v>
       </c>
       <c r="E89" t="n">
-        <v>1.784</v>
+        <v>1.804</v>
       </c>
       <c r="F89" t="n">
-        <v>281</v>
+        <v>67132.9679</v>
       </c>
       <c r="G89" t="n">
-        <v>41025697.61550316</v>
+        <v>41409947.28840317</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3697,11 +4017,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3712,22 +4028,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.784</v>
+        <v>1.819</v>
       </c>
       <c r="C90" t="n">
-        <v>1.82</v>
+        <v>1.819</v>
       </c>
       <c r="D90" t="n">
-        <v>1.82</v>
+        <v>1.819</v>
       </c>
       <c r="E90" t="n">
-        <v>1.784</v>
+        <v>1.819</v>
       </c>
       <c r="F90" t="n">
-        <v>543137.9267667582</v>
+        <v>1406</v>
       </c>
       <c r="G90" t="n">
-        <v>41568835.54226992</v>
+        <v>41411353.28840317</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3737,11 +4053,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3752,22 +4064,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.8</v>
+        <v>1.819</v>
       </c>
       <c r="C91" t="n">
-        <v>1.8</v>
+        <v>1.819</v>
       </c>
       <c r="D91" t="n">
-        <v>1.8</v>
+        <v>1.819</v>
       </c>
       <c r="E91" t="n">
-        <v>1.8</v>
+        <v>1.819</v>
       </c>
       <c r="F91" t="n">
-        <v>184665.1059</v>
+        <v>65726.9679</v>
       </c>
       <c r="G91" t="n">
-        <v>41384170.43636993</v>
+        <v>41411353.28840317</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3777,11 +4089,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3792,22 +4100,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.781</v>
+        <v>1.819</v>
       </c>
       <c r="C92" t="n">
-        <v>1.781</v>
+        <v>1.819</v>
       </c>
       <c r="D92" t="n">
-        <v>1.781</v>
+        <v>1.819</v>
       </c>
       <c r="E92" t="n">
-        <v>1.781</v>
+        <v>1.819</v>
       </c>
       <c r="F92" t="n">
-        <v>122120.721</v>
+        <v>603237.1747</v>
       </c>
       <c r="G92" t="n">
-        <v>41262049.71536992</v>
+        <v>41411353.28840317</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3817,11 +4125,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3832,22 +4136,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.79</v>
+        <v>1.805</v>
       </c>
       <c r="C93" t="n">
-        <v>1.79</v>
+        <v>1.801</v>
       </c>
       <c r="D93" t="n">
-        <v>1.79</v>
+        <v>1.805</v>
       </c>
       <c r="E93" t="n">
-        <v>1.79</v>
+        <v>1.801</v>
       </c>
       <c r="F93" t="n">
-        <v>196729.3296</v>
+        <v>104786.5503</v>
       </c>
       <c r="G93" t="n">
-        <v>41458779.04496992</v>
+        <v>41306566.73810317</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3857,11 +4161,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3872,22 +4172,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.78</v>
+        <v>1.818</v>
       </c>
       <c r="C94" t="n">
-        <v>1.78</v>
+        <v>1.817</v>
       </c>
       <c r="D94" t="n">
-        <v>1.78</v>
+        <v>1.818</v>
       </c>
       <c r="E94" t="n">
-        <v>1.78</v>
+        <v>1.817</v>
       </c>
       <c r="F94" t="n">
-        <v>2149.3361</v>
+        <v>300000</v>
       </c>
       <c r="G94" t="n">
-        <v>41456629.70886993</v>
+        <v>41606566.73810317</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3897,11 +4197,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3912,22 +4208,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.779</v>
+        <v>1.817</v>
       </c>
       <c r="C95" t="n">
-        <v>1.79</v>
+        <v>1.817</v>
       </c>
       <c r="D95" t="n">
-        <v>1.791</v>
+        <v>1.817</v>
       </c>
       <c r="E95" t="n">
-        <v>1.779</v>
+        <v>1.817</v>
       </c>
       <c r="F95" t="n">
-        <v>919360.7581</v>
+        <v>40000</v>
       </c>
       <c r="G95" t="n">
-        <v>42375990.46696993</v>
+        <v>41606566.73810317</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3937,11 +4233,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3952,22 +4244,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.79</v>
+        <v>1.801</v>
       </c>
       <c r="C96" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="D96" t="n">
-        <v>1.8</v>
+        <v>1.801</v>
       </c>
       <c r="E96" t="n">
-        <v>1.76</v>
+        <v>1.801</v>
       </c>
       <c r="F96" t="n">
-        <v>576992.9377</v>
+        <v>52146.6</v>
       </c>
       <c r="G96" t="n">
-        <v>42952983.40466993</v>
+        <v>41554420.13810316</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3977,11 +4269,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3992,22 +4280,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="C97" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="D97" t="n">
-        <v>1.771</v>
+        <v>1.81</v>
       </c>
       <c r="E97" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="F97" t="n">
-        <v>237978.8019</v>
+        <v>2134.18</v>
       </c>
       <c r="G97" t="n">
-        <v>42715004.60276993</v>
+        <v>41556554.31810316</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4017,11 +4305,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4032,22 +4316,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.771</v>
+        <v>1.827</v>
       </c>
       <c r="C98" t="n">
-        <v>1.771</v>
+        <v>1.828</v>
       </c>
       <c r="D98" t="n">
-        <v>1.771</v>
+        <v>1.828</v>
       </c>
       <c r="E98" t="n">
-        <v>1.771</v>
+        <v>1.827</v>
       </c>
       <c r="F98" t="n">
-        <v>208826.4329</v>
+        <v>950210.8295</v>
       </c>
       <c r="G98" t="n">
-        <v>42715004.60276993</v>
+        <v>42506765.14760316</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4057,11 +4341,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4072,22 +4352,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.79</v>
+        <v>1.828</v>
       </c>
       <c r="C99" t="n">
-        <v>1.78</v>
+        <v>1.807</v>
       </c>
       <c r="D99" t="n">
-        <v>1.79</v>
+        <v>1.828</v>
       </c>
       <c r="E99" t="n">
-        <v>1.78</v>
+        <v>1.807</v>
       </c>
       <c r="F99" t="n">
-        <v>262256.3604</v>
+        <v>550356.3503</v>
       </c>
       <c r="G99" t="n">
-        <v>42977260.96316993</v>
+        <v>41956408.79730316</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4097,11 +4377,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4112,22 +4388,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="C100" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="D100" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="E100" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="F100" t="n">
-        <v>200141.4824</v>
+        <v>53510.6654</v>
       </c>
       <c r="G100" t="n">
-        <v>42777119.48076993</v>
+        <v>42009919.46270316</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4137,11 +4413,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4152,22 +4424,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.77</v>
+        <v>1.845</v>
       </c>
       <c r="C101" t="n">
-        <v>1.77</v>
+        <v>1.845</v>
       </c>
       <c r="D101" t="n">
-        <v>1.77</v>
+        <v>1.845</v>
       </c>
       <c r="E101" t="n">
-        <v>1.77</v>
+        <v>1.845</v>
       </c>
       <c r="F101" t="n">
-        <v>23561.1873</v>
+        <v>277</v>
       </c>
       <c r="G101" t="n">
-        <v>42777119.48076993</v>
+        <v>42010196.46270316</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4177,11 +4449,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4192,38 +4460,32 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.77</v>
+        <v>1.845</v>
       </c>
       <c r="C102" t="n">
-        <v>1.77</v>
+        <v>1.845</v>
       </c>
       <c r="D102" t="n">
-        <v>1.77</v>
+        <v>1.845</v>
       </c>
       <c r="E102" t="n">
-        <v>1.77</v>
+        <v>1.845</v>
       </c>
       <c r="F102" t="n">
-        <v>34858.7207</v>
+        <v>277</v>
       </c>
       <c r="G102" t="n">
-        <v>42777119.48076993</v>
+        <v>42010196.46270316</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4234,36 +4496,32 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.766</v>
+        <v>1.845</v>
       </c>
       <c r="C103" t="n">
-        <v>1.76</v>
+        <v>1.845</v>
       </c>
       <c r="D103" t="n">
-        <v>1.766</v>
+        <v>1.845</v>
       </c>
       <c r="E103" t="n">
-        <v>1.76</v>
+        <v>1.845</v>
       </c>
       <c r="F103" t="n">
-        <v>7000</v>
+        <v>277</v>
       </c>
       <c r="G103" t="n">
-        <v>42770119.48076993</v>
+        <v>42010196.46270316</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4274,38 +4532,32 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="C104" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="D104" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="E104" t="n">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="F104" t="n">
-        <v>227776.8193</v>
+        <v>554</v>
       </c>
       <c r="G104" t="n">
-        <v>42770119.48076993</v>
+        <v>42010750.46270316</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4316,38 +4568,32 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.788</v>
+        <v>1.85</v>
       </c>
       <c r="C105" t="n">
-        <v>1.788</v>
+        <v>1.85</v>
       </c>
       <c r="D105" t="n">
-        <v>1.788</v>
+        <v>1.85</v>
       </c>
       <c r="E105" t="n">
-        <v>1.788</v>
+        <v>1.85</v>
       </c>
       <c r="F105" t="n">
-        <v>300</v>
+        <v>8833.5923</v>
       </c>
       <c r="G105" t="n">
-        <v>42770419.48076993</v>
+        <v>42010750.46270316</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.76</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4358,42 +4604,2592 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F106" t="n">
+        <v>321067.8</v>
+      </c>
+      <c r="G106" t="n">
+        <v>42010750.46270316</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F107" t="n">
+        <v>23906.82</v>
+      </c>
+      <c r="G107" t="n">
+        <v>42010750.46270316</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1.823</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1312.8585</v>
+      </c>
+      <c r="G108" t="n">
+        <v>42009437.60420316</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.831</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F109" t="n">
+        <v>507884.6116</v>
+      </c>
+      <c r="G109" t="n">
+        <v>42517322.21580316</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="F110" t="n">
+        <v>242537.0522</v>
+      </c>
+      <c r="G110" t="n">
+        <v>42517322.21580316</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.822</v>
+      </c>
+      <c r="F111" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G111" t="n">
+        <v>42467322.21580316</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.849</v>
+      </c>
+      <c r="F112" t="n">
+        <v>300</v>
+      </c>
+      <c r="G112" t="n">
+        <v>42467622.21580316</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F113" t="n">
+        <v>28457.31</v>
+      </c>
+      <c r="G113" t="n">
+        <v>42439164.90580316</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="F114" t="n">
+        <v>10976.5358</v>
+      </c>
+      <c r="G114" t="n">
+        <v>42439164.90580316</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F115" t="n">
+        <v>377799.348</v>
+      </c>
+      <c r="G115" t="n">
+        <v>42061365.55780316</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F116" t="n">
+        <v>131137.8229</v>
+      </c>
+      <c r="G116" t="n">
+        <v>42192503.38070316</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F117" t="n">
+        <v>5994.4268</v>
+      </c>
+      <c r="G117" t="n">
+        <v>42192503.38070316</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1.818</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1550.6</v>
+      </c>
+      <c r="G118" t="n">
+        <v>42192503.38070316</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F119" t="n">
+        <v>16596.6309</v>
+      </c>
+      <c r="G119" t="n">
+        <v>42209100.01160316</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F120" t="n">
+        <v>57497.731</v>
+      </c>
+      <c r="G120" t="n">
+        <v>42209100.01160316</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F121" t="n">
+        <v>605.5096</v>
+      </c>
+      <c r="G121" t="n">
+        <v>42209100.01160316</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="E122" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="F122" t="n">
+        <v>15466.8776</v>
+      </c>
+      <c r="G122" t="n">
+        <v>42224566.88920316</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="F123" t="n">
+        <v>15477.4811</v>
+      </c>
+      <c r="G123" t="n">
+        <v>42224566.88920316</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="F124" t="n">
+        <v>45865.7059</v>
+      </c>
+      <c r="G124" t="n">
+        <v>42178701.18330316</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F125" t="n">
+        <v>26766.0651</v>
+      </c>
+      <c r="G125" t="n">
+        <v>42151935.11820316</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F126" t="n">
+        <v>18376.432</v>
+      </c>
+      <c r="G126" t="n">
+        <v>42151935.11820316</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="F127" t="n">
+        <v>674.4331</v>
+      </c>
+      <c r="G127" t="n">
+        <v>42151260.68510316</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F128" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>42171260.68510316</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.808</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="F129" t="n">
+        <v>208688.9713</v>
+      </c>
+      <c r="G129" t="n">
+        <v>41962571.71380316</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1157</v>
+      </c>
+      <c r="G130" t="n">
+        <v>41962571.71380316</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="F131" t="n">
+        <v>45413.4348</v>
+      </c>
+      <c r="G131" t="n">
+        <v>41917158.27900317</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F132" t="n">
+        <v>46024</v>
+      </c>
+      <c r="G132" t="n">
+        <v>41871134.27900317</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F133" t="n">
+        <v>83269</v>
+      </c>
+      <c r="G133" t="n">
+        <v>41871134.27900317</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="C134" t="n">
         <v>1.76</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D134" t="n">
+        <v>1.774</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F134" t="n">
+        <v>751539.2663</v>
+      </c>
+      <c r="G134" t="n">
+        <v>41119595.01270317</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F135" t="n">
+        <v>289072</v>
+      </c>
+      <c r="G135" t="n">
+        <v>41408667.01270317</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.754</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E136" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="F136" t="n">
+        <v>7000.4854</v>
+      </c>
+      <c r="G136" t="n">
+        <v>41401666.52730317</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F137" t="n">
+        <v>31078.2833</v>
+      </c>
+      <c r="G137" t="n">
+        <v>41432744.81060316</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F138" t="n">
+        <v>130340.4444</v>
+      </c>
+      <c r="G138" t="n">
+        <v>41563085.25500316</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="F139" t="n">
+        <v>16826.5429</v>
+      </c>
+      <c r="G139" t="n">
+        <v>41579911.79790317</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="C140" t="n">
         <v>1.75</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D140" t="n">
+        <v>1.819</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F140" t="n">
+        <v>81698.96859999999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>41498212.82930317</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15228.3699</v>
+      </c>
+      <c r="G141" t="n">
+        <v>41513441.19920317</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E142" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="F142" t="n">
+        <v>53618.4965</v>
+      </c>
+      <c r="G142" t="n">
+        <v>41459822.70270317</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="F143" t="n">
+        <v>5795.0504</v>
+      </c>
+      <c r="G143" t="n">
+        <v>41465617.75310317</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>41465617.75310317</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>280</v>
+      </c>
+      <c r="G145" t="n">
+        <v>41465897.75310317</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1054.5294</v>
+      </c>
+      <c r="G146" t="n">
+        <v>41466952.28250317</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>10393.1146</v>
+      </c>
+      <c r="G147" t="n">
+        <v>41456559.16790316</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="F148" t="n">
+        <v>99.34</v>
+      </c>
+      <c r="G148" t="n">
+        <v>41456459.82790316</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F149" t="n">
+        <v>596193.857</v>
+      </c>
+      <c r="G149" t="n">
+        <v>40860265.97090316</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="F150" t="n">
+        <v>6549.6708</v>
+      </c>
+      <c r="G150" t="n">
+        <v>40866815.64170316</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F151" t="n">
+        <v>49659</v>
+      </c>
+      <c r="G151" t="n">
+        <v>40817156.64170316</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F152" t="n">
+        <v>44644.3139</v>
+      </c>
+      <c r="G152" t="n">
+        <v>40772512.32780316</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F153" t="n">
+        <v>281965.6581</v>
+      </c>
+      <c r="G153" t="n">
+        <v>40772512.32780316</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="F154" t="n">
+        <v>44644.3139</v>
+      </c>
+      <c r="G154" t="n">
+        <v>40817156.64170316</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="F155" t="n">
+        <v>6270.9886</v>
+      </c>
+      <c r="G155" t="n">
+        <v>40823427.63030316</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.772</v>
+      </c>
+      <c r="E156" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="F156" t="n">
+        <v>24311.0148</v>
+      </c>
+      <c r="G156" t="n">
+        <v>40799116.61550316</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="F157" t="n">
+        <v>255300</v>
+      </c>
+      <c r="G157" t="n">
+        <v>41054416.61550316</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F158" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>41024416.61550316</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G159" t="n">
+        <v>41025416.61550316</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="E160" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F160" t="n">
+        <v>281</v>
+      </c>
+      <c r="G160" t="n">
+        <v>41025697.61550316</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="F161" t="n">
+        <v>543137.9267667582</v>
+      </c>
+      <c r="G161" t="n">
+        <v>41568835.54226992</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>184665.1059</v>
+      </c>
+      <c r="G162" t="n">
+        <v>41384170.43636993</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.781</v>
+      </c>
+      <c r="F163" t="n">
+        <v>122120.721</v>
+      </c>
+      <c r="G163" t="n">
+        <v>41262049.71536992</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F164" t="n">
+        <v>196729.3296</v>
+      </c>
+      <c r="G164" t="n">
+        <v>41458779.04496992</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2149.3361</v>
+      </c>
+      <c r="G165" t="n">
+        <v>41456629.70886993</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.791</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="F166" t="n">
+        <v>919360.7581</v>
+      </c>
+      <c r="G166" t="n">
+        <v>42375990.46696993</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E167" t="n">
         <v>1.76</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F167" t="n">
+        <v>576992.9377</v>
+      </c>
+      <c r="G167" t="n">
+        <v>42952983.40466993</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E168" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F168" t="n">
+        <v>237978.8019</v>
+      </c>
+      <c r="G168" t="n">
+        <v>42715004.60276993</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="F169" t="n">
+        <v>208826.4329</v>
+      </c>
+      <c r="G169" t="n">
+        <v>42715004.60276993</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F170" t="n">
+        <v>262256.3604</v>
+      </c>
+      <c r="G170" t="n">
+        <v>42977260.96316993</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F171" t="n">
+        <v>200141.4824</v>
+      </c>
+      <c r="G171" t="n">
+        <v>42777119.48076993</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F172" t="n">
+        <v>23561.1873</v>
+      </c>
+      <c r="G172" t="n">
+        <v>42777119.48076993</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F173" t="n">
+        <v>34858.7207</v>
+      </c>
+      <c r="G173" t="n">
+        <v>42777119.48076993</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.766</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F174" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>42770119.48076993</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F175" t="n">
+        <v>227776.8193</v>
+      </c>
+      <c r="G175" t="n">
+        <v>42770119.48076993</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="E176" t="n">
+        <v>1.788</v>
+      </c>
+      <c r="F176" t="n">
+        <v>300</v>
+      </c>
+      <c r="G176" t="n">
+        <v>42770419.48076993</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C177" t="n">
         <v>1.75</v>
       </c>
-      <c r="F106" t="n">
+      <c r="D177" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E177" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F177" t="n">
         <v>701080.2433</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G177" t="n">
         <v>42069339.23746993</v>
       </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1.788</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-24 BackTest MXC.xlsx
+++ b/BackTest/2020-01-24 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +550,19 @@
         <v>-12338.69588403916</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="J5" t="n">
         <v>1.77</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,26 +587,23 @@
         <v>-28314.73588403916</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="J6" t="n">
         <v>1.77</v>
       </c>
-      <c r="K6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -648,26 +628,23 @@
         <v>-33814.73588403916</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.768</v>
       </c>
       <c r="J7" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>1.77</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,26 +669,21 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>1.77</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -736,26 +708,21 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>1.77</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -780,26 +747,23 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.769</v>
       </c>
       <c r="J10" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>1.77</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -824,26 +788,21 @@
         <v>2429416.759815961</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>1.77</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -868,26 +827,23 @@
         <v>2385601.759815961</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.789</v>
       </c>
       <c r="J12" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>1.77</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -912,26 +868,23 @@
         <v>2362441.419315961</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="J13" t="n">
         <v>1.77</v>
       </c>
-      <c r="K13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -956,24 +909,23 @@
         <v>2362441.419315961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>1.767</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -998,24 +950,23 @@
         <v>2612441.419315961</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>1.767</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1040,24 +991,23 @@
         <v>2615795.679315961</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>1.789</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1082,24 +1032,23 @@
         <v>2630795.679315961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>1.79</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1126,22 +1075,19 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1168,22 +1114,19 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1210,22 +1153,19 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1252,22 +1192,19 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1294,22 +1231,19 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1336,22 +1270,19 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1378,22 +1309,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1420,22 +1348,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1462,22 +1387,19 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,22 +1426,19 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1546,22 +1465,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1588,22 +1504,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1628,24 +1541,23 @@
         <v>11174763.38581596</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>1.81</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1670,24 +1582,23 @@
         <v>13794236.25411596</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>1.793</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1714,22 +1625,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1756,22 +1664,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1798,22 +1703,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1840,22 +1742,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1882,22 +1781,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1924,22 +1820,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1966,22 +1859,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2008,22 +1898,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2050,22 +1937,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2092,22 +1976,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2134,22 +2015,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2176,22 +2054,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2218,22 +2093,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,22 +2132,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2302,22 +2171,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2344,22 +2210,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2386,22 +2249,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2428,22 +2288,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2470,22 +2327,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2512,22 +2366,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2554,22 +2405,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2596,22 +2444,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2638,22 +2483,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2680,22 +2522,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2722,22 +2561,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2764,22 +2600,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2806,22 +2639,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2848,22 +2678,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2890,22 +2717,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2932,22 +2756,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2974,22 +2795,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3016,22 +2834,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3058,22 +2873,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3100,22 +2912,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3142,22 +2951,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3184,22 +2990,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3226,22 +3029,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3268,22 +3068,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3310,22 +3107,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3352,22 +3146,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3394,22 +3185,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1.033418079096045</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3436,16 +3224,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3472,16 +3263,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3508,16 +3302,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3544,16 +3341,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3580,16 +3380,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3616,16 +3419,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3652,16 +3458,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3688,16 +3497,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3724,16 +3536,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3760,16 +3575,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3796,16 +3614,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3832,16 +3653,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3868,16 +3692,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3904,16 +3731,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3940,16 +3770,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3976,16 +3809,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4012,16 +3848,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4048,16 +3887,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4082,18 +3924,21 @@
         <v>41411353.28840317</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4120,16 +3965,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4154,18 +4002,21 @@
         <v>41306566.73810317</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4190,18 +4041,21 @@
         <v>41606566.73810317</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4226,18 +4080,21 @@
         <v>41606566.73810317</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4264,16 +4121,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4300,16 +4160,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4336,16 +4199,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4370,18 +4236,21 @@
         <v>41956408.79730316</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4408,16 +4277,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4444,16 +4316,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4480,16 +4355,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4516,16 +4394,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4552,16 +4433,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4588,16 +4472,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4624,16 +4511,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4658,18 +4548,21 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.040197740112994</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4694,18 +4587,15 @@
         <v>42009437.60420316</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4730,18 +4620,15 @@
         <v>42517322.21580316</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4766,18 +4653,15 @@
         <v>42517322.21580316</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4802,18 +4686,15 @@
         <v>42467322.21580316</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4838,18 +4719,15 @@
         <v>42467622.21580316</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4874,18 +4752,15 @@
         <v>42439164.90580316</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4912,16 +4787,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4946,18 +4818,15 @@
         <v>42061365.55780316</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4984,16 +4853,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5018,18 +4884,15 @@
         <v>42192503.38070316</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5056,16 +4919,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5090,18 +4950,15 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5126,18 +4983,15 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5162,18 +5016,15 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5200,16 +5051,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5234,18 +5082,15 @@
         <v>42224566.88920316</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5270,18 +5115,15 @@
         <v>42178701.18330316</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5306,18 +5148,15 @@
         <v>42151935.11820316</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5342,18 +5181,15 @@
         <v>42151935.11820316</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5380,16 +5216,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5416,16 +5249,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5452,16 +5282,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5488,16 +5315,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5524,16 +5348,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5560,16 +5381,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5596,16 +5414,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5632,16 +5447,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5668,16 +5480,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5704,16 +5513,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5740,16 +5546,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5776,16 +5579,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5812,16 +5612,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5848,16 +5645,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5884,16 +5678,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5920,16 +5711,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5956,16 +5744,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5992,16 +5777,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6028,16 +5810,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6064,16 +5843,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6100,16 +5876,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6136,16 +5909,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6172,16 +5942,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6208,16 +5975,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6244,16 +6008,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6280,16 +6041,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6316,16 +6074,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6352,16 +6107,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6388,16 +6140,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6424,16 +6173,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6460,16 +6206,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6496,16 +6239,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6532,16 +6272,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6568,16 +6305,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6604,16 +6338,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6640,16 +6371,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6676,16 +6404,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6712,16 +6437,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6748,16 +6470,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6784,16 +6503,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6820,16 +6536,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6856,16 +6569,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6892,16 +6602,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6928,16 +6635,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6964,16 +6668,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7000,16 +6701,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7036,16 +6734,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7072,16 +6767,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7108,16 +6800,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7144,16 +6833,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7180,18 +6866,15 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest MXC.xlsx
+++ b/BackTest/2020-01-24 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-12338.69588403916</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1.77</v>
@@ -587,7 +587,7 @@
         <v>-28314.73588403916</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>1.77</v>
@@ -628,7 +628,7 @@
         <v>-33814.73588403916</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1.768</v>
@@ -669,9 +669,11 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.762</v>
+      </c>
       <c r="J8" t="n">
         <v>1.77</v>
       </c>
@@ -708,9 +710,11 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.769</v>
+      </c>
       <c r="J9" t="n">
         <v>1.77</v>
       </c>
@@ -747,7 +751,7 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1.769</v>
@@ -827,7 +831,7 @@
         <v>2385601.759815961</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>1.789</v>
@@ -868,7 +872,7 @@
         <v>2362441.419315961</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1.77</v>
@@ -909,7 +913,7 @@
         <v>2362441.419315961</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>1.767</v>
@@ -950,7 +954,7 @@
         <v>2612441.419315961</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>1.767</v>
@@ -991,7 +995,7 @@
         <v>2615795.679315961</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1.789</v>
@@ -1032,11 +1036,9 @@
         <v>2630795.679315961</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>1.77</v>
       </c>
@@ -1541,11 +1543,9 @@
         <v>11174763.38581596</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>1.77</v>
       </c>
@@ -1582,11 +1582,9 @@
         <v>13794236.25411596</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.793</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>1.77</v>
       </c>
@@ -3417,7 +3415,7 @@
         <v>41486777.76008559</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
@@ -3425,11 +3423,11 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>1.017598870056497</v>
       </c>
       <c r="M78" t="inlineStr"/>
     </row>
@@ -3456,17 +3454,11 @@
         <v>41486777.76008559</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3495,17 +3487,11 @@
         <v>41408989.75858559</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3534,17 +3520,11 @@
         <v>41408989.75858559</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3573,17 +3553,11 @@
         <v>41413384.88238559</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3612,17 +3586,11 @@
         <v>41413867.88198559</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3651,17 +3619,11 @@
         <v>41413867.88198559</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3690,17 +3652,11 @@
         <v>41414342.41218559</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3729,17 +3685,11 @@
         <v>41409947.28838558</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3768,17 +3718,11 @@
         <v>41492364.87080317</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3807,17 +3751,11 @@
         <v>41477080.25630317</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3846,17 +3784,11 @@
         <v>41409947.28840317</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3885,17 +3817,11 @@
         <v>41411353.28840317</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3924,17 +3850,11 @@
         <v>41411353.28840317</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3963,17 +3883,11 @@
         <v>41411353.28840317</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4002,17 +3916,11 @@
         <v>41306566.73810317</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4041,17 +3949,11 @@
         <v>41606566.73810317</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4080,17 +3982,11 @@
         <v>41606566.73810317</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4119,17 +4015,11 @@
         <v>41554420.13810316</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4158,17 +4048,11 @@
         <v>41556554.31810316</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4197,17 +4081,11 @@
         <v>42506765.14760316</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4236,17 +4114,11 @@
         <v>41956408.79730316</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4278,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4317,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4356,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4395,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4434,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4473,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4548,19 +4378,13 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
-        <v>1.040197740112994</v>
+        <v>1</v>
       </c>
       <c r="M107" t="inlineStr"/>
     </row>
@@ -4587,7 +4411,7 @@
         <v>42009437.60420316</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4620,7 +4444,7 @@
         <v>42517322.21580316</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4653,7 +4477,7 @@
         <v>42517322.21580316</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4686,7 +4510,7 @@
         <v>42467322.21580316</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4719,7 +4543,7 @@
         <v>42467622.21580316</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4752,7 +4576,7 @@
         <v>42439164.90580316</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4785,7 +4609,7 @@
         <v>42439164.90580316</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4818,7 +4642,7 @@
         <v>42061365.55780316</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4851,7 +4675,7 @@
         <v>42192503.38070316</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4884,7 +4708,7 @@
         <v>42192503.38070316</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4917,7 +4741,7 @@
         <v>42192503.38070316</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4950,7 +4774,7 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4983,7 +4807,7 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5016,7 +4840,7 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -5049,7 +4873,7 @@
         <v>42224566.88920316</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -5082,7 +4906,7 @@
         <v>42224566.88920316</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5115,7 +4939,7 @@
         <v>42178701.18330316</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5148,7 +4972,7 @@
         <v>42151935.11820316</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5181,7 +5005,7 @@
         <v>42151935.11820316</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5214,7 +5038,7 @@
         <v>42151260.68510316</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5247,7 +5071,7 @@
         <v>42171260.68510316</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5280,7 +5104,7 @@
         <v>41962571.71380316</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5313,7 +5137,7 @@
         <v>41962571.71380316</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5346,7 +5170,7 @@
         <v>41917158.27900317</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5379,7 +5203,7 @@
         <v>41871134.27900317</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5412,7 +5236,7 @@
         <v>41871134.27900317</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5445,7 +5269,7 @@
         <v>41119595.01270317</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5478,7 +5302,7 @@
         <v>41408667.01270317</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5511,7 +5335,7 @@
         <v>41401666.52730317</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5544,7 +5368,7 @@
         <v>41432744.81060316</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5577,7 +5401,7 @@
         <v>41563085.25500316</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5610,7 +5434,7 @@
         <v>41579911.79790317</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5643,7 +5467,7 @@
         <v>41498212.82930317</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5676,7 +5500,7 @@
         <v>41513441.19920317</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5709,7 +5533,7 @@
         <v>41459822.70270317</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5742,7 +5566,7 @@
         <v>41465617.75310317</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5874,7 +5698,7 @@
         <v>41456559.16790316</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6006,7 +5830,7 @@
         <v>40817156.64170316</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6039,7 +5863,7 @@
         <v>40772512.32780316</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6072,7 +5896,7 @@
         <v>40772512.32780316</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6105,7 +5929,7 @@
         <v>40817156.64170316</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6171,7 +5995,7 @@
         <v>40799116.61550316</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6204,7 +6028,7 @@
         <v>41054416.61550316</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6303,7 +6127,7 @@
         <v>41025697.61550316</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6336,7 +6160,7 @@
         <v>41568835.54226992</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6369,7 +6193,7 @@
         <v>41384170.43636993</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6402,7 +6226,7 @@
         <v>41262049.71536992</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6501,7 +6325,7 @@
         <v>42375990.46696993</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6534,7 +6358,7 @@
         <v>42952983.40466993</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6567,7 +6391,7 @@
         <v>42715004.60276993</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6875,6 +6699,6 @@
       <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest MXC.xlsx
+++ b/BackTest/2020-01-24 BackTest MXC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1052120.139115961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1052120.139115961</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -550,14 +550,10 @@
         <v>-12338.69588403916</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
@@ -587,19 +583,11 @@
         <v>-28314.73588403916</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -628,386 +616,314 @@
         <v>-33814.73588403916</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.768</v>
-      </c>
-      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-32314.73588403916</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1303.2438</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-32314.73588403916</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F10" t="n">
+        <v>500</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-32314.73588403916</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2461731.4957</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2429416.759815961</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
         <v>1.77</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="C12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F12" t="n">
+        <v>43815</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2385601.759815961</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23160.3405</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2362441.419315961</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="F14" t="n">
+        <v>34495.2166</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2362441.419315961</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F15" t="n">
+        <v>250000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2612441.419315961</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3354.26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2615795.679315961</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G8" t="n">
-        <v>-32314.73588403916</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.762</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1303.2438</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-32314.73588403916</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F10" t="n">
-        <v>500</v>
-      </c>
-      <c r="G10" t="n">
-        <v>-32314.73588403916</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.769</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2461731.4957</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2429416.759815961</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="F12" t="n">
-        <v>43815</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2385601.759815961</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="F13" t="n">
-        <v>23160.3405</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2362441.419315961</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="F14" t="n">
-        <v>34495.2166</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2362441.419315961</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="F15" t="n">
-        <v>250000</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2612441.419315961</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.807</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3354.26</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2615795.679315961</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1036,12 +952,12 @@
         <v>2630795.679315961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>1.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1075,12 +991,12 @@
         <v>2519274.944115961</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>1.77</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1117,9 +1033,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1156,9 +1070,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1195,9 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1234,9 +1144,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1273,9 +1181,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1312,9 +1218,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1351,9 +1255,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1390,9 +1292,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1429,9 +1329,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1468,9 +1366,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1507,9 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1546,9 +1440,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1585,9 +1477,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1624,9 +1514,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1663,9 +1551,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1702,9 +1588,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1741,9 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1780,9 +1662,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1819,9 +1699,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1858,9 +1736,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1897,9 +1773,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1936,9 +1810,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1975,9 +1847,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2014,9 +1884,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2053,9 +1921,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2092,9 +1958,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2131,9 +1995,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2170,9 +2032,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,9 +2069,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2248,9 +2106,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2287,9 +2143,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2326,9 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2362,20 +2214,16 @@
         <v>27902931.5052856</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>1.77</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2401,17 +2249,11 @@
         <v>27931966.0459856</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2440,17 +2282,11 @@
         <v>27846981.6944856</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2479,17 +2315,11 @@
         <v>28023624.3267856</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2518,17 +2348,11 @@
         <v>28108994.1210856</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2560,14 +2384,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2599,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2638,14 +2450,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2674,17 +2480,11 @@
         <v>27862797.6280856</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2713,17 +2513,11 @@
         <v>27865797.6280856</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2752,17 +2546,11 @@
         <v>27870316.9416856</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2791,17 +2579,11 @@
         <v>27877954.3043856</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2830,17 +2612,11 @@
         <v>27900659.1495856</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2869,17 +2645,11 @@
         <v>40872863.62778559</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2911,14 +2681,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2950,14 +2714,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2986,17 +2744,11 @@
         <v>41144196.43268559</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3025,17 +2777,11 @@
         <v>41183351.38548559</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3067,14 +2813,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3106,14 +2846,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3145,14 +2879,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3184,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3223,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3262,14 +2978,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3301,14 +3011,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3340,14 +3044,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3379,14 +3077,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3415,19 +3107,13 @@
         <v>41486777.76008559</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>1.017598870056497</v>
+        <v>1</v>
       </c>
       <c r="M78" t="inlineStr"/>
     </row>
@@ -3454,7 +3140,7 @@
         <v>41486777.76008559</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3487,7 +3173,7 @@
         <v>41408989.75858559</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3520,7 +3206,7 @@
         <v>41408989.75858559</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3553,7 +3239,7 @@
         <v>41413384.88238559</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3586,7 +3272,7 @@
         <v>41413867.88198559</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3619,7 +3305,7 @@
         <v>41413867.88198559</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3652,7 +3338,7 @@
         <v>41414342.41218559</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3685,7 +3371,7 @@
         <v>41409947.28838558</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3718,7 +3404,7 @@
         <v>41492364.87080317</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3751,7 +3437,7 @@
         <v>41477080.25630317</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3784,7 +3470,7 @@
         <v>41409947.28840317</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3817,7 +3503,7 @@
         <v>41411353.28840317</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3850,7 +3536,7 @@
         <v>41411353.28840317</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3883,7 +3569,7 @@
         <v>41411353.28840317</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3916,7 +3602,7 @@
         <v>41306566.73810317</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3949,7 +3635,7 @@
         <v>41606566.73810317</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3982,7 +3668,7 @@
         <v>41606566.73810317</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4015,7 +3701,7 @@
         <v>41554420.13810316</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -4048,7 +3734,7 @@
         <v>41556554.31810316</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4081,7 +3767,7 @@
         <v>42506765.14760316</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4444,7 +4130,7 @@
         <v>42517322.21580316</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4510,7 +4196,7 @@
         <v>42467322.21580316</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4543,7 +4229,7 @@
         <v>42467622.21580316</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4576,7 +4262,7 @@
         <v>42439164.90580316</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4609,7 +4295,7 @@
         <v>42439164.90580316</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4642,7 +4328,7 @@
         <v>42061365.55780316</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4675,7 +4361,7 @@
         <v>42192503.38070316</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4741,7 +4427,7 @@
         <v>42192503.38070316</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4774,7 +4460,7 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4807,7 +4493,7 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4840,7 +4526,7 @@
         <v>42209100.01160316</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4873,7 +4559,7 @@
         <v>42224566.88920316</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4906,7 +4592,7 @@
         <v>42224566.88920316</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4939,7 +4625,7 @@
         <v>42178701.18330316</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4972,7 +4658,7 @@
         <v>42151935.11820316</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5005,7 +4691,7 @@
         <v>42151935.11820316</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -5038,7 +4724,7 @@
         <v>42151260.68510316</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5071,7 +4757,7 @@
         <v>42171260.68510316</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5104,7 +4790,7 @@
         <v>41962571.71380316</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5137,7 +4823,7 @@
         <v>41962571.71380316</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5170,7 +4856,7 @@
         <v>41917158.27900317</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5203,7 +4889,7 @@
         <v>41871134.27900317</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5236,7 +4922,7 @@
         <v>41871134.27900317</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5269,7 +4955,7 @@
         <v>41119595.01270317</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5302,7 +4988,7 @@
         <v>41408667.01270317</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5335,7 +5021,7 @@
         <v>41401666.52730317</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5368,7 +5054,7 @@
         <v>41432744.81060316</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5401,7 +5087,7 @@
         <v>41563085.25500316</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5434,7 +5120,7 @@
         <v>41579911.79790317</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5467,7 +5153,7 @@
         <v>41498212.82930317</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5500,7 +5186,7 @@
         <v>41513441.19920317</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5533,7 +5219,7 @@
         <v>41459822.70270317</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5566,7 +5252,7 @@
         <v>41465617.75310317</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5698,7 +5384,7 @@
         <v>41456559.16790316</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5830,7 +5516,7 @@
         <v>40817156.64170316</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5863,7 +5549,7 @@
         <v>40772512.32780316</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5896,7 +5582,7 @@
         <v>40772512.32780316</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5929,7 +5615,7 @@
         <v>40817156.64170316</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5995,7 +5681,7 @@
         <v>40799116.61550316</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6028,7 +5714,7 @@
         <v>41054416.61550316</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6127,7 +5813,7 @@
         <v>41025697.61550316</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6160,7 +5846,7 @@
         <v>41568835.54226992</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6193,7 +5879,7 @@
         <v>41384170.43636993</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6226,7 +5912,7 @@
         <v>41262049.71536992</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6325,7 +6011,7 @@
         <v>42375990.46696993</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6358,7 +6044,7 @@
         <v>42952983.40466993</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6391,7 +6077,7 @@
         <v>42715004.60276993</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6699,6 +6385,6 @@
       <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest MXC.xlsx
+++ b/BackTest/2020-01-24 BackTest MXC.xlsx
@@ -451,7 +451,7 @@
         <v>1052120.139115961</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1052120.139115961</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.789</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>-12338.69588403916</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.789</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>-12338.69588403916</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.77</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>-28314.73588403916</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.77</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>-33814.73588403916</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.768</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.762</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.769</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +757,17 @@
         <v>-32314.73588403916</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.769</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +796,17 @@
         <v>2429416.759815961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.769</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +835,17 @@
         <v>2385601.759815961</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.789</v>
+      </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +874,17 @@
         <v>2362441.419315961</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.77</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +913,17 @@
         <v>2362441.419315961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,11 +952,17 @@
         <v>2612441.419315961</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.767</v>
+      </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -921,7 +999,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -952,11 +1030,9 @@
         <v>2630795.679315961</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -991,11 +1067,9 @@
         <v>2519274.944115961</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
@@ -2214,16 +2288,18 @@
         <v>27902931.5052856</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
       <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2249,11 +2325,15 @@
         <v>27931966.0459856</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2282,11 +2362,15 @@
         <v>27846981.6944856</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2315,11 +2399,15 @@
         <v>28023624.3267856</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2348,11 +2436,15 @@
         <v>28108994.1210856</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2385,7 +2477,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2418,7 +2514,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2451,7 +2551,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2480,11 +2584,15 @@
         <v>27862797.6280856</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2513,11 +2621,15 @@
         <v>27865797.6280856</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2546,11 +2658,15 @@
         <v>27870316.9416856</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2579,11 +2695,15 @@
         <v>27877954.3043856</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2612,11 +2732,15 @@
         <v>27900659.1495856</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2645,11 +2769,15 @@
         <v>40872863.62778559</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2682,7 +2810,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2715,7 +2847,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2744,11 +2880,15 @@
         <v>41144196.43268559</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2777,11 +2917,15 @@
         <v>41183351.38548559</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2814,7 +2958,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2843,14 +2991,16 @@
         <v>41391385.96128559</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2876,7 +3026,7 @@
         <v>41341267.67428559</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2909,7 +3059,7 @@
         <v>41305651.99538559</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2942,7 +3092,7 @@
         <v>41305651.99538559</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2975,7 +3125,7 @@
         <v>41682447.70498559</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3041,7 +3191,7 @@
         <v>41677925.8096856</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3074,7 +3224,7 @@
         <v>41310459.64718559</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3107,7 +3257,7 @@
         <v>41486777.76008559</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3371,7 +3521,7 @@
         <v>41409947.28838558</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3569,7 +3719,7 @@
         <v>41411353.28840317</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3701,7 +3851,7 @@
         <v>41554420.13810316</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3899,7 +4049,7 @@
         <v>42010196.46270316</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3932,7 +4082,7 @@
         <v>42010196.46270316</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3998,7 +4148,7 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4031,7 +4181,7 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4064,7 +4214,7 @@
         <v>42010750.46270316</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4097,7 +4247,7 @@
         <v>42009437.60420316</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4130,7 +4280,7 @@
         <v>42517322.21580316</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4625,7 +4775,7 @@
         <v>42178701.18330316</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4658,7 +4808,7 @@
         <v>42151935.11820316</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>

--- a/BackTest/2020-01-24 BackTest MXC.xlsx
+++ b/BackTest/2020-01-24 BackTest MXC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>432710</v>
       </c>
       <c r="G2" t="n">
-        <v>1052120.139115961</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>983005.6438</v>
       </c>
       <c r="G3" t="n">
-        <v>1052120.139115961</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>1064458.835</v>
       </c>
       <c r="G4" t="n">
-        <v>-12338.69588403916</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>70687.80590000001</v>
       </c>
       <c r="G5" t="n">
-        <v>-12338.69588403916</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +563,15 @@
         <v>15976.04</v>
       </c>
       <c r="G6" t="n">
-        <v>-28314.73588403916</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +593,15 @@
         <v>5500</v>
       </c>
       <c r="G7" t="n">
-        <v>-33814.73588403916</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1.768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +623,15 @@
         <v>1500</v>
       </c>
       <c r="G8" t="n">
-        <v>-32314.73588403916</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +653,19 @@
         <v>1303.2438</v>
       </c>
       <c r="G9" t="n">
-        <v>-32314.73588403916</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>1.769</v>
       </c>
       <c r="I9" t="n">
         <v>1.769</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,24 +687,21 @@
         <v>500</v>
       </c>
       <c r="G10" t="n">
-        <v>-32314.73588403916</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>1.769</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -793,24 +723,21 @@
         <v>2461731.4957</v>
       </c>
       <c r="G11" t="n">
-        <v>2429416.759815961</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>1.769</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -832,24 +759,21 @@
         <v>43815</v>
       </c>
       <c r="G12" t="n">
-        <v>2385601.759815961</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>1.769</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -871,24 +795,21 @@
         <v>23160.3405</v>
       </c>
       <c r="G13" t="n">
-        <v>2362441.419315961</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>1.769</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,24 +831,23 @@
         <v>34495.2166</v>
       </c>
       <c r="G14" t="n">
-        <v>2362441.419315961</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>1.767</v>
       </c>
       <c r="I14" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>1.769</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -949,24 +869,23 @@
         <v>250000</v>
       </c>
       <c r="G15" t="n">
-        <v>2612441.419315961</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>1.767</v>
       </c>
       <c r="I15" t="n">
-        <v>1.767</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>1.769</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,24 +907,23 @@
         <v>3354.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2615795.679315961</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>1.789</v>
       </c>
       <c r="I16" t="n">
-        <v>1.789</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>1.769</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1027,22 +945,23 @@
         <v>15000</v>
       </c>
       <c r="G17" t="n">
-        <v>2630795.679315961</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>1.79</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1064,22 +983,21 @@
         <v>111520.7352</v>
       </c>
       <c r="G18" t="n">
-        <v>2519274.944115961</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1101,22 +1019,21 @@
         <v>170881.8578</v>
       </c>
       <c r="G19" t="n">
-        <v>2690156.80191596</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1138,22 +1055,21 @@
         <v>13226235.0597</v>
       </c>
       <c r="G20" t="n">
-        <v>15916391.86161596</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1175,22 +1091,21 @@
         <v>2785343.7456</v>
       </c>
       <c r="G21" t="n">
-        <v>13131048.11601596</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,22 +1127,21 @@
         <v>2085193.9664</v>
       </c>
       <c r="G22" t="n">
-        <v>11045854.14961596</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1249,22 +1163,21 @@
         <v>1693928.1871</v>
       </c>
       <c r="G23" t="n">
-        <v>12739782.33671596</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1286,22 +1199,21 @@
         <v>1942508.8233</v>
       </c>
       <c r="G24" t="n">
-        <v>10797273.51341596</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1323,22 +1235,21 @@
         <v>1083686.919</v>
       </c>
       <c r="G25" t="n">
-        <v>11880960.43241596</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1360,22 +1271,21 @@
         <v>1641840.5568</v>
       </c>
       <c r="G26" t="n">
-        <v>13522800.98921596</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1397,22 +1307,21 @@
         <v>934683.8964</v>
       </c>
       <c r="G27" t="n">
-        <v>12588117.09281596</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1434,22 +1343,21 @@
         <v>644403.4300000001</v>
       </c>
       <c r="G28" t="n">
-        <v>11943713.66281596</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1471,22 +1379,21 @@
         <v>11049.723</v>
       </c>
       <c r="G29" t="n">
-        <v>11954763.38581596</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1508,22 +1415,21 @@
         <v>780000</v>
       </c>
       <c r="G30" t="n">
-        <v>11174763.38581596</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1545,22 +1451,21 @@
         <v>2619472.8683</v>
       </c>
       <c r="G31" t="n">
-        <v>13794236.25411596</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1582,22 +1487,21 @@
         <v>500000</v>
       </c>
       <c r="G32" t="n">
-        <v>13294236.25411596</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1619,22 +1523,21 @@
         <v>1033.68</v>
       </c>
       <c r="G33" t="n">
-        <v>13295269.93411596</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1656,22 +1559,21 @@
         <v>6672533.4913</v>
       </c>
       <c r="G34" t="n">
-        <v>6622736.442815961</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1693,22 +1595,21 @@
         <v>6670506.707</v>
       </c>
       <c r="G35" t="n">
-        <v>13293243.14981596</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1730,22 +1631,21 @@
         <v>7883573.3893</v>
       </c>
       <c r="G36" t="n">
-        <v>21176816.53911596</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1767,22 +1667,21 @@
         <v>2513.93</v>
       </c>
       <c r="G37" t="n">
-        <v>21174302.60911596</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1804,22 +1703,21 @@
         <v>6436824.4301</v>
       </c>
       <c r="G38" t="n">
-        <v>27611127.03921596</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1841,22 +1739,23 @@
         <v>3142936.761037433</v>
       </c>
       <c r="G39" t="n">
-        <v>30754063.80025339</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1.066226681741097</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>1.016477272727273</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1878,22 +1777,15 @@
         <v>607680.4017</v>
       </c>
       <c r="G40" t="n">
-        <v>30146383.39855339</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1915,22 +1807,15 @@
         <v>1222744.9647</v>
       </c>
       <c r="G41" t="n">
-        <v>28923638.4338534</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1952,22 +1837,15 @@
         <v>1275166.7963</v>
       </c>
       <c r="G42" t="n">
-        <v>30198805.2301534</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1989,22 +1867,15 @@
         <v>889337.6710677966</v>
       </c>
       <c r="G43" t="n">
-        <v>29309467.5590856</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2026,22 +1897,15 @@
         <v>608808.2</v>
       </c>
       <c r="G44" t="n">
-        <v>28700659.3590856</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2063,22 +1927,15 @@
         <v>104715</v>
       </c>
       <c r="G45" t="n">
-        <v>28700659.3590856</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2100,22 +1957,15 @@
         <v>39277.0303</v>
       </c>
       <c r="G46" t="n">
-        <v>28739936.3893856</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2137,22 +1987,15 @@
         <v>10881.392</v>
       </c>
       <c r="G47" t="n">
-        <v>28750817.7813856</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2174,22 +2017,15 @@
         <v>200000</v>
       </c>
       <c r="G48" t="n">
-        <v>28550817.7813856</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2211,22 +2047,15 @@
         <v>146870.7275</v>
       </c>
       <c r="G49" t="n">
-        <v>28403947.0538856</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2248,22 +2077,15 @@
         <v>250507.7743</v>
       </c>
       <c r="G50" t="n">
-        <v>28153439.2795856</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2285,22 +2107,15 @@
         <v>250507.7743</v>
       </c>
       <c r="G51" t="n">
-        <v>27902931.5052856</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2322,22 +2137,15 @@
         <v>29034.5407</v>
       </c>
       <c r="G52" t="n">
-        <v>27931966.0459856</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2359,22 +2167,15 @@
         <v>84984.3515</v>
       </c>
       <c r="G53" t="n">
-        <v>27846981.6944856</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2396,22 +2197,15 @@
         <v>176642.6323</v>
       </c>
       <c r="G54" t="n">
-        <v>28023624.3267856</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2433,22 +2227,15 @@
         <v>85369.79429999999</v>
       </c>
       <c r="G55" t="n">
-        <v>28108994.1210856</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2470,22 +2257,15 @@
         <v>269396.507</v>
       </c>
       <c r="G56" t="n">
-        <v>28378390.6280856</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2507,22 +2287,15 @@
         <v>1000</v>
       </c>
       <c r="G57" t="n">
-        <v>28379390.6280856</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2544,22 +2317,15 @@
         <v>517593</v>
       </c>
       <c r="G58" t="n">
-        <v>27861797.6280856</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2581,22 +2347,15 @@
         <v>1000</v>
       </c>
       <c r="G59" t="n">
-        <v>27862797.6280856</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2618,22 +2377,15 @@
         <v>3000</v>
       </c>
       <c r="G60" t="n">
-        <v>27865797.6280856</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2655,22 +2407,15 @@
         <v>4519.3136</v>
       </c>
       <c r="G61" t="n">
-        <v>27870316.9416856</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2692,22 +2437,15 @@
         <v>7637.3627</v>
       </c>
       <c r="G62" t="n">
-        <v>27877954.3043856</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2729,22 +2467,15 @@
         <v>22704.8452</v>
       </c>
       <c r="G63" t="n">
-        <v>27900659.1495856</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2766,22 +2497,15 @@
         <v>12972204.4782</v>
       </c>
       <c r="G64" t="n">
-        <v>40872863.62778559</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2803,22 +2527,15 @@
         <v>180006.3743</v>
       </c>
       <c r="G65" t="n">
-        <v>40872863.62778559</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2840,22 +2557,15 @@
         <v>554892.7286</v>
       </c>
       <c r="G66" t="n">
-        <v>40872863.62778559</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2877,22 +2587,15 @@
         <v>271332.8049</v>
       </c>
       <c r="G67" t="n">
-        <v>41144196.43268559</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2914,22 +2617,15 @@
         <v>39154.9528</v>
       </c>
       <c r="G68" t="n">
-        <v>41183351.38548559</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2951,22 +2647,15 @@
         <v>208034.5758</v>
       </c>
       <c r="G69" t="n">
-        <v>41391385.96128559</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2988,20 +2677,15 @@
         <v>99538.864</v>
       </c>
       <c r="G70" t="n">
-        <v>41391385.96128559</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K70" t="n">
+        <v>1</v>
       </c>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3023,18 +2707,15 @@
         <v>50118.287</v>
       </c>
       <c r="G71" t="n">
-        <v>41341267.67428559</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3056,18 +2737,15 @@
         <v>35615.6789</v>
       </c>
       <c r="G72" t="n">
-        <v>41305651.99538559</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3089,18 +2767,15 @@
         <v>7299.2536</v>
       </c>
       <c r="G73" t="n">
-        <v>41305651.99538559</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3122,18 +2797,15 @@
         <v>376795.7096</v>
       </c>
       <c r="G74" t="n">
-        <v>41682447.70498559</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3155,18 +2827,15 @@
         <v>310.7669</v>
       </c>
       <c r="G75" t="n">
-        <v>41682758.47188559</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3188,18 +2857,15 @@
         <v>4832.6622</v>
       </c>
       <c r="G76" t="n">
-        <v>41677925.8096856</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3221,18 +2887,15 @@
         <v>367466.1625</v>
       </c>
       <c r="G77" t="n">
-        <v>41310459.64718559</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3254,18 +2917,15 @@
         <v>176318.1129</v>
       </c>
       <c r="G78" t="n">
-        <v>41486777.76008559</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3287,18 +2947,15 @@
         <v>802320.0082</v>
       </c>
       <c r="G79" t="n">
-        <v>41486777.76008559</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3320,18 +2977,15 @@
         <v>77788.0015</v>
       </c>
       <c r="G80" t="n">
-        <v>41408989.75858559</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3353,18 +3007,15 @@
         <v>280314.4677</v>
       </c>
       <c r="G81" t="n">
-        <v>41408989.75858559</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3386,18 +3037,15 @@
         <v>4395.1238</v>
       </c>
       <c r="G82" t="n">
-        <v>41413384.88238559</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3419,18 +3067,15 @@
         <v>482.9996</v>
       </c>
       <c r="G83" t="n">
-        <v>41413867.88198559</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3452,18 +3097,15 @@
         <v>43423.1546</v>
       </c>
       <c r="G84" t="n">
-        <v>41413867.88198559</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3485,18 +3127,15 @@
         <v>474.5302</v>
       </c>
       <c r="G85" t="n">
-        <v>41414342.41218559</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3518,18 +3157,15 @@
         <v>4395.1238</v>
       </c>
       <c r="G86" t="n">
-        <v>41409947.28838558</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3551,18 +3187,15 @@
         <v>82417.58241758242</v>
       </c>
       <c r="G87" t="n">
-        <v>41492364.87080317</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3584,18 +3217,15 @@
         <v>15284.6145</v>
       </c>
       <c r="G88" t="n">
-        <v>41477080.25630317</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3617,18 +3247,15 @@
         <v>67132.9679</v>
       </c>
       <c r="G89" t="n">
-        <v>41409947.28840317</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3650,18 +3277,15 @@
         <v>1406</v>
       </c>
       <c r="G90" t="n">
-        <v>41411353.28840317</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3683,18 +3307,15 @@
         <v>65726.9679</v>
       </c>
       <c r="G91" t="n">
-        <v>41411353.28840317</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3716,18 +3337,15 @@
         <v>603237.1747</v>
       </c>
       <c r="G92" t="n">
-        <v>41411353.28840317</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3749,18 +3367,15 @@
         <v>104786.5503</v>
       </c>
       <c r="G93" t="n">
-        <v>41306566.73810317</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3782,18 +3397,15 @@
         <v>300000</v>
       </c>
       <c r="G94" t="n">
-        <v>41606566.73810317</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3815,18 +3427,15 @@
         <v>40000</v>
       </c>
       <c r="G95" t="n">
-        <v>41606566.73810317</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3848,18 +3457,15 @@
         <v>52146.6</v>
       </c>
       <c r="G96" t="n">
-        <v>41554420.13810316</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3881,18 +3487,15 @@
         <v>2134.18</v>
       </c>
       <c r="G97" t="n">
-        <v>41556554.31810316</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,18 +3517,15 @@
         <v>950210.8295</v>
       </c>
       <c r="G98" t="n">
-        <v>42506765.14760316</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3947,18 +3547,15 @@
         <v>550356.3503</v>
       </c>
       <c r="G99" t="n">
-        <v>41956408.79730316</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3980,18 +3577,15 @@
         <v>53510.6654</v>
       </c>
       <c r="G100" t="n">
-        <v>42009919.46270316</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4013,18 +3607,15 @@
         <v>277</v>
       </c>
       <c r="G101" t="n">
-        <v>42010196.46270316</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4046,18 +3637,15 @@
         <v>277</v>
       </c>
       <c r="G102" t="n">
-        <v>42010196.46270316</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4079,18 +3667,15 @@
         <v>277</v>
       </c>
       <c r="G103" t="n">
-        <v>42010196.46270316</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4112,18 +3697,15 @@
         <v>554</v>
       </c>
       <c r="G104" t="n">
-        <v>42010750.46270316</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4145,18 +3727,15 @@
         <v>8833.5923</v>
       </c>
       <c r="G105" t="n">
-        <v>42010750.46270316</v>
-      </c>
-      <c r="H105" t="n">
         <v>2</v>
       </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4178,18 +3757,15 @@
         <v>321067.8</v>
       </c>
       <c r="G106" t="n">
-        <v>42010750.46270316</v>
-      </c>
-      <c r="H106" t="n">
         <v>2</v>
       </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4211,18 +3787,15 @@
         <v>23906.82</v>
       </c>
       <c r="G107" t="n">
-        <v>42010750.46270316</v>
-      </c>
-      <c r="H107" t="n">
         <v>2</v>
       </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4244,18 +3817,15 @@
         <v>1312.8585</v>
       </c>
       <c r="G108" t="n">
-        <v>42009437.60420316</v>
-      </c>
-      <c r="H108" t="n">
         <v>2</v>
       </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4277,18 +3847,15 @@
         <v>507884.6116</v>
       </c>
       <c r="G109" t="n">
-        <v>42517322.21580316</v>
-      </c>
-      <c r="H109" t="n">
         <v>2</v>
       </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4310,18 +3877,15 @@
         <v>242537.0522</v>
       </c>
       <c r="G110" t="n">
-        <v>42517322.21580316</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4343,18 +3907,15 @@
         <v>50000</v>
       </c>
       <c r="G111" t="n">
-        <v>42467322.21580316</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4376,18 +3937,15 @@
         <v>300</v>
       </c>
       <c r="G112" t="n">
-        <v>42467622.21580316</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4409,18 +3967,15 @@
         <v>28457.31</v>
       </c>
       <c r="G113" t="n">
-        <v>42439164.90580316</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4442,18 +3997,15 @@
         <v>10976.5358</v>
       </c>
       <c r="G114" t="n">
-        <v>42439164.90580316</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4475,18 +4027,15 @@
         <v>377799.348</v>
       </c>
       <c r="G115" t="n">
-        <v>42061365.55780316</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4508,18 +4057,15 @@
         <v>131137.8229</v>
       </c>
       <c r="G116" t="n">
-        <v>42192503.38070316</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4541,18 +4087,15 @@
         <v>5994.4268</v>
       </c>
       <c r="G117" t="n">
-        <v>42192503.38070316</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4574,18 +4117,15 @@
         <v>1550.6</v>
       </c>
       <c r="G118" t="n">
-        <v>42192503.38070316</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4607,18 +4147,15 @@
         <v>16596.6309</v>
       </c>
       <c r="G119" t="n">
-        <v>42209100.01160316</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4640,18 +4177,15 @@
         <v>57497.731</v>
       </c>
       <c r="G120" t="n">
-        <v>42209100.01160316</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4673,18 +4207,15 @@
         <v>605.5096</v>
       </c>
       <c r="G121" t="n">
-        <v>42209100.01160316</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4706,18 +4237,15 @@
         <v>15466.8776</v>
       </c>
       <c r="G122" t="n">
-        <v>42224566.88920316</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4739,18 +4267,15 @@
         <v>15477.4811</v>
       </c>
       <c r="G123" t="n">
-        <v>42224566.88920316</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4772,18 +4297,15 @@
         <v>45865.7059</v>
       </c>
       <c r="G124" t="n">
-        <v>42178701.18330316</v>
-      </c>
-      <c r="H124" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4805,18 +4327,15 @@
         <v>26766.0651</v>
       </c>
       <c r="G125" t="n">
-        <v>42151935.11820316</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4838,18 +4357,15 @@
         <v>18376.432</v>
       </c>
       <c r="G126" t="n">
-        <v>42151935.11820316</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4871,18 +4387,15 @@
         <v>674.4331</v>
       </c>
       <c r="G127" t="n">
-        <v>42151260.68510316</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4904,18 +4417,15 @@
         <v>20000</v>
       </c>
       <c r="G128" t="n">
-        <v>42171260.68510316</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4937,18 +4447,15 @@
         <v>208688.9713</v>
       </c>
       <c r="G129" t="n">
-        <v>41962571.71380316</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4970,18 +4477,15 @@
         <v>1157</v>
       </c>
       <c r="G130" t="n">
-        <v>41962571.71380316</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5003,18 +4507,15 @@
         <v>45413.4348</v>
       </c>
       <c r="G131" t="n">
-        <v>41917158.27900317</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5036,18 +4537,15 @@
         <v>46024</v>
       </c>
       <c r="G132" t="n">
-        <v>41871134.27900317</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5069,18 +4567,15 @@
         <v>83269</v>
       </c>
       <c r="G133" t="n">
-        <v>41871134.27900317</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5102,18 +4597,15 @@
         <v>751539.2663</v>
       </c>
       <c r="G134" t="n">
-        <v>41119595.01270317</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5135,18 +4627,15 @@
         <v>289072</v>
       </c>
       <c r="G135" t="n">
-        <v>41408667.01270317</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5168,18 +4657,21 @@
         <v>7000.4854</v>
       </c>
       <c r="G136" t="n">
-        <v>41401666.52730317</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5201,18 +4693,21 @@
         <v>31078.2833</v>
       </c>
       <c r="G137" t="n">
-        <v>41432744.81060316</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1.769</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5234,18 +4729,21 @@
         <v>130340.4444</v>
       </c>
       <c r="G138" t="n">
-        <v>41563085.25500316</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5267,18 +4765,19 @@
         <v>16826.5429</v>
       </c>
       <c r="G139" t="n">
-        <v>41579911.79790317</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5300,18 +4799,19 @@
         <v>81698.96859999999</v>
       </c>
       <c r="G140" t="n">
-        <v>41498212.82930317</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5333,18 +4833,19 @@
         <v>15228.3699</v>
       </c>
       <c r="G141" t="n">
-        <v>41513441.19920317</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5366,18 +4867,19 @@
         <v>53618.4965</v>
       </c>
       <c r="G142" t="n">
-        <v>41459822.70270317</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5399,18 +4901,19 @@
         <v>5795.0504</v>
       </c>
       <c r="G143" t="n">
-        <v>41465617.75310317</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5432,18 +4935,19 @@
         <v>1000</v>
       </c>
       <c r="G144" t="n">
-        <v>41465617.75310317</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5465,18 +4969,19 @@
         <v>280</v>
       </c>
       <c r="G145" t="n">
-        <v>41465897.75310317</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5498,18 +5003,19 @@
         <v>1054.5294</v>
       </c>
       <c r="G146" t="n">
-        <v>41466952.28250317</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5531,18 +5037,19 @@
         <v>10393.1146</v>
       </c>
       <c r="G147" t="n">
-        <v>41456559.16790316</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5564,18 +5071,19 @@
         <v>99.34</v>
       </c>
       <c r="G148" t="n">
-        <v>41456459.82790316</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5597,18 +5105,19 @@
         <v>596193.857</v>
       </c>
       <c r="G149" t="n">
-        <v>40860265.97090316</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5630,18 +5139,19 @@
         <v>6549.6708</v>
       </c>
       <c r="G150" t="n">
-        <v>40866815.64170316</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5663,18 +5173,19 @@
         <v>49659</v>
       </c>
       <c r="G151" t="n">
-        <v>40817156.64170316</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5696,18 +5207,19 @@
         <v>44644.3139</v>
       </c>
       <c r="G152" t="n">
-        <v>40772512.32780316</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5729,18 +5241,21 @@
         <v>281965.6581</v>
       </c>
       <c r="G153" t="n">
-        <v>40772512.32780316</v>
+        <v>1</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5762,18 +5277,19 @@
         <v>44644.3139</v>
       </c>
       <c r="G154" t="n">
-        <v>40817156.64170316</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5795,18 +5311,21 @@
         <v>6270.9886</v>
       </c>
       <c r="G155" t="n">
-        <v>40823427.63030316</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1.772</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5828,18 +5347,19 @@
         <v>24311.0148</v>
       </c>
       <c r="G156" t="n">
-        <v>40799116.61550316</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5861,18 +5381,19 @@
         <v>255300</v>
       </c>
       <c r="G157" t="n">
-        <v>41054416.61550316</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5894,18 +5415,19 @@
         <v>30000</v>
       </c>
       <c r="G158" t="n">
-        <v>41024416.61550316</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5927,18 +5449,19 @@
         <v>1000</v>
       </c>
       <c r="G159" t="n">
-        <v>41025416.61550316</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5960,18 +5483,19 @@
         <v>281</v>
       </c>
       <c r="G160" t="n">
-        <v>41025697.61550316</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5993,18 +5517,19 @@
         <v>543137.9267667582</v>
       </c>
       <c r="G161" t="n">
-        <v>41568835.54226992</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6026,18 +5551,19 @@
         <v>184665.1059</v>
       </c>
       <c r="G162" t="n">
-        <v>41384170.43636993</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6059,18 +5585,19 @@
         <v>122120.721</v>
       </c>
       <c r="G163" t="n">
-        <v>41262049.71536992</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6092,18 +5619,19 @@
         <v>196729.3296</v>
       </c>
       <c r="G164" t="n">
-        <v>41458779.04496992</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6125,18 +5653,19 @@
         <v>2149.3361</v>
       </c>
       <c r="G165" t="n">
-        <v>41456629.70886993</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6158,18 +5687,19 @@
         <v>919360.7581</v>
       </c>
       <c r="G166" t="n">
-        <v>42375990.46696993</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6191,18 +5721,19 @@
         <v>576992.9377</v>
       </c>
       <c r="G167" t="n">
-        <v>42952983.40466993</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6224,18 +5755,19 @@
         <v>237978.8019</v>
       </c>
       <c r="G168" t="n">
-        <v>42715004.60276993</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6257,18 +5789,19 @@
         <v>208826.4329</v>
       </c>
       <c r="G169" t="n">
-        <v>42715004.60276993</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6290,18 +5823,19 @@
         <v>262256.3604</v>
       </c>
       <c r="G170" t="n">
-        <v>42977260.96316993</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6323,18 +5857,19 @@
         <v>200141.4824</v>
       </c>
       <c r="G171" t="n">
-        <v>42777119.48076993</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6356,18 +5891,19 @@
         <v>23561.1873</v>
       </c>
       <c r="G172" t="n">
-        <v>42777119.48076993</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6389,18 +5925,19 @@
         <v>34858.7207</v>
       </c>
       <c r="G173" t="n">
-        <v>42777119.48076993</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6422,18 +5959,19 @@
         <v>7000</v>
       </c>
       <c r="G174" t="n">
-        <v>42770119.48076993</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6455,18 +5993,19 @@
         <v>227776.8193</v>
       </c>
       <c r="G175" t="n">
-        <v>42770119.48076993</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6488,18 +6027,19 @@
         <v>300</v>
       </c>
       <c r="G176" t="n">
-        <v>42770419.48076993</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6521,18 +6061,19 @@
         <v>701080.2433</v>
       </c>
       <c r="G177" t="n">
-        <v>42069339.23746993</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
